--- a/legendre_out/DATA/a1/a1Fits.xlsx
+++ b/legendre_out/DATA/a1/a1Fits.xlsx
@@ -388,16 +388,16 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>3.424536350759639</v>
+        <v>3.996021</v>
       </c>
       <c r="B2" t="n">
-        <v>2.473895672926275e-05</v>
+        <v>26266158381009.4</v>
       </c>
       <c r="C2" t="n">
-        <v>6.043389961600601e-07</v>
+        <v>637845187870.8157</v>
       </c>
       <c r="D2" t="n">
-        <v>4.879333865956587e-22</v>
+        <v>0.3206995831729136</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -407,16 +407,16 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>3.42877843536789</v>
+        <v>4.000967</v>
       </c>
       <c r="B3" t="n">
-        <v>2.248752179696807e-05</v>
+        <v>24191172664421.75</v>
       </c>
       <c r="C3" t="n">
-        <v>6.073297084848897e-07</v>
+        <v>636577961255.866</v>
       </c>
       <c r="D3" t="n">
-        <v>4.086911347151559e-21</v>
+        <v>0.1911497426129495</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -426,16 +426,16 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>3.430466699343294</v>
+        <v>4.00294</v>
       </c>
       <c r="B4" t="n">
-        <v>2.236677593425376e-05</v>
+        <v>22563455968366.57</v>
       </c>
       <c r="C4" t="n">
-        <v>6.182423933191606e-07</v>
+        <v>610174425947.78</v>
       </c>
       <c r="D4" t="n">
-        <v>3.176204128723109e-14</v>
+        <v>0.2033566748671685</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -445,16 +445,16 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>3.433920356105163</v>
+        <v>4.006972</v>
       </c>
       <c r="B5" t="n">
-        <v>2.019055416350365e-05</v>
+        <v>21265323787939.45</v>
       </c>
       <c r="C5" t="n">
-        <v>5.911153839766762e-07</v>
+        <v>597132438357.9393</v>
       </c>
       <c r="D5" t="n">
-        <v>9.030002131455271e-17</v>
+        <v>0.006938283654961844</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -464,16 +464,16 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>3.435737168099</v>
+        <v>4.009086</v>
       </c>
       <c r="B6" t="n">
-        <v>2.053894706788864e-05</v>
+        <v>20766728344636.64</v>
       </c>
       <c r="C6" t="n">
-        <v>6.580175860829168e-07</v>
+        <v>628656392761.6399</v>
       </c>
       <c r="D6" t="n">
-        <v>8.231575198756334e-13</v>
+        <v>0.1173906377756931</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -483,16 +483,16 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>3.436542735681173</v>
+        <v>4.010032</v>
       </c>
       <c r="B7" t="n">
-        <v>2.060649838071788e-05</v>
+        <v>20248107039059.88</v>
       </c>
       <c r="C7" t="n">
-        <v>6.590897271861392e-07</v>
+        <v>622604260845.1572</v>
       </c>
       <c r="D7" t="n">
-        <v>1.27615330441749e-10</v>
+        <v>0.07447615528512951</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -502,16 +502,16 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>3.440861949100481</v>
+        <v>4.01507</v>
       </c>
       <c r="B8" t="n">
-        <v>1.927857352037267e-05</v>
+        <v>19774266087286.65</v>
       </c>
       <c r="C8" t="n">
-        <v>5.741116267953084e-07</v>
+        <v>560460551829.4518</v>
       </c>
       <c r="D8" t="n">
-        <v>1.251315045223581e-14</v>
+        <v>0.130175903120391</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -521,16 +521,16 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>3.444324175730245</v>
+        <v>4.019108</v>
       </c>
       <c r="B9" t="n">
-        <v>1.685028143057033e-05</v>
+        <v>16976557644514.62</v>
       </c>
       <c r="C9" t="n">
-        <v>5.057190855558233e-07</v>
+        <v>489091337904.1931</v>
       </c>
       <c r="D9" t="n">
-        <v>1.030968879563302e-11</v>
+        <v>0.1722605615521016</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -540,16 +540,16 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>3.445018335029777</v>
+        <v>4.019916</v>
       </c>
       <c r="B10" t="n">
-        <v>1.509971713178459e-05</v>
+        <v>14464705429302.04</v>
       </c>
       <c r="C10" t="n">
-        <v>5.305293877824206e-07</v>
+        <v>495285844229.1041</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0001521687590331324</v>
+        <v>0.05363200027856841</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -559,16 +559,16 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>3.44940610739225</v>
+        <v>4.025044</v>
       </c>
       <c r="B11" t="n">
-        <v>9.894555631360898e-06</v>
+        <v>10044051791058.37</v>
       </c>
       <c r="C11" t="n">
-        <v>4.177306670139043e-07</v>
+        <v>394101267492.1676</v>
       </c>
       <c r="D11" t="n">
-        <v>1.348783022490118e-06</v>
+        <v>0.004140514773603434</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -578,16 +578,16 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>3.453639622132605</v>
+        <v>4.029979</v>
       </c>
       <c r="B12" t="n">
-        <v>5.879090940746742e-06</v>
+        <v>6109011034641.726</v>
       </c>
       <c r="C12" t="n">
-        <v>2.867533575292962e-07</v>
+        <v>270024972504.8442</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0006415879896492361</v>
+        <v>0.002542254435409761</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -597,16 +597,16 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>3.45806167396666</v>
+        <v>4.035141</v>
       </c>
       <c r="B13" t="n">
-        <v>4.876545024423077e-06</v>
+        <v>4647027295333.852</v>
       </c>
       <c r="C13" t="n">
-        <v>2.651462062637484e-07</v>
+        <v>240611430780.837</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0005421735070133975</v>
+        <v>0.02759948167591292</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -616,16 +616,16 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>3.659299311887736</v>
+        <v>4.269958</v>
       </c>
       <c r="B14" t="n">
-        <v>1.992492008487131e-05</v>
+        <v>21618795169740.84</v>
       </c>
       <c r="C14" t="n">
-        <v>5.597705164251361e-07</v>
+        <v>586174728185.1631</v>
       </c>
       <c r="D14" t="n">
-        <v>6.828638765546577e-28</v>
+        <v>0.07751227725757361</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -635,16 +635,16 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>3.676516176489705</v>
+        <v>4.290051</v>
       </c>
       <c r="B15" t="n">
-        <v>3.13369355246289e-05</v>
+        <v>33918736766032.9</v>
       </c>
       <c r="C15" t="n">
-        <v>8.001088726512448e-07</v>
+        <v>850306465309.0576</v>
       </c>
       <c r="D15" t="n">
-        <v>1.547931853672813e-22</v>
+        <v>0.1126901708248887</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -654,16 +654,16 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>3.677433152354519</v>
+        <v>4.291116000000001</v>
       </c>
       <c r="B16" t="n">
-        <v>4.307956435772949e-05</v>
+        <v>45990738410900.34</v>
       </c>
       <c r="C16" t="n">
-        <v>1.088062045055942e-06</v>
+        <v>1149837587182.299</v>
       </c>
       <c r="D16" t="n">
-        <v>3.734353765145423e-23</v>
+        <v>0.08187146433803183</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -673,16 +673,16 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>3.679207115008878</v>
+        <v>4.293189</v>
       </c>
       <c r="B17" t="n">
-        <v>4.03028388964728e-05</v>
+        <v>43399166553208.2</v>
       </c>
       <c r="C17" t="n">
-        <v>1.040374054886785e-06</v>
+        <v>1096887715874.037</v>
       </c>
       <c r="D17" t="n">
-        <v>1.95260742637873e-21</v>
+        <v>0.05987005534383341</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -692,16 +692,16 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>3.680072671666319</v>
+        <v>4.294196</v>
       </c>
       <c r="B18" t="n">
-        <v>3.931819481920858e-05</v>
+        <v>44016603835201.71</v>
       </c>
       <c r="C18" t="n">
-        <v>1.05519000183089e-06</v>
+        <v>1146617295114.933</v>
       </c>
       <c r="D18" t="n">
-        <v>1.058360344257876e-29</v>
+        <v>0.02596808603212999</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -711,16 +711,16 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>3.680886809116387</v>
+        <v>4.295147</v>
       </c>
       <c r="B19" t="n">
-        <v>3.986207705582775e-05</v>
+        <v>43650346301356.97</v>
       </c>
       <c r="C19" t="n">
-        <v>1.101035724123574e-06</v>
+        <v>1157102585533.487</v>
       </c>
       <c r="D19" t="n">
-        <v>4.152531252089444e-28</v>
+        <v>0.06074981982436022</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -730,16 +730,16 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>3.681743795905933</v>
+        <v>4.296155000000001</v>
       </c>
       <c r="B20" t="n">
-        <v>3.911551594782208e-05</v>
+        <v>43953372091471.19</v>
       </c>
       <c r="C20" t="n">
-        <v>1.121350114848373e-06</v>
+        <v>1202402508469.496</v>
       </c>
       <c r="D20" t="n">
-        <v>5.710993111983017e-30</v>
+        <v>0.0446817548798877</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -749,16 +749,16 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>3.682660771770746</v>
+        <v>4.297219999999999</v>
       </c>
       <c r="B21" t="n">
-        <v>4.298881398335835e-05</v>
+        <v>47664665835574.34</v>
       </c>
       <c r="C21" t="n">
-        <v>1.313797634584368e-06</v>
+        <v>1352328062816.611</v>
       </c>
       <c r="D21" t="n">
-        <v>6.518859178788319e-31</v>
+        <v>0.1455487359910279</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -768,16 +768,16 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>3.683397780409756</v>
+        <v>4.298083999999999</v>
       </c>
       <c r="B22" t="n">
-        <v>4.410685461101892e-05</v>
+        <v>64880414477411.14</v>
       </c>
       <c r="C22" t="n">
-        <v>1.86013422744288e-06</v>
+        <v>2196692339016.195</v>
       </c>
       <c r="D22" t="n">
-        <v>9.816479641235521e-59</v>
+        <v>0.2707577537499413</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -787,16 +787,16 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>3.684263337067197</v>
+        <v>4.299093</v>
       </c>
       <c r="B23" t="n">
-        <v>5.934056984673998e-05</v>
+        <v>79425655008073.33</v>
       </c>
       <c r="C23" t="n">
-        <v>2.681597701946426e-06</v>
+        <v>2869361501441.252</v>
       </c>
       <c r="D23" t="n">
-        <v>4.770646182618997e-53</v>
+        <v>0.5128419549987994</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -806,16 +806,16 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>3.685943031174706</v>
+        <v>4.301051999999999</v>
       </c>
       <c r="B24" t="n">
-        <v>6.801203927219698e-05</v>
+        <v>97751461857009.98</v>
       </c>
       <c r="C24" t="n">
-        <v>3.494374235307526e-06</v>
+        <v>3682868857642.334</v>
       </c>
       <c r="D24" t="n">
-        <v>2.546282005252554e-60</v>
+        <v>0.2478092136954488</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -825,16 +825,16 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>3.687699854093274</v>
+        <v>4.303098</v>
       </c>
       <c r="B25" t="n">
-        <v>6.000122498946862e-05</v>
+        <v>103753901501705.4</v>
       </c>
       <c r="C25" t="n">
-        <v>2.983065420243913e-06</v>
+        <v>3596591685085.876</v>
       </c>
       <c r="D25" t="n">
-        <v>3.884081528357035e-81</v>
+        <v>0.9509575078380748</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -844,16 +844,16 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>3.689525235955006</v>
+        <v>4.305231</v>
       </c>
       <c r="B26" t="n">
-        <v>6.70760857786738e-05</v>
+        <v>94896562590158.25</v>
       </c>
       <c r="C26" t="n">
-        <v>3.284101877125947e-06</v>
+        <v>3550030885574.061</v>
       </c>
       <c r="D26" t="n">
-        <v>4.155783108436442e-60</v>
+        <v>0.2763090748426273</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -863,16 +863,16 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>3.691256349269888</v>
+        <v>4.30725</v>
       </c>
       <c r="B27" t="n">
-        <v>4.263879289178112e-05</v>
+        <v>89120385087623.81</v>
       </c>
       <c r="C27" t="n">
-        <v>2.550629025562623e-06</v>
+        <v>3453253147039.514</v>
       </c>
       <c r="D27" t="n">
-        <v>1.734017081929096e-79</v>
+        <v>0.1692029445034632</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -882,16 +882,16 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>3.693013172188456</v>
+        <v>4.309297</v>
       </c>
       <c r="B28" t="n">
-        <v>7.244314774825769e-05</v>
+        <v>90785489416900.84</v>
       </c>
       <c r="C28" t="n">
-        <v>3.531144779036452e-06</v>
+        <v>3511832622073.659</v>
       </c>
       <c r="D28" t="n">
-        <v>4.033309281289705e-51</v>
+        <v>0.6852952805240224</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -901,16 +901,16 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>3.693578783469556</v>
+        <v>4.309961</v>
       </c>
       <c r="B29" t="n">
-        <v>5.746665122007901e-05</v>
+        <v>91915085337109.23</v>
       </c>
       <c r="C29" t="n">
-        <v>2.860636410901379e-06</v>
+        <v>3374118892826.108</v>
       </c>
       <c r="D29" t="n">
-        <v>1.4491641854095e-67</v>
+        <v>0.291847217263306</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -920,16 +920,16 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>3.694615737484906</v>
+        <v>4.311172</v>
       </c>
       <c r="B30" t="n">
-        <v>4.958116254673383e-05</v>
+        <v>88475128631953.34</v>
       </c>
       <c r="C30" t="n">
-        <v>2.675883700862877e-06</v>
+        <v>3261090635643.677</v>
       </c>
       <c r="D30" t="n">
-        <v>9.311290234206956e-75</v>
+        <v>0.6681934365759237</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -939,16 +939,16 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>3.696278291856625</v>
+        <v>4.313105999999999</v>
       </c>
       <c r="B31" t="n">
-        <v>3.845191538307322e-05</v>
+        <v>83904885399193.59</v>
       </c>
       <c r="C31" t="n">
-        <v>2.399681293967633e-06</v>
+        <v>3224449562428.536</v>
       </c>
       <c r="D31" t="n">
-        <v>2.966462011969968e-85</v>
+        <v>0.7055528603366732</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -958,16 +958,16 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>3.698009405171506</v>
+        <v>4.315126</v>
       </c>
       <c r="B32" t="n">
-        <v>3.410116729581019e-05</v>
+        <v>78389682250745.12</v>
       </c>
       <c r="C32" t="n">
-        <v>2.231196432024744e-06</v>
+        <v>3153792885841.242</v>
       </c>
       <c r="D32" t="n">
-        <v>2.629131777642023e-82</v>
+        <v>0.8852932709223027</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -977,16 +977,16 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>3.699783367825865</v>
+        <v>4.317204</v>
       </c>
       <c r="B33" t="n">
-        <v>3.252968192417878e-05</v>
+        <v>74714289456584.91</v>
       </c>
       <c r="C33" t="n">
-        <v>2.062744095286103e-06</v>
+        <v>2936681814094.513</v>
       </c>
       <c r="D33" t="n">
-        <v>1.383258147676449e-85</v>
+        <v>0.539854660899397</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -996,16 +996,16 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>3.70147163180127</v>
+        <v>4.319168</v>
       </c>
       <c r="B34" t="n">
-        <v>3.93629253386049e-05</v>
+        <v>69681436702301.15</v>
       </c>
       <c r="C34" t="n">
-        <v>2.519369263393508e-06</v>
+        <v>2994845443063.104</v>
       </c>
       <c r="D34" t="n">
-        <v>1.901764478540399e-63</v>
+        <v>0.4139083404610636</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -1015,16 +1015,16 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>3.703177035512466</v>
+        <v>4.32116</v>
       </c>
       <c r="B35" t="n">
-        <v>3.332676811182457e-05</v>
+        <v>68258209672294.24</v>
       </c>
       <c r="C35" t="n">
-        <v>2.077274385313383e-06</v>
+        <v>2716774641999.327</v>
       </c>
       <c r="D35" t="n">
-        <v>2.00944762969066e-75</v>
+        <v>0.7968196972465339</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -1034,16 +1034,16 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>3.704736751469439</v>
+        <v>4.32298</v>
       </c>
       <c r="B36" t="n">
-        <v>4.926496463163261e-05</v>
+        <v>61231806871199.2</v>
       </c>
       <c r="C36" t="n">
-        <v>2.518147923896324e-06</v>
+        <v>2471970215010.792</v>
       </c>
       <c r="D36" t="n">
-        <v>3.814115422746567e-48</v>
+        <v>0.3341945432919025</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -1053,16 +1053,16 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>3.706647832010125</v>
+        <v>4.325205</v>
       </c>
       <c r="B37" t="n">
-        <v>2.845510069953076e-05</v>
+        <v>52532944398878.36</v>
       </c>
       <c r="C37" t="n">
-        <v>1.663306802526275e-06</v>
+        <v>2054427650298.18</v>
       </c>
       <c r="D37" t="n">
-        <v>1.773969614743652e-74</v>
+        <v>0.09771420204495959</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -1072,16 +1072,16 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>3.708276106910262</v>
+        <v>4.327112000000001</v>
       </c>
       <c r="B38" t="n">
-        <v>3.273637304012923e-05</v>
+        <v>44586813628827.88</v>
       </c>
       <c r="C38" t="n">
-        <v>1.587496519828387e-06</v>
+        <v>1674680198352.057</v>
       </c>
       <c r="D38" t="n">
-        <v>2.933930641688189e-55</v>
+        <v>0.06586294317777706</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -1091,16 +1091,16 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>3.709964370885666</v>
+        <v>4.329078</v>
       </c>
       <c r="B39" t="n">
-        <v>2.718531066128369e-05</v>
+        <v>37400269917423.16</v>
       </c>
       <c r="C39" t="n">
-        <v>1.209238375866627e-06</v>
+        <v>1311761149416.767</v>
       </c>
       <c r="D39" t="n">
-        <v>4.213845279691215e-56</v>
+        <v>0.5953144540573457</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -1110,16 +1110,16 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>3.710855637146794</v>
+        <v>4.330119</v>
       </c>
       <c r="B40" t="n">
-        <v>2.78018079573029e-05</v>
+        <v>42530150668850.78</v>
       </c>
       <c r="C40" t="n">
-        <v>1.467532821377721e-06</v>
+        <v>1645506877317.928</v>
       </c>
       <c r="D40" t="n">
-        <v>9.53981861426456e-64</v>
+        <v>0.6531794197694272</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -1129,16 +1129,16 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>3.711772613011608</v>
+        <v>4.331189</v>
       </c>
       <c r="B41" t="n">
-        <v>3.105086668306402e-05</v>
+        <v>31680503212700.05</v>
       </c>
       <c r="C41" t="n">
-        <v>1.27345659394323e-06</v>
+        <v>1136125064308.236</v>
       </c>
       <c r="D41" t="n">
-        <v>2.845117715824532e-23</v>
+        <v>0.4649086333345466</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -1148,16 +1148,16 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>3.713529435930176</v>
+        <v>4.333242</v>
       </c>
       <c r="B42" t="n">
-        <v>2.989520283611938e-05</v>
+        <v>32750291514590.95</v>
       </c>
       <c r="C42" t="n">
-        <v>9.695408748123038e-07</v>
+        <v>1004758312423.957</v>
       </c>
       <c r="D42" t="n">
-        <v>2.192105012205677e-24</v>
+        <v>0.04490967043393174</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -1167,16 +1167,16 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>3.715166280698207</v>
+        <v>4.335151000000001</v>
       </c>
       <c r="B43" t="n">
-        <v>2.905433091183265e-05</v>
+        <v>31304689055564.59</v>
       </c>
       <c r="C43" t="n">
-        <v>8.912190257376033e-07</v>
+        <v>908040559601.7465</v>
       </c>
       <c r="D43" t="n">
-        <v>4.896471981646487e-24</v>
+        <v>0.1475094854897687</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -1186,16 +1186,16 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>3.719356946099085</v>
+        <v>4.340042</v>
       </c>
       <c r="B44" t="n">
-        <v>2.718078513362496e-05</v>
+        <v>27823615981808.99</v>
       </c>
       <c r="C44" t="n">
-        <v>8.079188644723784e-07</v>
+        <v>789974772566.7579</v>
       </c>
       <c r="D44" t="n">
-        <v>3.760976348395576e-17</v>
+        <v>0.01510769006051141</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -1205,16 +1205,16 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>3.723504762160485</v>
+        <v>4.344876999999999</v>
       </c>
       <c r="B45" t="n">
-        <v>2.610862282588564e-05</v>
+        <v>26275599943909.53</v>
       </c>
       <c r="C45" t="n">
-        <v>7.849577318446915e-07</v>
+        <v>751284542359.6008</v>
       </c>
       <c r="D45" t="n">
-        <v>1.632283427111149e-11</v>
+        <v>0.1721746824013108</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -1224,16 +1224,16 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>3.727875394787168</v>
+        <v>4.349976</v>
       </c>
       <c r="B46" t="n">
-        <v>2.584584400923795e-05</v>
+        <v>25965085384570.65</v>
       </c>
       <c r="C46" t="n">
-        <v>7.294816326166066e-07</v>
+        <v>713608987576.998</v>
       </c>
       <c r="D46" t="n">
-        <v>1.538545302110137e-13</v>
+        <v>0.1575971304754777</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -1243,16 +1243,16 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>3.745075119653346</v>
+        <v>4.370053</v>
       </c>
       <c r="B47" t="n">
-        <v>2.207644035315823e-05</v>
+        <v>21343331708290.59</v>
       </c>
       <c r="C47" t="n">
-        <v>6.546326324148076e-07</v>
+        <v>626329798950.0082</v>
       </c>
       <c r="D47" t="n">
-        <v>4.184495767629285e-07</v>
+        <v>0.002248433351549117</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -1262,16 +1262,16 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>3.762300554123211</v>
+        <v>4.390148</v>
       </c>
       <c r="B48" t="n">
-        <v>2.192063448465915e-05</v>
+        <v>22135723898803.7</v>
       </c>
       <c r="C48" t="n">
-        <v>6.686485320383525e-07</v>
+        <v>651403327308.8427</v>
       </c>
       <c r="D48" t="n">
-        <v>2.047967276518779e-07</v>
+        <v>0.02205958126870018</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -1281,16 +1281,16 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>3.779337451499375</v>
+        <v>4.410025</v>
       </c>
       <c r="B49" t="n">
-        <v>2.444970945817856e-05</v>
+        <v>24072557632542.03</v>
       </c>
       <c r="C49" t="n">
-        <v>7.611581292090727e-07</v>
+        <v>717481925753.469</v>
       </c>
       <c r="D49" t="n">
-        <v>1.448426274980109e-07</v>
+        <v>0.009219436834525379</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -1300,16 +1300,16 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>3.788087286620635</v>
+        <v>4.420244</v>
       </c>
       <c r="B50" t="n">
-        <v>2.547939935029396e-05</v>
+        <v>24201031616936.32</v>
       </c>
       <c r="C50" t="n">
-        <v>8.723451554441654e-07</v>
+        <v>806266645597.2103</v>
       </c>
       <c r="D50" t="n">
-        <v>9.154754473990815e-06</v>
+        <v>0.08888971196633143</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -1319,16 +1319,16 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>3.796605735308717</v>
+        <v>4.430182</v>
       </c>
       <c r="B51" t="n">
-        <v>2.468408293804947e-05</v>
+        <v>24460642661313.77</v>
       </c>
       <c r="C51" t="n">
-        <v>8.262777104307085e-07</v>
+        <v>789386664673.9561</v>
       </c>
       <c r="D51" t="n">
-        <v>4.108150771563244e-10</v>
+        <v>0.2470375298858309</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -1338,16 +1338,16 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>3.805055625053636</v>
+        <v>4.440043</v>
       </c>
       <c r="B52" t="n">
-        <v>1.956584265685354e-05</v>
+        <v>20765235675026.76</v>
       </c>
       <c r="C52" t="n">
-        <v>1.150220546733921e-06</v>
+        <v>1097757221082.781</v>
       </c>
       <c r="D52" t="n">
-        <v>7.312332806725554e-07</v>
+        <v>0.09517576993246206</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -1357,16 +1357,16 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>3.813539794270136</v>
+        <v>4.449945</v>
       </c>
       <c r="B53" t="n">
-        <v>2.281038590630451e-05</v>
+        <v>21144930984846.16</v>
       </c>
       <c r="C53" t="n">
-        <v>1.426728967640913e-06</v>
+        <v>1224435708698.295</v>
       </c>
       <c r="D53" t="n">
-        <v>0.00101544383050515</v>
+        <v>0.002922683075457926</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -1376,16 +1376,16 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>3.817867577557342</v>
+        <v>4.454988</v>
       </c>
       <c r="B54" t="n">
-        <v>1.337199608351025e-05</v>
+        <v>13293513992177.11</v>
       </c>
       <c r="C54" t="n">
-        <v>2.243864546187275e-06</v>
+        <v>1927748763497.55</v>
       </c>
       <c r="D54" t="n">
-        <v>0.6082837479340744</v>
+        <v>0.9298323472541765</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -1395,16 +1395,16 @@
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>3.82226391978771</v>
+        <v>4.460121</v>
       </c>
       <c r="B55" t="n">
-        <v>9.42158874057838e-06</v>
+        <v>12813897500799.58</v>
       </c>
       <c r="C55" t="n">
-        <v>1.884510916680905e-06</v>
+        <v>2632486609507.203</v>
       </c>
       <c r="D55" t="n">
-        <v>0.1069539403910701</v>
+        <v>0.909406640821765</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -1414,16 +1414,16 @@
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>3.830696669796837</v>
+        <v>4.469957</v>
       </c>
       <c r="B56" t="n">
-        <v>1.266852950303476e-05</v>
+        <v>13188004164549.96</v>
       </c>
       <c r="C56" t="n">
-        <v>2.083089240290774e-06</v>
+        <v>2030573169588.251</v>
       </c>
       <c r="D56" t="n">
-        <v>0.1919220526345653</v>
+        <v>0.6182043311729872</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -1433,16 +1433,16 @@
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>3.837569703848993</v>
+        <v>4.477981</v>
       </c>
       <c r="B57" t="n">
-        <v>2.090315887247532e-05</v>
+        <v>18132921006272.68</v>
       </c>
       <c r="C57" t="n">
-        <v>2.531626013279771e-06</v>
+        <v>2025635286164.452</v>
       </c>
       <c r="D57" t="n">
-        <v>0.02414215656823158</v>
+        <v>0.7800242993587835</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -1452,16 +1452,16 @@
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>3.844554146183789</v>
+        <v>4.486129</v>
       </c>
       <c r="B58" t="n">
-        <v>2.356726266564794e-05</v>
+        <v>25238270521093.57</v>
       </c>
       <c r="C58" t="n">
-        <v>1.638680565097498e-06</v>
+        <v>1549431211082.299</v>
       </c>
       <c r="D58" t="n">
-        <v>1.727956340343162e-07</v>
+        <v>0.4166804650052046</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -1471,16 +1471,16 @@
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>3.846319538970252</v>
+        <v>4.488189</v>
       </c>
       <c r="B59" t="n">
-        <v>2.687424014037112e-05</v>
+        <v>28722343004801.16</v>
       </c>
       <c r="C59" t="n">
-        <v>1.542835909508223e-06</v>
+        <v>1484028924611.307</v>
       </c>
       <c r="D59" t="n">
-        <v>2.165870574394202e-10</v>
+        <v>0.04944578390351102</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -1490,16 +1490,16 @@
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>3.847930674134597</v>
+        <v>4.490073000000001</v>
       </c>
       <c r="B60" t="n">
-        <v>2.803412337087278e-05</v>
+        <v>27909070434898.67</v>
       </c>
       <c r="C60" t="n">
-        <v>1.746777518359512e-06</v>
+        <v>1495901138209.026</v>
       </c>
       <c r="D60" t="n">
-        <v>2.730944391277182e-05</v>
+        <v>0.4671517744808594</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -1509,16 +1509,16 @@
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>3.84977319573212</v>
+        <v>4.492223</v>
       </c>
       <c r="B61" t="n">
-        <v>3.038634653057626e-05</v>
+        <v>30317705705188.01</v>
       </c>
       <c r="C61" t="n">
-        <v>1.274324905778959e-06</v>
+        <v>1175095808235.376</v>
       </c>
       <c r="D61" t="n">
-        <v>5.414195334776727e-14</v>
+        <v>0.03528472145164618</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -1528,16 +1528,16 @@
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>3.852147049139162</v>
+        <v>4.494992</v>
       </c>
       <c r="B62" t="n">
-        <v>3.255165720488678e-05</v>
+        <v>34137394104801.61</v>
       </c>
       <c r="C62" t="n">
-        <v>1.077098585952656e-06</v>
+        <v>1050238033155.724</v>
       </c>
       <c r="D62" t="n">
-        <v>7.703087657711902e-19</v>
+        <v>0.006397423747663936</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -1547,16 +1547,16 @@
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>3.856414843351097</v>
+        <v>4.499972000000001</v>
       </c>
       <c r="B63" t="n">
-        <v>3.331822800820954e-05</v>
+        <v>36785184099929.34</v>
       </c>
       <c r="C63" t="n">
-        <v>1.00260309857065e-06</v>
+        <v>1038503821553.5</v>
       </c>
       <c r="D63" t="n">
-        <v>4.623487575563741e-28</v>
+        <v>0.1635495430882473</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -1566,16 +1566,16 @@
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>3.865190388076044</v>
+        <v>4.510205</v>
       </c>
       <c r="B64" t="n">
-        <v>3.660533483470028e-05</v>
+        <v>39880686291522.42</v>
       </c>
       <c r="C64" t="n">
-        <v>9.873136263150983e-07</v>
+        <v>1042117464282.988</v>
       </c>
       <c r="D64" t="n">
-        <v>3.691375175453237e-27</v>
+        <v>0.03086185406691974</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -1585,16 +1585,16 @@
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>3.866878652051449</v>
+        <v>4.512183</v>
       </c>
       <c r="B65" t="n">
-        <v>3.987876760867453e-05</v>
+        <v>46815905840273.25</v>
       </c>
       <c r="C65" t="n">
-        <v>1.335825299471401e-06</v>
+        <v>1415867452449.821</v>
       </c>
       <c r="D65" t="n">
-        <v>1.293863748993563e-34</v>
+        <v>0.005527186569242002</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -1604,16 +1604,16 @@
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>3.869363913741131</v>
+        <v>4.515076000000001</v>
       </c>
       <c r="B66" t="n">
-        <v>3.45197027503216e-05</v>
+        <v>47213491023708.02</v>
       </c>
       <c r="C66" t="n">
-        <v>1.724633941645747e-06</v>
+        <v>1995821424284.041</v>
       </c>
       <c r="D66" t="n">
-        <v>1.277663272414999e-31</v>
+        <v>0.3079728922198953</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -1623,16 +1623,16 @@
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>3.873640277820963</v>
+        <v>4.520067</v>
       </c>
       <c r="B67" t="n">
-        <v>4.247594225436396e-05</v>
+        <v>43091890702894.77</v>
       </c>
       <c r="C67" t="n">
-        <v>2.468815589842788e-06</v>
+        <v>2237031709826.94</v>
       </c>
       <c r="D67" t="n">
-        <v>1.749383828838959e-13</v>
+        <v>0.4076766407144584</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -1642,16 +1642,16 @@
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>3.878070899522913</v>
+        <v>4.525238</v>
       </c>
       <c r="B68" t="n">
-        <v>3.67293464337235e-05</v>
+        <v>38355334457488.09</v>
       </c>
       <c r="C68" t="n">
-        <v>3.08366429586066e-06</v>
+        <v>2855722223555.88</v>
       </c>
       <c r="D68" t="n">
-        <v>1.308780323232163e-08</v>
+        <v>0.2215924626640925</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -1661,16 +1661,16 @@
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>3.881644534435317</v>
+        <v>4.529406</v>
       </c>
       <c r="B69" t="n">
-        <v>3.638634100368821e-05</v>
+        <v>43059508247977.38</v>
       </c>
       <c r="C69" t="n">
-        <v>2.609010528451827e-06</v>
+        <v>2500092295317.288</v>
       </c>
       <c r="D69" t="n">
-        <v>1.640229424776668e-17</v>
+        <v>0.5313591974000104</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -1680,16 +1680,16 @@
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>3.88648650979625</v>
+        <v>4.535056</v>
       </c>
       <c r="B70" t="n">
-        <v>2.326312802501634e-05</v>
+        <v>35582195812409.01</v>
       </c>
       <c r="C70" t="n">
-        <v>3.070203409045295e-06</v>
+        <v>3537671810318.671</v>
       </c>
       <c r="D70" t="n">
-        <v>3.679782193241983e-11</v>
+        <v>0.9556877635984402</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -1699,16 +1699,16 @@
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>3.890925701366096</v>
+        <v>4.540236</v>
       </c>
       <c r="B71" t="n">
-        <v>2.775972602431886e-05</v>
+        <v>27819627470600.64</v>
       </c>
       <c r="C71" t="n">
-        <v>4.748499384029584e-06</v>
+        <v>4334850488085.862</v>
       </c>
       <c r="D71" t="n">
-        <v>0.02785601703030611</v>
+        <v>0.8606664270276837</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -1718,16 +1718,16 @@
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>3.899118495074151</v>
+        <v>4.549804</v>
       </c>
       <c r="B72" t="n">
-        <v>3.714903528313254e-05</v>
+        <v>36254477585079.62</v>
       </c>
       <c r="C72" t="n">
-        <v>2.739174761844363e-06</v>
+        <v>2354007380051.513</v>
       </c>
       <c r="D72" t="n">
-        <v>9.509340049401355e-06</v>
+        <v>0.5211559809418023</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -1737,16 +1737,16 @@
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>3.908014017949633</v>
+        <v>4.560183</v>
       </c>
       <c r="B73" t="n">
-        <v>1.102000873113118e-05</v>
+        <v>12343231138161.31</v>
       </c>
       <c r="C73" t="n">
-        <v>2.905456331705039e-06</v>
+        <v>3220794947284.918</v>
       </c>
       <c r="D73" t="n">
-        <v>0.5695569417839627</v>
+        <v>0.9932084727005335</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -1756,16 +1756,16 @@
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>3.916541036505611</v>
+        <v>4.570129</v>
       </c>
       <c r="B74" t="n">
-        <v>7.983254633706445e-06</v>
+        <v>9600974498579.336</v>
       </c>
       <c r="C74" t="n">
-        <v>2.230448273266322e-06</v>
+        <v>3009031185963.858</v>
       </c>
       <c r="D74" t="n">
-        <v>0.4821550721929019</v>
+        <v>0.9799216037321513</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -1775,16 +1775,16 @@
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>3.925025205722112</v>
+        <v>4.580025</v>
       </c>
       <c r="B75" t="n">
-        <v>3.812900828075299e-06</v>
+        <v>12662384292283.13</v>
       </c>
       <c r="C75" t="n">
-        <v>1.03741317309085e-06</v>
+        <v>2533379705821.711</v>
       </c>
       <c r="D75" t="n">
-        <v>0.01761281544343438</v>
+        <v>0.9459932484611623</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -1794,16 +1794,16 @@
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>3.933637922957044</v>
+        <v>4.590082</v>
       </c>
       <c r="B76" t="n">
-        <v>2.773782762215909e-05</v>
+        <v>31852558778474.14</v>
       </c>
       <c r="C76" t="n">
-        <v>2.467915318950654e-06</v>
+        <v>2275024905516.304</v>
       </c>
       <c r="D76" t="n">
-        <v>2.861266444724963e-11</v>
+        <v>0.6758942167371524</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -1813,16 +1813,16 @@
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>3.942370618342513</v>
+        <v>4.600268</v>
       </c>
       <c r="B77" t="n">
-        <v>4.202742592740168e-05</v>
+        <v>92390131433999.44</v>
       </c>
       <c r="C77" t="n">
-        <v>2.758721131068817e-06</v>
+        <v>3847676713192.359</v>
       </c>
       <c r="D77" t="n">
-        <v>1.135756148348155e-70</v>
+        <v>0.3875694287596317</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -1832,16 +1832,16 @@
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>3.950700529936895</v>
+        <v>4.609989</v>
       </c>
       <c r="B78" t="n">
-        <v>2.90214909498025e-05</v>
+        <v>269139872277540</v>
       </c>
       <c r="C78" t="n">
-        <v>2.766156509167203e-06</v>
+        <v>8914519061156.795</v>
       </c>
       <c r="D78" t="n">
-        <v>8.002953244970665e-167</v>
+        <v>0.9915261206358454</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -1851,16 +1851,16 @@
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>3.959476074661841</v>
+        <v>4.620227</v>
       </c>
       <c r="B79" t="n">
-        <v>5.022587320348945e-05</v>
+        <v>291398884604664</v>
       </c>
       <c r="C79" t="n">
-        <v>4.514497061820659e-06</v>
+        <v>10719632886682.46</v>
       </c>
       <c r="D79" t="n">
-        <v>2.4034002364889e-132</v>
+        <v>0.2608810830246954</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -1870,16 +1870,16 @@
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>3.967797416388328</v>
+        <v>4.629939</v>
       </c>
       <c r="B80" t="n">
-        <v>6.161597738909408e-05</v>
+        <v>227547837416513.8</v>
       </c>
       <c r="C80" t="n">
-        <v>4.210348086400252e-06</v>
+        <v>7722041369624.391</v>
       </c>
       <c r="D80" t="n">
-        <v>4.251836991574834e-141</v>
+        <v>0.8591598346975906</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -1889,16 +1889,16 @@
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>3.97227945729765</v>
+        <v>4.635173</v>
       </c>
       <c r="B81" t="n">
-        <v>5.010796718492485e-05</v>
+        <v>119007706859428.9</v>
       </c>
       <c r="C81" t="n">
-        <v>3.07018706231162e-06</v>
+        <v>4512897085284.668</v>
       </c>
       <c r="D81" t="n">
-        <v>1.284715794840404e-88</v>
+        <v>0.5545544932342458</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -1908,16 +1908,16 @@
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>3.976384424019573</v>
+        <v>4.639959999999999</v>
       </c>
       <c r="B82" t="n">
-        <v>7.44757336913989e-05</v>
+        <v>106886109652453</v>
       </c>
       <c r="C82" t="n">
-        <v>3.093729612602084e-06</v>
+        <v>3624663480878.352</v>
       </c>
       <c r="D82" t="n">
-        <v>1.609530623446435e-57</v>
+        <v>0.09435335741445562</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -1927,16 +1927,16 @@
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>3.984954291915029</v>
+        <v>4.649962</v>
       </c>
       <c r="B83" t="n">
-        <v>8.493720123015514e-05</v>
+        <v>125988967449964.2</v>
       </c>
       <c r="C83" t="n">
-        <v>3.273214396535074e-06</v>
+        <v>3876536075727.723</v>
       </c>
       <c r="D83" t="n">
-        <v>7.443149511466704e-74</v>
+        <v>0.06660724560979087</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
@@ -1946,16 +1946,16 @@
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>4.002231145592266</v>
+        <v>4.670119000000001</v>
       </c>
       <c r="B84" t="n">
-        <v>8.894588619384832e-05</v>
+        <v>134453954919108.1</v>
       </c>
       <c r="C84" t="n">
-        <v>2.773509675633876e-06</v>
+        <v>3584790667986.802</v>
       </c>
       <c r="D84" t="n">
-        <v>3.739811917123809e-91</v>
+        <v>0.8141481952079448</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -1965,16 +1965,16 @@
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>4.010826723091408</v>
+        <v>4.680153</v>
       </c>
       <c r="B85" t="n">
-        <v>7.61295150875946e-05</v>
+        <v>92917918481192.59</v>
       </c>
       <c r="C85" t="n">
-        <v>2.18844457224472e-06</v>
+        <v>2456205228635.405</v>
       </c>
       <c r="D85" t="n">
-        <v>2.488146236477753e-52</v>
+        <v>0.6101102828161361</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
@@ -1984,16 +1984,16 @@
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>4.019208053893163</v>
+        <v>4.689928</v>
       </c>
       <c r="B86" t="n">
-        <v>5.172043628579005e-05</v>
+        <v>65314682917715.84</v>
       </c>
       <c r="C86" t="n">
-        <v>1.520895482672415e-06</v>
+        <v>1767458281258.596</v>
       </c>
       <c r="D86" t="n">
-        <v>9.345448512034942e-53</v>
+        <v>0.2610450111061989</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -2003,16 +2003,16 @@
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>4.036424918495132</v>
+        <v>4.71002</v>
       </c>
       <c r="B87" t="n">
-        <v>4.736148841102317e-05</v>
+        <v>55322205459883.05</v>
       </c>
       <c r="C87" t="n">
-        <v>1.247042423270267e-06</v>
+        <v>1407518953613.911</v>
       </c>
       <c r="D87" t="n">
-        <v>7.648223061523049e-40</v>
+        <v>0.1510851131011251</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
@@ -2022,16 +2022,16 @@
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>4.053547514550251</v>
+        <v>4.730004</v>
       </c>
       <c r="B88" t="n">
-        <v>5.083160282251096e-05</v>
+        <v>60723837708381.62</v>
       </c>
       <c r="C88" t="n">
-        <v>1.413326842777298e-06</v>
+        <v>1593719572965.557</v>
       </c>
       <c r="D88" t="n">
-        <v>1.419232343432983e-42</v>
+        <v>0.1012813202857294</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
@@ -2041,16 +2041,16 @@
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>4.070687250341162</v>
+        <v>4.749999</v>
       </c>
       <c r="B89" t="n">
-        <v>7.273180460027151e-05</v>
+        <v>98127926678940.06</v>
       </c>
       <c r="C89" t="n">
-        <v>1.999564107801035e-06</v>
+        <v>2514161206408.455</v>
       </c>
       <c r="D89" t="n">
-        <v>3.008176298918037e-66</v>
+        <v>0.2372106726897283</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
@@ -2060,16 +2060,16 @@
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>4.075126441911007</v>
+        <v>4.755179</v>
       </c>
       <c r="B90" t="n">
-        <v>0.0001270700087880344</v>
+        <v>202515176685673.9</v>
       </c>
       <c r="C90" t="n">
-        <v>3.658099193379044e-06</v>
+        <v>5145227632635.947</v>
       </c>
       <c r="D90" t="n">
-        <v>4.54630404290707e-100</v>
+        <v>0.5808496847157774</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
@@ -2079,16 +2079,16 @@
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>4.078297293032326</v>
+        <v>4.758876</v>
       </c>
       <c r="B91" t="n">
-        <v>0.000136539352754806</v>
+        <v>206505042885893.8</v>
       </c>
       <c r="C91" t="n">
-        <v>3.852797790909026e-06</v>
+        <v>5237686712676.402</v>
       </c>
       <c r="D91" t="n">
-        <v>7.02258300992822e-91</v>
+        <v>0.5719164427614277</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
@@ -2098,16 +2098,16 @@
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>4.087861265603653</v>
+        <v>4.770038</v>
       </c>
       <c r="B92" t="n">
-        <v>0.0001366698488983003</v>
+        <v>194486336756546.4</v>
       </c>
       <c r="C92" t="n">
-        <v>3.880882703773707e-06</v>
+        <v>5040011524163.825</v>
       </c>
       <c r="D92" t="n">
-        <v>5.801252569766826e-77</v>
+        <v>0.1584133899716844</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
@@ -2117,16 +2117,16 @@
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>4.09212905981559</v>
+        <v>4.775016</v>
       </c>
       <c r="B93" t="n">
-        <v>0.0001294223108677553</v>
+        <v>156627681669846.4</v>
       </c>
       <c r="C93" t="n">
-        <v>3.918224447032926e-06</v>
+        <v>4337390856671.248</v>
       </c>
       <c r="D93" t="n">
-        <v>6.507233911175704e-45</v>
+        <v>0.2018847155387382</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
@@ -2136,16 +2136,16 @@
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>4.096551111649645</v>
+        <v>4.780179</v>
       </c>
       <c r="B94" t="n">
-        <v>0.0001017066451342248</v>
+        <v>110163786219579.7</v>
       </c>
       <c r="C94" t="n">
-        <v>4.352442905513555e-06</v>
+        <v>4145254321570.318</v>
       </c>
       <c r="D94" t="n">
-        <v>1.618835841784965e-20</v>
+        <v>0.167947979186581</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
@@ -2155,16 +2155,16 @@
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>4.105069560337727</v>
+        <v>4.790118</v>
       </c>
       <c r="B95" t="n">
-        <v>0.000171427973859296</v>
+        <v>174354422563898</v>
       </c>
       <c r="C95" t="n">
-        <v>5.51861811654919e-06</v>
+        <v>5288462702923.837</v>
       </c>
       <c r="D95" t="n">
-        <v>1.129556433817196e-12</v>
+        <v>0.1141131089621018</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
@@ -2174,16 +2174,16 @@
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>4.113468030875272</v>
+        <v>4.799915</v>
       </c>
       <c r="B96" t="n">
-        <v>0.000354130391817019</v>
+        <v>363086166300180.8</v>
       </c>
       <c r="C96" t="n">
-        <v>8.73925154253555e-06</v>
+        <v>8878432976537.084</v>
       </c>
       <c r="D96" t="n">
-        <v>1.602178139373037e-15</v>
+        <v>0.6138013911169995</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
@@ -2193,16 +2193,16 @@
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>4.122132167317578</v>
+        <v>4.810027</v>
       </c>
       <c r="B97" t="n">
-        <v>0.0003104618642284664</v>
+        <v>318179839832337.1</v>
       </c>
       <c r="C97" t="n">
-        <v>7.501765282554133e-06</v>
+        <v>7665644410328.023</v>
       </c>
       <c r="D97" t="n">
-        <v>3.371246625440737e-15</v>
+        <v>0.3280823443178162</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
@@ -2212,16 +2212,16 @@
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>4.12395754917931</v>
+        <v>4.81216</v>
       </c>
       <c r="B98" t="n">
-        <v>0.0002052276213338144</v>
+        <v>210109843868751.6</v>
       </c>
       <c r="C98" t="n">
-        <v>4.90235266306119e-06</v>
+        <v>5004870565353.496</v>
       </c>
       <c r="D98" t="n">
-        <v>2.02428924928766e-15</v>
+        <v>0.2074509586620095</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
@@ -2231,16 +2231,16 @@
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>4.126622778094797</v>
+        <v>4.81527</v>
       </c>
       <c r="B99" t="n">
-        <v>0.0001333674136070985</v>
+        <v>133782685824602.5</v>
       </c>
       <c r="C99" t="n">
-        <v>3.195444427004266e-06</v>
+        <v>3193186257757.161</v>
       </c>
       <c r="D99" t="n">
-        <v>9.182478532911093e-12</v>
+        <v>0.07189672449280297</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
@@ -2250,16 +2250,16 @@
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>4.13072774481672</v>
+        <v>4.820058</v>
       </c>
       <c r="B100" t="n">
-        <v>6.723049935259374e-05</v>
+        <v>65833419523116.34</v>
       </c>
       <c r="C100" t="n">
-        <v>1.682620040670851e-06</v>
+        <v>1630595096623.772</v>
       </c>
       <c r="D100" t="n">
-        <v>6.021695316239014e-07</v>
+        <v>0.05842632023339293</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
@@ -2269,16 +2269,16 @@
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>4.139151924957952</v>
+        <v>4.829886</v>
       </c>
       <c r="B101" t="n">
-        <v>4.951811646138339e-05</v>
+        <v>47609311865225.62</v>
       </c>
       <c r="C101" t="n">
-        <v>1.198434080027105e-06</v>
+        <v>1149577634111.447</v>
       </c>
       <c r="D101" t="n">
-        <v>0.0001004227397699775</v>
+        <v>0.6476897279163398</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
@@ -2288,16 +2288,16 @@
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>4.156411638899399</v>
+        <v>4.85003</v>
       </c>
       <c r="B102" t="n">
-        <v>5.064328703115013e-05</v>
+        <v>50183679931002.13</v>
       </c>
       <c r="C102" t="n">
-        <v>1.212588976907153e-06</v>
+        <v>1202626285192.208</v>
       </c>
       <c r="D102" t="n">
-        <v>1.235479057733096e-08</v>
+        <v>0.06508770931631463</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
@@ -2307,16 +2307,16 @@
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>4.170346244097408</v>
+        <v>4.866293</v>
       </c>
       <c r="B103" t="n">
-        <v>5.437188445523468e-05</v>
+        <v>54335396176413.87</v>
       </c>
       <c r="C103" t="n">
-        <v>1.319723259223945e-06</v>
+        <v>1319781847723.254</v>
       </c>
       <c r="D103" t="n">
-        <v>7.403438870199323e-10</v>
+        <v>0.04603358550131367</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
@@ -2326,16 +2326,16 @@
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
-        <v>4.190571132330683</v>
+        <v>4.889892</v>
       </c>
       <c r="B104" t="n">
-        <v>5.703726841687675e-05</v>
+        <v>57858938748166.46</v>
       </c>
       <c r="C104" t="n">
-        <v>1.335046325557558e-06</v>
+        <v>1360511168772.423</v>
       </c>
       <c r="D104" t="n">
-        <v>1.728270859090317e-14</v>
+        <v>0.0577049239319978</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
@@ -2345,16 +2345,16 @@
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
-        <v>4.199158139961929</v>
+        <v>4.899914</v>
       </c>
       <c r="B105" t="n">
-        <v>6.130429022253236e-05</v>
+        <v>61057716704406.78</v>
       </c>
       <c r="C105" t="n">
-        <v>1.600012672436711e-06</v>
+        <v>1572219481913.32</v>
       </c>
       <c r="D105" t="n">
-        <v>2.123165288346699e-11</v>
+        <v>0.2412435677988668</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
@@ -2364,16 +2364,16 @@
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
-        <v>4.207916544951084</v>
+        <v>4.910130000000001</v>
       </c>
       <c r="B106" t="n">
-        <v>5.948111235726543e-05</v>
+        <v>61449588192247.84</v>
       </c>
       <c r="C106" t="n">
-        <v>1.557705555248232e-06</v>
+        <v>1563187839872.183</v>
       </c>
       <c r="D106" t="n">
-        <v>5.572898528189827e-17</v>
+        <v>0.219321375282432</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
@@ -2383,16 +2383,16 @@
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
-        <v>4.216340725092316</v>
+        <v>4.919957</v>
       </c>
       <c r="B107" t="n">
-        <v>6.253401347764117e-05</v>
+        <v>61917655717140.34</v>
       </c>
       <c r="C107" t="n">
-        <v>1.729489857345241e-06</v>
+        <v>1687192360505.185</v>
       </c>
       <c r="D107" t="n">
-        <v>5.120573333075402e-10</v>
+        <v>0.317247512942635</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
@@ -2402,16 +2402,16 @@
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
-        <v>4.221645473319603</v>
+        <v>4.926154</v>
       </c>
       <c r="B108" t="n">
-        <v>6.429197617282759e-05</v>
+        <v>64949055897819.77</v>
       </c>
       <c r="C108" t="n">
-        <v>1.579032001250295e-06</v>
+        <v>1593485045194.434</v>
       </c>
       <c r="D108" t="n">
-        <v>1.364844100450346e-12</v>
+        <v>0.2311112589122442</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
@@ -2421,16 +2421,16 @@
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
-        <v>4.225107699949367</v>
+        <v>4.930194999999999</v>
       </c>
       <c r="B109" t="n">
-        <v>6.347130004272174e-05</v>
+        <v>66162455836313.59</v>
       </c>
       <c r="C109" t="n">
-        <v>1.715513429890912e-06</v>
+        <v>1731854204821.984</v>
       </c>
       <c r="D109" t="n">
-        <v>3.696590587738777e-18</v>
+        <v>0.2232211145417492</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
@@ -2440,16 +2440,16 @@
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
-        <v>4.230875221043007</v>
+        <v>4.936923</v>
       </c>
       <c r="B110" t="n">
-        <v>6.468135239457057e-05</v>
+        <v>66667072113375.05</v>
       </c>
       <c r="C110" t="n">
-        <v>1.626714150799075e-06</v>
+        <v>1656131647734.897</v>
       </c>
       <c r="D110" t="n">
-        <v>1.01142958153749e-17</v>
+        <v>0.0216499230657057</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
@@ -2459,16 +2459,16 @@
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
-        <v>4.23929940118424</v>
+        <v>4.946745</v>
       </c>
       <c r="B111" t="n">
-        <v>6.390426914069862e-05</v>
+        <v>67307055867966.52</v>
       </c>
       <c r="C111" t="n">
-        <v>1.653731583202349e-06</v>
+        <v>1697159836610.07</v>
       </c>
       <c r="D111" t="n">
-        <v>2.296724532628483e-22</v>
+        <v>0.1277092397406529</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
@@ -2478,16 +2478,16 @@
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
-        <v>4.24231599468344</v>
+        <v>4.950269</v>
       </c>
       <c r="B112" t="n">
-        <v>6.419688693345614e-05</v>
+        <v>70022131118172.51</v>
       </c>
       <c r="C112" t="n">
-        <v>1.757278049289348e-06</v>
+        <v>1844781126390.622</v>
       </c>
       <c r="D112" t="n">
-        <v>1.241097028142189e-26</v>
+        <v>0.1350481918198086</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
@@ -2497,16 +2497,16 @@
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
-        <v>4.24787783894759</v>
+        <v>4.956763</v>
       </c>
       <c r="B113" t="n">
-        <v>6.274062631732951e-05</v>
+        <v>67239009933430.99</v>
       </c>
       <c r="C113" t="n">
-        <v>1.651439978205612e-06</v>
+        <v>1730016765907.478</v>
       </c>
       <c r="D113" t="n">
-        <v>4.454305356277121e-25</v>
+        <v>0.01106302621593182</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
@@ -2516,16 +2516,16 @@
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
-        <v>4.252257041442167</v>
+        <v>4.961869</v>
       </c>
       <c r="B114" t="n">
-        <v>6.504759604474946e-05</v>
+        <v>70101978391738.73</v>
       </c>
       <c r="C114" t="n">
-        <v>1.709580696416454e-06</v>
+        <v>1775960683354.312</v>
       </c>
       <c r="D114" t="n">
-        <v>6.90517617503478e-26</v>
+        <v>0.393886294232087</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
@@ -2535,16 +2535,16 @@
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
-        <v>4.25472516339606</v>
+        <v>4.964748</v>
       </c>
       <c r="B115" t="n">
-        <v>6.48547386637872e-05</v>
+        <v>70113011848482.84</v>
       </c>
       <c r="C115" t="n">
-        <v>1.744930920473485e-06</v>
+        <v>1817434957622.541</v>
       </c>
       <c r="D115" t="n">
-        <v>3.762522266461124e-26</v>
+        <v>0.09763031446818639</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
@@ -2554,16 +2554,16 @@
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
-        <v>4.25739896217944</v>
+        <v>4.967875</v>
       </c>
       <c r="B116" t="n">
-        <v>6.64008816851477e-05</v>
+        <v>71885839423705.08</v>
       </c>
       <c r="C116" t="n">
-        <v>1.769901873585205e-06</v>
+        <v>1869125982702.751</v>
       </c>
       <c r="D116" t="n">
-        <v>5.831313599745409e-28</v>
+        <v>0.1406328057418564</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
@@ -2573,16 +2573,16 @@
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
-        <v>4.259258623512755</v>
+        <v>4.970043</v>
       </c>
       <c r="B117" t="n">
-        <v>7.136954806232027e-05</v>
+        <v>76344233007719.36</v>
       </c>
       <c r="C117" t="n">
-        <v>1.966483924997992e-06</v>
+        <v>2024917199486.659</v>
       </c>
       <c r="D117" t="n">
-        <v>1.850922895712969e-22</v>
+        <v>0.1352281642892172</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
@@ -2592,16 +2592,16 @@
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
-        <v>4.2616239070519</v>
+        <v>4.9728</v>
       </c>
       <c r="B118" t="n">
-        <v>6.645306394145486e-05</v>
+        <v>72043633085097.22</v>
       </c>
       <c r="C118" t="n">
-        <v>1.692835574487571e-06</v>
+        <v>1798823495355.813</v>
       </c>
       <c r="D118" t="n">
-        <v>1.888664367687377e-27</v>
+        <v>0.05802915556244292</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
@@ -2611,16 +2611,16 @@
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
-        <v>4.263192192876769</v>
+        <v>4.974629</v>
       </c>
       <c r="B119" t="n">
-        <v>6.715046717331604e-05</v>
+        <v>73345883966094.16</v>
       </c>
       <c r="C119" t="n">
-        <v>1.814841728933962e-06</v>
+        <v>1902796098003.289</v>
       </c>
       <c r="D119" t="n">
-        <v>7.159133554831209e-28</v>
+        <v>0.3461059616318575</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
@@ -2630,16 +2630,16 @@
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
-        <v>4.271830619715387</v>
+        <v>4.984706</v>
       </c>
       <c r="B120" t="n">
-        <v>6.730041901379466e-05</v>
+        <v>74139906750650.97</v>
       </c>
       <c r="C120" t="n">
-        <v>1.745778626663205e-06</v>
+        <v>1868564168097.332</v>
       </c>
       <c r="D120" t="n">
-        <v>1.083574114498096e-29</v>
+        <v>0.05461898283240153</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
@@ -2649,16 +2649,16 @@
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
-        <v>4.27642406890735</v>
+        <v>4.990074</v>
       </c>
       <c r="B121" t="n">
-        <v>7.374521541774344e-05</v>
+        <v>79208680040917.94</v>
       </c>
       <c r="C121" t="n">
-        <v>1.953836998043213e-06</v>
+        <v>2040812105075.927</v>
       </c>
       <c r="D121" t="n">
-        <v>8.730285191457021e-24</v>
+        <v>0.03575046569405625</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
@@ -2668,16 +2668,16 @@
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
-        <v>4.28036620813926</v>
+        <v>4.994669</v>
       </c>
       <c r="B122" t="n">
-        <v>6.948920862879046e-05</v>
+        <v>76353630909009.64</v>
       </c>
       <c r="C122" t="n">
-        <v>1.742181914374677e-06</v>
+        <v>1878384289369.392</v>
       </c>
       <c r="D122" t="n">
-        <v>6.336617909014161e-29</v>
+        <v>0.1239827481052743</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
@@ -2687,16 +2687,16 @@
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
-        <v>4.28891036643103</v>
+        <v>5.004642</v>
       </c>
       <c r="B123" t="n">
-        <v>6.933425253663762e-05</v>
+        <v>78473938683856.38</v>
       </c>
       <c r="C123" t="n">
-        <v>1.673750855561153e-06</v>
+        <v>1881779400477.989</v>
       </c>
       <c r="D123" t="n">
-        <v>6.1675400691047e-36</v>
+        <v>0.01522631465311364</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
@@ -2706,16 +2706,16 @@
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
-        <v>4.293495245755098</v>
+        <v>5.00999</v>
       </c>
       <c r="B124" t="n">
-        <v>8.036152975790825e-05</v>
+        <v>85252629735725.91</v>
       </c>
       <c r="C124" t="n">
-        <v>2.038683837223862e-06</v>
+        <v>2128995839881.997</v>
       </c>
       <c r="D124" t="n">
-        <v>4.773140493757396e-22</v>
+        <v>0.2299116198127691</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
@@ -2725,16 +2725,16 @@
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
-        <v>4.297651631684394</v>
+        <v>5.014843</v>
       </c>
       <c r="B125" t="n">
-        <v>8.076932704649257e-05</v>
+        <v>90928616797301.19</v>
       </c>
       <c r="C125" t="n">
-        <v>1.993064905424567e-06</v>
+        <v>2208128908762.361</v>
       </c>
       <c r="D125" t="n">
-        <v>1.136560846327628e-33</v>
+        <v>0.1105751251757531</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
@@ -2744,16 +2744,16 @@
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
-        <v>4.300136893374075</v>
+        <v>5.017737</v>
       </c>
       <c r="B126" t="n">
-        <v>9.340170658977059e-05</v>
+        <v>102941814116664.5</v>
       </c>
       <c r="C126" t="n">
-        <v>2.326600825301551e-06</v>
+        <v>2516096630583.18</v>
       </c>
       <c r="D126" t="n">
-        <v>2.957764937388288e-30</v>
+        <v>0.1847151326513273</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
@@ -2763,16 +2763,16 @@
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
-        <v>4.300239731788821</v>
+        <v>5.017861</v>
       </c>
       <c r="B127" t="n">
-        <v>9.294405451560381e-05</v>
+        <v>102154704251500.5</v>
       </c>
       <c r="C127" t="n">
-        <v>2.300000774143497e-06</v>
+        <v>2486568522367.775</v>
       </c>
       <c r="D127" t="n">
-        <v>4.599402004177762e-30</v>
+        <v>0.282503143402948</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
@@ -2782,16 +2782,16 @@
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
-        <v>4.30191942589633</v>
+        <v>5.019822</v>
       </c>
       <c r="B128" t="n">
-        <v>0.0001144940809437049</v>
+        <v>126100432316192.5</v>
       </c>
       <c r="C128" t="n">
-        <v>2.94805466021584e-06</v>
+        <v>3147233660402.18</v>
       </c>
       <c r="D128" t="n">
-        <v>2.286301238392691e-30</v>
+        <v>0.8712483365552687</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
@@ -2801,16 +2801,16 @@
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
-        <v>4.306187220108267</v>
+        <v>5.024805000000001</v>
       </c>
       <c r="B129" t="n">
-        <v>0.0001920687014833335</v>
+        <v>200163018126498.2</v>
       </c>
       <c r="C129" t="n">
-        <v>4.971296871454867e-06</v>
+        <v>5062049808896.804</v>
       </c>
       <c r="D129" t="n">
-        <v>2.014081332650079e-20</v>
+        <v>0.4909711508684929</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
@@ -2820,16 +2820,16 @@
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
-        <v>4.308783890080591</v>
+        <v>5.027826</v>
       </c>
       <c r="B130" t="n">
-        <v>0.0002660522565861395</v>
+        <v>273344300597728.9</v>
       </c>
       <c r="C130" t="n">
-        <v>6.612607297820299e-06</v>
+        <v>6710769796756.943</v>
       </c>
       <c r="D130" t="n">
-        <v>6.968135112204732e-17</v>
+        <v>0.914101541231659</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
@@ -2839,16 +2839,16 @@
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
-        <v>4.310729250092858</v>
+        <v>5.030101</v>
       </c>
       <c r="B131" t="n">
-        <v>0.0002661416324436202</v>
+        <v>271773301566630.2</v>
       </c>
       <c r="C131" t="n">
-        <v>6.84989931844899e-06</v>
+        <v>6875251121330.899</v>
       </c>
       <c r="D131" t="n">
-        <v>3.522332238777744e-15</v>
+        <v>0.3034282616668983</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
@@ -2858,16 +2858,16 @@
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
-        <v>4.31302597468884</v>
+        <v>5.032781</v>
       </c>
       <c r="B132" t="n">
-        <v>0.0002481489976243724</v>
+        <v>256771932338093.9</v>
       </c>
       <c r="C132" t="n">
-        <v>6.29125106870101e-06</v>
+        <v>6402263529324.548</v>
       </c>
       <c r="D132" t="n">
-        <v>8.747207299577701e-19</v>
+        <v>0.5280415111665957</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
@@ -2877,16 +2877,16 @@
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
-        <v>4.315699773472222</v>
+        <v>5.035899</v>
       </c>
       <c r="B133" t="n">
-        <v>0.0002461329991474745</v>
+        <v>250643276361069.5</v>
       </c>
       <c r="C133" t="n">
-        <v>6.236810110379081e-06</v>
+        <v>6254411077191.225</v>
       </c>
       <c r="D133" t="n">
-        <v>4.690404073949294e-16</v>
+        <v>0.5503080381958066</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
@@ -2896,16 +2896,16 @@
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
-        <v>4.318107906350845</v>
+        <v>5.038705999999999</v>
       </c>
       <c r="B134" t="n">
-        <v>0.000240590137284926</v>
+        <v>248224640496097.1</v>
       </c>
       <c r="C134" t="n">
-        <v>6.170614850402854e-06</v>
+        <v>6242752677260.589</v>
       </c>
       <c r="D134" t="n">
-        <v>2.155928410278136e-16</v>
+        <v>0.827975899924081</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
@@ -2915,16 +2915,16 @@
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
-        <v>4.320910253152659</v>
+        <v>5.041981</v>
       </c>
       <c r="B135" t="n">
-        <v>0.0002315557172872192</v>
+        <v>233716325556426.7</v>
       </c>
       <c r="C135" t="n">
-        <v>6.188391329410615e-06</v>
+        <v>6071722679047.694</v>
       </c>
       <c r="D135" t="n">
-        <v>1.054944132593396e-13</v>
+        <v>0.9479286482745299</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
@@ -2934,16 +2934,16 @@
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
-        <v>4.323318386031281</v>
+        <v>5.044789</v>
       </c>
       <c r="B136" t="n">
-        <v>0.0002084110971762754</v>
+        <v>210541372171224.8</v>
       </c>
       <c r="C136" t="n">
-        <v>5.489587329423601e-06</v>
+        <v>5422777660557.12</v>
       </c>
       <c r="D136" t="n">
-        <v>9.69320893337639e-14</v>
+        <v>0.9868208939102909</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
@@ -2953,16 +2953,16 @@
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
-        <v>4.327757577601127</v>
+        <v>5.049971</v>
       </c>
       <c r="B137" t="n">
-        <v>0.0001554392800369971</v>
+        <v>157342754263527.1</v>
       </c>
       <c r="C137" t="n">
-        <v>4.38915051942325e-06</v>
+        <v>4307195716438.867</v>
       </c>
       <c r="D137" t="n">
-        <v>1.282060666205418e-12</v>
+        <v>0.3599861952919523</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
@@ -2972,16 +2972,16 @@
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
-        <v>4.331931103266214</v>
+        <v>5.054843</v>
       </c>
       <c r="B138" t="n">
-        <v>0.0001060611688012813</v>
+        <v>113275618185340.5</v>
       </c>
       <c r="C138" t="n">
-        <v>3.094440262361512e-06</v>
+        <v>3126218549946.772</v>
       </c>
       <c r="D138" t="n">
-        <v>9.019161417384927e-24</v>
+        <v>0.3659121759940078</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
@@ -2991,16 +2991,16 @@
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
-        <v>4.340535250633251</v>
+        <v>5.064876</v>
       </c>
       <c r="B139" t="n">
-        <v>0.0002002721722286072</v>
+        <v>222607917658898.5</v>
       </c>
       <c r="C139" t="n">
-        <v>4.812284653050457e-06</v>
+        <v>5303645065514.558</v>
       </c>
       <c r="D139" t="n">
-        <v>1.083034228798614e-31</v>
+        <v>0.8240951643946476</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
@@ -3010,16 +3010,16 @@
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
-        <v>4.344845894184665</v>
+        <v>5.069912</v>
       </c>
       <c r="B140" t="n">
-        <v>0.0001996750601857381</v>
+        <v>216638936227737.2</v>
       </c>
       <c r="C140" t="n">
-        <v>4.816205815311678e-06</v>
+        <v>5219384008900.141</v>
       </c>
       <c r="D140" t="n">
-        <v>9.407216170985588e-27</v>
+        <v>0.04800946423924911</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
@@ -3029,16 +3029,16 @@
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
-        <v>4.348762323812888</v>
+        <v>5.074481</v>
       </c>
       <c r="B141" t="n">
-        <v>0.000195893252744584</v>
+        <v>222775798213861.1</v>
       </c>
       <c r="C141" t="n">
-        <v>4.552738385788061e-06</v>
+        <v>5178117046677.769</v>
       </c>
       <c r="D141" t="n">
-        <v>1.299220501098773e-36</v>
+        <v>0.856606779516332</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
@@ -3048,16 +3048,16 @@
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
-        <v>4.357083665539375</v>
+        <v>5.084189</v>
       </c>
       <c r="B142" t="n">
-        <v>0.0001637283377659828</v>
+        <v>200732890933376.5</v>
       </c>
       <c r="C142" t="n">
-        <v>3.935430614542618e-06</v>
+        <v>4807461549241.73</v>
       </c>
       <c r="D142" t="n">
-        <v>8.110434431725185e-49</v>
+        <v>0.1363190279430805</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
@@ -3067,16 +3067,16 @@
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
-        <v>4.362054188918739</v>
+        <v>5.089986</v>
       </c>
       <c r="B143" t="n">
-        <v>0.000163962857408027</v>
+        <v>202219058641290</v>
       </c>
       <c r="C143" t="n">
-        <v>4.028349440464829e-06</v>
+        <v>4904637516138.921</v>
       </c>
       <c r="D143" t="n">
-        <v>3.750551609900064e-50</v>
+        <v>0.0670546158684017</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
@@ -3086,16 +3086,16 @@
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
-        <v>4.365250749643743</v>
+        <v>5.093717</v>
       </c>
       <c r="B144" t="n">
-        <v>0.000265990533381846</v>
+        <v>359818278792034.2</v>
       </c>
       <c r="C144" t="n">
-        <v>7.221236665978303e-06</v>
+        <v>9119667797544.117</v>
       </c>
       <c r="D144" t="n">
-        <v>1.287857443035364e-65</v>
+        <v>0.8243454494221493</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
@@ -3105,16 +3105,16 @@
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
-        <v>4.367855989483961</v>
+        <v>5.09676</v>
       </c>
       <c r="B145" t="n">
-        <v>0.0003470937973504207</v>
+        <v>470590714949373.5</v>
       </c>
       <c r="C145" t="n">
-        <v>8.652427667471265e-06</v>
+        <v>11457220527457.97</v>
       </c>
       <c r="D145" t="n">
-        <v>4.311163238123198e-66</v>
+        <v>0.454745582364051</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
@@ -3124,16 +3124,16 @@
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
-        <v>4.369681371345694</v>
+        <v>5.098893</v>
       </c>
       <c r="B146" t="n">
-        <v>0.0003345559464422853</v>
+        <v>455611369060426.5</v>
       </c>
       <c r="C146" t="n">
-        <v>8.927649682805134e-06</v>
+        <v>11495771780690.7</v>
       </c>
       <c r="D146" t="n">
-        <v>5.512006012313271e-66</v>
+        <v>0.2084875319079232</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
@@ -3143,16 +3143,16 @@
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
-        <v>4.370624056814194</v>
+        <v>5.099991</v>
       </c>
       <c r="B147" t="n">
-        <v>0.0003413709845997838</v>
+        <v>460814675654826.5</v>
       </c>
       <c r="C147" t="n">
-        <v>9.282692707849843e-06</v>
+        <v>11772915087724.55</v>
       </c>
       <c r="D147" t="n">
-        <v>1.479735100706385e-62</v>
+        <v>0.6369483278867751</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
@@ -3162,16 +3162,16 @@
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
-        <v>4.371001131001594</v>
+        <v>5.100430999999999</v>
       </c>
       <c r="B148" t="n">
-        <v>0.0003326710930691556</v>
+        <v>450122705549392.9</v>
       </c>
       <c r="C148" t="n">
-        <v>9.02802461724755e-06</v>
+        <v>11500504995884.24</v>
       </c>
       <c r="D148" t="n">
-        <v>7.567272338805222e-63</v>
+        <v>0.3744267930558033</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
@@ -3181,16 +3181,16 @@
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
-        <v>4.371241087302666</v>
+        <v>5.100713</v>
       </c>
       <c r="B149" t="n">
-        <v>0.0003383971366835692</v>
+        <v>453196208878900.2</v>
       </c>
       <c r="C149" t="n">
-        <v>9.130724202324647e-06</v>
+        <v>11521539959163.14</v>
       </c>
       <c r="D149" t="n">
-        <v>3.873463180457064e-62</v>
+        <v>0.449054859057551</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
@@ -3200,16 +3200,16 @@
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
-        <v>4.37310074863598</v>
+        <v>5.102879</v>
       </c>
       <c r="B150" t="n">
-        <v>0.0006394411254679009</v>
+        <v>757554779618674.8</v>
       </c>
       <c r="C150" t="n">
-        <v>1.533804688112277e-05</v>
+        <v>18098644272134.23</v>
       </c>
       <c r="D150" t="n">
-        <v>1.240377614841624e-41</v>
+        <v>0.5582716184746888</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
@@ -3219,16 +3219,16 @@
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
-        <v>4.37479758247928</v>
+        <v>5.104856</v>
       </c>
       <c r="B151" t="n">
-        <v>0.0007123720522985208</v>
+        <v>804720959262412.9</v>
       </c>
       <c r="C151" t="n">
-        <v>1.666323026466635e-05</v>
+        <v>18923481053358.21</v>
       </c>
       <c r="D151" t="n">
-        <v>5.298295468131009e-33</v>
+        <v>0.6422842092873703</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
@@ -3238,16 +3238,16 @@
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
-        <v>4.376545835529954</v>
+        <v>5.106897</v>
       </c>
       <c r="B152" t="n">
-        <v>0.0006701255522347368</v>
+        <v>755319090289636.5</v>
       </c>
       <c r="C152" t="n">
-        <v>1.591431427435767e-05</v>
+        <v>17959546151959.97</v>
       </c>
       <c r="D152" t="n">
-        <v>5.004955505052904e-33</v>
+        <v>0.5169721390526612</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
@@ -3257,16 +3257,16 @@
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
-        <v>4.378156970694299</v>
+        <v>5.108781</v>
       </c>
       <c r="B153" t="n">
-        <v>0.0006398179436895877</v>
+        <v>727368050172022.5</v>
       </c>
       <c r="C153" t="n">
-        <v>1.514661319295269e-05</v>
+        <v>17242469539921.52</v>
       </c>
       <c r="D153" t="n">
-        <v>1.918035603489502e-34</v>
+        <v>0.4538783178734204</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
@@ -3276,16 +3276,16 @@
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
-        <v>4.379236774049127</v>
+        <v>5.110037</v>
       </c>
       <c r="B154" t="n">
-        <v>0.0006469982613114179</v>
+        <v>728490303200735.5</v>
       </c>
       <c r="C154" t="n">
-        <v>1.543704643095893e-05</v>
+        <v>17373084795547.77</v>
       </c>
       <c r="D154" t="n">
-        <v>9.476120730141191e-33</v>
+        <v>0.1494310061824584</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
@@ -3295,16 +3295,16 @@
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
-        <v>4.379845234669704</v>
+        <v>5.11075</v>
       </c>
       <c r="B155" t="n">
-        <v>0.0006130752208529356</v>
+        <v>688762472399343.2</v>
       </c>
       <c r="C155" t="n">
-        <v>1.464699159545009e-05</v>
+        <v>16435091751781.27</v>
       </c>
       <c r="D155" t="n">
-        <v>1.374598344134395e-31</v>
+        <v>0.4080350682631906</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
@@ -3314,16 +3314,16 @@
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
-        <v>4.382493323849399</v>
+        <v>5.113839</v>
       </c>
       <c r="B156" t="n">
-        <v>0.0005866409885406061</v>
+        <v>647474988793015.1</v>
       </c>
       <c r="C156" t="n">
-        <v>1.387490724736786e-05</v>
+        <v>15369403436193.61</v>
       </c>
       <c r="D156" t="n">
-        <v>4.274294800819961e-29</v>
+        <v>0.1969174254533504</v>
       </c>
       <c r="E156" t="inlineStr">
         <is>
@@ -3333,16 +3333,16 @@
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
-        <v>4.386743978325545</v>
+        <v>5.118804</v>
       </c>
       <c r="B157" t="n">
-        <v>0.0005015447088195552</v>
+        <v>529667329656039.8</v>
       </c>
       <c r="C157" t="n">
-        <v>1.168583279473877e-05</v>
+        <v>12370593515307</v>
       </c>
       <c r="D157" t="n">
-        <v>6.477223562409837e-21</v>
+        <v>0.5671633706949292</v>
       </c>
       <c r="E157" t="inlineStr">
         <is>
@@ -3352,16 +3352,16 @@
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
-        <v>4.391003202669586</v>
+        <v>5.123773</v>
       </c>
       <c r="B158" t="n">
-        <v>0.0003686633005799027</v>
+        <v>375816518004095.8</v>
       </c>
       <c r="C158" t="n">
-        <v>9.062001867114027e-06</v>
+        <v>9144579282546.391</v>
       </c>
       <c r="D158" t="n">
-        <v>3.802288264125405e-14</v>
+        <v>0.5464884698369796</v>
       </c>
       <c r="E158" t="inlineStr">
         <is>
@@ -3371,16 +3371,16 @@
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
-        <v>4.395073889919927</v>
+        <v>5.128523</v>
       </c>
       <c r="B159" t="n">
-        <v>0.0002151786587635349</v>
+        <v>213424955801299.5</v>
       </c>
       <c r="C159" t="n">
-        <v>5.395995918929013e-06</v>
+        <v>5284281103360.329</v>
       </c>
       <c r="D159" t="n">
-        <v>1.46785251899007e-09</v>
+        <v>0.4594476566440858</v>
       </c>
       <c r="E159" t="inlineStr">
         <is>
@@ -3390,16 +3390,16 @@
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
-        <v>4.396290811161082</v>
+        <v>5.129939</v>
       </c>
       <c r="B160" t="n">
-        <v>0.0002241163598556205</v>
+        <v>225215657986423.8</v>
       </c>
       <c r="C160" t="n">
-        <v>5.917323154092798e-06</v>
+        <v>5824618224787.502</v>
       </c>
       <c r="D160" t="n">
-        <v>7.17317711041206e-11</v>
+        <v>0.1134191548167992</v>
       </c>
       <c r="E160" t="inlineStr">
         <is>
@@ -3409,16 +3409,16 @@
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
-        <v>4.399607350036622</v>
+        <v>5.133811</v>
       </c>
       <c r="B161" t="n">
-        <v>0.0001237346700027836</v>
+        <v>122751461661382.2</v>
       </c>
       <c r="C161" t="n">
-        <v>3.46512693715549e-06</v>
+        <v>3354006548761.985</v>
       </c>
       <c r="D161" t="n">
-        <v>5.595297264437959e-10</v>
+        <v>0.8557536835195672</v>
       </c>
       <c r="E161" t="inlineStr">
         <is>
@@ -3428,16 +3428,16 @@
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
-        <v>4.403952273059619</v>
+        <v>5.138881</v>
       </c>
       <c r="B162" t="n">
-        <v>0.0001098681601229278</v>
+        <v>110225719597731.1</v>
       </c>
       <c r="C162" t="n">
-        <v>3.328482960983941e-06</v>
+        <v>3177524906439.651</v>
       </c>
       <c r="D162" t="n">
-        <v>1.30494208347901e-12</v>
+        <v>0.3623222305306277</v>
       </c>
       <c r="E162" t="inlineStr">
         <is>
@@ -3447,16 +3447,16 @@
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
-        <v>4.406326126466659</v>
+        <v>5.141653</v>
       </c>
       <c r="B163" t="n">
-        <v>0.0001123151056260712</v>
+        <v>115670999176509.8</v>
       </c>
       <c r="C163" t="n">
-        <v>3.25687591472444e-06</v>
+        <v>3235110215242.679</v>
       </c>
       <c r="D163" t="n">
-        <v>4.661635149552822e-17</v>
+        <v>0.724318076464726</v>
       </c>
       <c r="E163" t="inlineStr">
         <is>
@@ -3466,16 +3466,16 @@
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
-        <v>4.408974215646356</v>
+        <v>5.144741000000001</v>
       </c>
       <c r="B164" t="n">
-        <v>0.0001097576526110721</v>
+        <v>114816483905678</v>
       </c>
       <c r="C164" t="n">
-        <v>3.233324324333328e-06</v>
+        <v>3216550449284.174</v>
       </c>
       <c r="D164" t="n">
-        <v>2.363103247309113e-21</v>
+        <v>0.1700462462720921</v>
       </c>
       <c r="E164" t="inlineStr">
         <is>
@@ -3485,16 +3485,16 @@
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
-        <v>4.411759422712378</v>
+        <v>5.147988</v>
       </c>
       <c r="B165" t="n">
-        <v>0.0001080192688661067</v>
+        <v>118566106269100.2</v>
       </c>
       <c r="C165" t="n">
-        <v>3.301139738912072e-06</v>
+        <v>3382903069580.764</v>
       </c>
       <c r="D165" t="n">
-        <v>1.827332200339327e-27</v>
+        <v>0.58011940516506</v>
       </c>
       <c r="E165" t="inlineStr">
         <is>
@@ -3504,16 +3504,16 @@
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
-        <v>4.41349053602726</v>
+        <v>5.150005999999999</v>
       </c>
       <c r="B166" t="n">
-        <v>0.0001167985111129867</v>
+        <v>123278996141743.7</v>
       </c>
       <c r="C166" t="n">
-        <v>3.671266432350154e-06</v>
+        <v>3638578841628.554</v>
       </c>
       <c r="D166" t="n">
-        <v>9.30249921878854e-21</v>
+        <v>0.8487088428877568</v>
       </c>
       <c r="E166" t="inlineStr">
         <is>
@@ -3523,16 +3523,16 @@
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
-        <v>4.414321813213119</v>
+        <v>5.150983</v>
       </c>
       <c r="B167" t="n">
-        <v>0.000112997651049847</v>
+        <v>124237385468648.4</v>
       </c>
       <c r="C167" t="n">
-        <v>3.196937537912715e-06</v>
+        <v>3352329334673.755</v>
       </c>
       <c r="D167" t="n">
-        <v>1.039218222869858e-28</v>
+        <v>0.783529949668705</v>
       </c>
       <c r="E167" t="inlineStr">
         <is>
@@ -3542,16 +3542,16 @@
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
-        <v>4.419515153157765</v>
+        <v>5.15704</v>
       </c>
       <c r="B168" t="n">
-        <v>0.0001144762827266986</v>
+        <v>131853702346655.2</v>
       </c>
       <c r="C168" t="n">
-        <v>3.143195482360272e-06</v>
+        <v>3452023385391.321</v>
       </c>
       <c r="D168" t="n">
-        <v>2.198512510899562e-37</v>
+        <v>0.8082445801539779</v>
       </c>
       <c r="E168" t="inlineStr">
         <is>
@@ -3561,16 +3561,16 @@
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
-        <v>4.421511932377406</v>
+        <v>5.159375</v>
       </c>
       <c r="B169" t="n">
-        <v>0.0001173183718920014</v>
+        <v>138856240316468.8</v>
       </c>
       <c r="C169" t="n">
-        <v>3.079250612390929e-06</v>
+        <v>3505711997580.104</v>
       </c>
       <c r="D169" t="n">
-        <v>6.425418352587812e-43</v>
+        <v>0.4022694168387682</v>
       </c>
       <c r="E169" t="inlineStr">
         <is>
@@ -3580,16 +3580,16 @@
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
-        <v>4.430664551289752</v>
+        <v>5.170048</v>
       </c>
       <c r="B170" t="n">
-        <v>0.0001197273959371615</v>
+        <v>137567381770787.4</v>
       </c>
       <c r="C170" t="n">
-        <v>3.254032187936298e-06</v>
+        <v>3597614515186.86</v>
       </c>
       <c r="D170" t="n">
-        <v>2.659012063947635e-38</v>
+        <v>0.1028041595025479</v>
       </c>
       <c r="E170" t="inlineStr">
         <is>
@@ -3599,16 +3599,16 @@
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
-        <v>4.447624319854858</v>
+        <v>5.189844</v>
       </c>
       <c r="B171" t="n">
-        <v>0.0001263685463991439</v>
+        <v>159329656216570.7</v>
       </c>
       <c r="C171" t="n">
-        <v>3.119816134846416e-06</v>
+        <v>3862522934038.51</v>
       </c>
       <c r="D171" t="n">
-        <v>2.775121077131745e-55</v>
+        <v>0.07342251325490955</v>
       </c>
       <c r="E171" t="inlineStr">
         <is>
@@ -3618,16 +3618,16 @@
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
-        <v>4.464926883135782</v>
+        <v>5.210028</v>
       </c>
       <c r="B172" t="n">
-        <v>0.0001514629510158626</v>
+        <v>206533596339564.5</v>
       </c>
       <c r="C172" t="n">
-        <v>3.804639028806336e-06</v>
+        <v>5022347601820.792</v>
       </c>
       <c r="D172" t="n">
-        <v>4.600230482799009e-70</v>
+        <v>0.3394802284240175</v>
       </c>
       <c r="E172" t="inlineStr">
         <is>
@@ -3637,16 +3637,16 @@
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
-        <v>4.482066618926692</v>
+        <v>5.230028</v>
       </c>
       <c r="B173" t="n">
-        <v>0.0001867684492581767</v>
+        <v>296552769335186.4</v>
       </c>
       <c r="C173" t="n">
-        <v>5.085402803557499e-06</v>
+        <v>7451064842570.248</v>
       </c>
       <c r="D173" t="n">
-        <v>4.254711425347888e-95</v>
+        <v>0.2331424344331294</v>
       </c>
       <c r="E173" t="inlineStr">
         <is>
@@ -3656,16 +3656,16 @@
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
-        <v>4.490182283823687</v>
+        <v>5.239501000000001</v>
       </c>
       <c r="B174" t="n">
-        <v>0.0002317546890676607</v>
+        <v>428580452010976.8</v>
       </c>
       <c r="C174" t="n">
-        <v>6.077406728808989e-06</v>
+        <v>10325274269827.94</v>
       </c>
       <c r="D174" t="n">
-        <v>3.587274146688054e-128</v>
+        <v>0.8515184964785218</v>
       </c>
       <c r="E174" t="inlineStr">
         <is>
@@ -3675,16 +3675,16 @@
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
-        <v>4.493233156794469</v>
+        <v>5.243064</v>
       </c>
       <c r="B175" t="n">
-        <v>0.0002455698397621464</v>
+        <v>463687818026503.2</v>
       </c>
       <c r="C175" t="n">
-        <v>6.977351536123377e-06</v>
+        <v>11612369081050.79</v>
       </c>
       <c r="D175" t="n">
-        <v>6.63043029355981e-125</v>
+        <v>0.3609184914242828</v>
       </c>
       <c r="E175" t="inlineStr">
         <is>
@@ -3694,16 +3694,16 @@
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
-        <v>4.499292053396556</v>
+        <v>5.250129</v>
       </c>
       <c r="B176" t="n">
-        <v>0.0003096958948178142</v>
+        <v>645738444157258</v>
       </c>
       <c r="C176" t="n">
-        <v>9.427923601945014e-06</v>
+        <v>16311502130021.65</v>
       </c>
       <c r="D176" t="n">
-        <v>6.841356522783078e-142</v>
+        <v>0.4931813762392973</v>
       </c>
       <c r="E176" t="inlineStr">
         <is>
@@ -3713,16 +3713,16 @@
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
-        <v>4.507699093801998</v>
+        <v>5.25994</v>
       </c>
       <c r="B177" t="n">
-        <v>0.0003899526892249971</v>
+        <v>845220510215523.5</v>
       </c>
       <c r="C177" t="n">
-        <v>1.15173808120796e-05</v>
+        <v>21066904004972.01</v>
       </c>
       <c r="D177" t="n">
-        <v>3.128511434988106e-149</v>
+        <v>0.5760222487803454</v>
       </c>
       <c r="E177" t="inlineStr">
         <is>
@@ -3732,16 +3732,16 @@
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
-        <v>4.512069726428679</v>
+        <v>5.26504</v>
       </c>
       <c r="B178" t="n">
-        <v>0.0004378170878431671</v>
+        <v>884512989783574.5</v>
       </c>
       <c r="C178" t="n">
-        <v>1.350840326957925e-05</v>
+        <v>22600455889173.68</v>
       </c>
       <c r="D178" t="n">
-        <v>3.898228762094499e-135</v>
+        <v>0.3366532085808898</v>
       </c>
       <c r="E178" t="inlineStr">
         <is>
@@ -3751,16 +3751,16 @@
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
-        <v>4.516303241169035</v>
+        <v>5.269983</v>
       </c>
       <c r="B179" t="n">
-        <v>0.0004775394542858265</v>
+        <v>944230862920391</v>
       </c>
       <c r="C179" t="n">
-        <v>1.419783053045476e-05</v>
+        <v>24039350831443.93</v>
       </c>
       <c r="D179" t="n">
-        <v>5.519526908291392e-129</v>
+        <v>0.3766126520348259</v>
       </c>
       <c r="E179" t="inlineStr">
         <is>
@@ -3770,16 +3770,16 @@
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
-        <v>4.520571035380971</v>
+        <v>5.27496</v>
       </c>
       <c r="B180" t="n">
-        <v>0.000587688166092789</v>
+        <v>1075247729233161</v>
       </c>
       <c r="C180" t="n">
-        <v>1.667098560174019e-05</v>
+        <v>27116661278935.24</v>
       </c>
       <c r="D180" t="n">
-        <v>2.598246426389636e-116</v>
+        <v>0.6028299426037687</v>
       </c>
       <c r="E180" t="inlineStr">
         <is>
@@ -3789,16 +3789,16 @@
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
-        <v>4.520622454588343</v>
+        <v>5.275024</v>
       </c>
       <c r="B181" t="n">
-        <v>0.0005868152667676177</v>
+        <v>1093855233542810</v>
       </c>
       <c r="C181" t="n">
-        <v>1.534762006079685e-05</v>
+        <v>26582113969878.19</v>
       </c>
       <c r="D181" t="n">
-        <v>1.596813390481437e-122</v>
+        <v>0.8514521469056284</v>
       </c>
       <c r="E181" t="inlineStr">
         <is>
@@ -3808,16 +3808,16 @@
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
-        <v>4.524727421310266</v>
+        <v>5.279812000000001</v>
       </c>
       <c r="B182" t="n">
-        <v>0.0009559993207061031</v>
+        <v>1465898711520360</v>
       </c>
       <c r="C182" t="n">
-        <v>2.513704566852436e-05</v>
+        <v>36467062495015.66</v>
       </c>
       <c r="D182" t="n">
-        <v>1.183602205403876e-86</v>
+        <v>0.2889681699175978</v>
       </c>
       <c r="E182" t="inlineStr">
         <is>
@@ -3827,16 +3827,16 @@
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
-        <v>4.529132333408531</v>
+        <v>5.284953</v>
       </c>
       <c r="B183" t="n">
-        <v>0.001200959740485262</v>
+        <v>1741812604132561</v>
       </c>
       <c r="C183" t="n">
-        <v>3.101821434583299e-05</v>
+        <v>43215208246385.99</v>
       </c>
       <c r="D183" t="n">
-        <v>1.162714888527812e-76</v>
+        <v>0.2303699567249946</v>
       </c>
       <c r="E183" t="inlineStr">
         <is>
@@ -3846,16 +3846,16 @@
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
-        <v>4.533597234582063</v>
+        <v>5.290161</v>
       </c>
       <c r="B184" t="n">
-        <v>0.001562847812222798</v>
+        <v>2234018490626926</v>
       </c>
       <c r="C184" t="n">
-        <v>3.709894587981581e-05</v>
+        <v>53221588517149.11</v>
       </c>
       <c r="D184" t="n">
-        <v>1.479140116549898e-75</v>
+        <v>0.09412436765436805</v>
       </c>
       <c r="E184" t="inlineStr">
         <is>
@@ -3865,16 +3865,16 @@
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
-        <v>4.535979657856999</v>
+        <v>5.292942</v>
       </c>
       <c r="B185" t="n">
-        <v>0.001766095408879078</v>
+        <v>2573158701417684</v>
       </c>
       <c r="C185" t="n">
-        <v>4.165272254127754e-05</v>
+        <v>60961422023752.05</v>
       </c>
       <c r="D185" t="n">
-        <v>1.09532148276111e-78</v>
+        <v>0.5027108983126479</v>
       </c>
       <c r="E185" t="inlineStr">
         <is>
@@ -3884,16 +3884,16 @@
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
-        <v>4.540033205371549</v>
+        <v>5.297674</v>
       </c>
       <c r="B186" t="n">
-        <v>0.001767266676691309</v>
+        <v>2498518896693724</v>
       </c>
       <c r="C186" t="n">
-        <v>4.026668221648594e-05</v>
+        <v>58400171324579.99</v>
       </c>
       <c r="D186" t="n">
-        <v>5.045453779849858e-74</v>
+        <v>0.1028438092821903</v>
       </c>
       <c r="E186" t="inlineStr">
         <is>
@@ -3903,16 +3903,16 @@
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
-        <v>4.541790028290118</v>
+        <v>5.299721</v>
       </c>
       <c r="B187" t="n">
-        <v>0.001745897879863459</v>
+        <v>2459838111540222</v>
       </c>
       <c r="C187" t="n">
-        <v>4.056706659340836e-05</v>
+        <v>57613232628614.41</v>
       </c>
       <c r="D187" t="n">
-        <v>5.60003338461817e-75</v>
+        <v>0.8163241554397435</v>
       </c>
       <c r="E187" t="inlineStr">
         <is>
@@ -3922,16 +3922,16 @@
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
-        <v>4.54406961315031</v>
+        <v>5.302376000000001</v>
       </c>
       <c r="B188" t="n">
-        <v>0.001803820000627213</v>
+        <v>2409102276474947</v>
       </c>
       <c r="C188" t="n">
-        <v>4.135498925166652e-05</v>
+        <v>56456695395439.92</v>
       </c>
       <c r="D188" t="n">
-        <v>5.283157014004896e-64</v>
+        <v>0.056473150225506</v>
       </c>
       <c r="E188" t="inlineStr">
         <is>
@@ -3941,16 +3941,16 @@
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
-        <v>4.54908298586915</v>
+        <v>5.308233</v>
       </c>
       <c r="B189" t="n">
-        <v>0.001439240757207674</v>
+        <v>1908401883324239</v>
       </c>
       <c r="C189" t="n">
-        <v>3.225281178521679e-05</v>
+        <v>44140489964602.42</v>
       </c>
       <c r="D189" t="n">
-        <v>4.078860391962107e-63</v>
+        <v>0.07620078902727212</v>
       </c>
       <c r="E189" t="inlineStr">
         <is>
@@ -3960,16 +3960,16 @@
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
-        <v>4.553067974440538</v>
+        <v>5.312876</v>
       </c>
       <c r="B190" t="n">
-        <v>0.001118867075689239</v>
+        <v>1422814295790178</v>
       </c>
       <c r="C190" t="n">
-        <v>2.545868126592158e-05</v>
+        <v>33155701691644.89</v>
       </c>
       <c r="D190" t="n">
-        <v>4.39832799945987e-55</v>
+        <v>0.07750020734406188</v>
       </c>
       <c r="E190" t="inlineStr">
         <is>
@@ -3979,16 +3979,16 @@
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
-        <v>4.557044393144028</v>
+        <v>5.317521</v>
       </c>
       <c r="B191" t="n">
-        <v>0.000838905656109432</v>
+        <v>1003656471614308</v>
       </c>
       <c r="C191" t="n">
-        <v>1.927389142998634e-05</v>
+        <v>23401756995873.08</v>
       </c>
       <c r="D191" t="n">
-        <v>1.027578262803785e-43</v>
+        <v>0.1706848080331571</v>
       </c>
       <c r="E191" t="inlineStr">
         <is>
@@ -3998,16 +3998,16 @@
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
-        <v>4.561577853260723</v>
+        <v>5.322808999999999</v>
       </c>
       <c r="B192" t="n">
-        <v>0.0006124161431762794</v>
+        <v>681472913193155.5</v>
       </c>
       <c r="C192" t="n">
-        <v>1.412548811461426e-05</v>
+        <v>15914664835887.27</v>
       </c>
       <c r="D192" t="n">
-        <v>2.435496097562196e-30</v>
+        <v>0.1471600266025867</v>
       </c>
       <c r="E192" t="inlineStr">
         <is>
@@ -4017,16 +4017,16 @@
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
-        <v>4.56575137892581</v>
+        <v>5.327683</v>
       </c>
       <c r="B193" t="n">
-        <v>0.0004486631989416705</v>
+        <v>475160767152834.4</v>
       </c>
       <c r="C193" t="n">
-        <v>1.066969002726639e-05</v>
+        <v>11323833521681.25</v>
       </c>
       <c r="D193" t="n">
-        <v>3.373643065912609e-21</v>
+        <v>0.04842409080588747</v>
       </c>
       <c r="E193" t="inlineStr">
         <is>
@@ -4036,16 +4036,16 @@
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
-        <v>4.570207710231447</v>
+        <v>5.33288</v>
       </c>
       <c r="B194" t="n">
-        <v>0.0003497200714020986</v>
+        <v>355092849353661.8</v>
       </c>
       <c r="C194" t="n">
-        <v>8.757310962318821e-06</v>
+        <v>8731410303209.432</v>
       </c>
       <c r="D194" t="n">
-        <v>1.571872643260693e-12</v>
+        <v>0.6761282972722735</v>
       </c>
       <c r="E194" t="inlineStr">
         <is>
@@ -4055,16 +4055,16 @@
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
-        <v>4.570233419835134</v>
+        <v>5.332912</v>
       </c>
       <c r="B195" t="n">
-        <v>0.0003655216688868463</v>
+        <v>363576070782328.6</v>
       </c>
       <c r="C195" t="n">
-        <v>8.631867083791727e-06</v>
+        <v>8590566583948.858</v>
       </c>
       <c r="D195" t="n">
-        <v>9.705165921235643e-11</v>
+        <v>0.08343728642096938</v>
       </c>
       <c r="E195" t="inlineStr">
         <is>
@@ -4074,16 +4074,16 @@
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
-        <v>4.574141279595461</v>
+        <v>5.337469</v>
       </c>
       <c r="B196" t="n">
-        <v>0.0003349429393628356</v>
+        <v>323701912137863.8</v>
       </c>
       <c r="C196" t="n">
-        <v>7.730358204468954e-06</v>
+        <v>7480285891067.456</v>
       </c>
       <c r="D196" t="n">
-        <v>1.928427188630616e-06</v>
+        <v>0.07330194733112451</v>
       </c>
       <c r="E196" t="inlineStr">
         <is>
@@ -4093,16 +4093,16 @@
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
-        <v>4.578657599976365</v>
+        <v>5.342735</v>
       </c>
       <c r="B197" t="n">
-        <v>0.0003076770644333992</v>
+        <v>295554815053003.6</v>
       </c>
       <c r="C197" t="n">
-        <v>7.144814913289347e-06</v>
+        <v>6853969111774.129</v>
       </c>
       <c r="D197" t="n">
-        <v>0.0002028102139664015</v>
+        <v>0.5458617822150813</v>
       </c>
       <c r="E197" t="inlineStr">
         <is>
@@ -4112,16 +4112,16 @@
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
-        <v>4.578820427466379</v>
+        <v>5.342928</v>
       </c>
       <c r="B198" t="n">
-        <v>0.0003074586165649446</v>
+        <v>294375077898325.2</v>
       </c>
       <c r="C198" t="n">
-        <v>6.970357113471506e-06</v>
+        <v>6673868090147.952</v>
       </c>
       <c r="D198" t="n">
-        <v>0.0004026814195116301</v>
+        <v>0.07131119399633766</v>
       </c>
       <c r="E198" t="inlineStr">
         <is>
@@ -4131,16 +4131,16 @@
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
-        <v>4.582256944492457</v>
+        <v>5.346943</v>
       </c>
       <c r="B199" t="n">
-        <v>0.0002762277809162439</v>
+        <v>262564151598914.8</v>
       </c>
       <c r="C199" t="n">
-        <v>6.303715647207548e-06</v>
+        <v>5969513643484.399</v>
       </c>
       <c r="D199" t="n">
-        <v>0.01878720893409385</v>
+        <v>0.9047032811749044</v>
       </c>
       <c r="E199" t="inlineStr">
         <is>
@@ -4150,16 +4150,16 @@
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
-        <v>4.583388167054657</v>
+        <v>5.348261</v>
       </c>
       <c r="B200" t="n">
-        <v>0.0002737196967003982</v>
+        <v>257776894054290.7</v>
       </c>
       <c r="C200" t="n">
-        <v>6.09713159928498e-06</v>
+        <v>5739994654873.787</v>
       </c>
       <c r="D200" t="n">
-        <v>0.01324042976334336</v>
+        <v>0.09717502221045926</v>
       </c>
       <c r="E200" t="inlineStr">
         <is>
@@ -4169,16 +4169,16 @@
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
-        <v>4.583662402827311</v>
+        <v>5.348582</v>
       </c>
       <c r="B201" t="n">
-        <v>0.0002691722758370553</v>
+        <v>254725233019458.3</v>
       </c>
       <c r="C201" t="n">
-        <v>5.996712043843759e-06</v>
+        <v>5663913257618.213</v>
       </c>
       <c r="D201" t="n">
-        <v>0.05470210161420047</v>
+        <v>0.8312320485667586</v>
       </c>
       <c r="E201" t="inlineStr">
         <is>
@@ -4188,16 +4188,16 @@
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
-        <v>4.586636146987034</v>
+        <v>5.352053</v>
       </c>
       <c r="B202" t="n">
-        <v>0.0002766601556092283</v>
+        <v>268614050796752.2</v>
       </c>
       <c r="C202" t="n">
-        <v>6.70903239044593e-06</v>
+        <v>6479223165954.891</v>
       </c>
       <c r="D202" t="n">
-        <v>2.213894978884684e-05</v>
+        <v>0.4685613037442546</v>
       </c>
       <c r="E202" t="inlineStr">
         <is>
@@ -4207,16 +4207,16 @@
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
-        <v>4.58796447651083</v>
+        <v>5.353596</v>
       </c>
       <c r="B203" t="n">
-        <v>0.0002628182427771839</v>
+        <v>251064599397392.4</v>
       </c>
       <c r="C203" t="n">
-        <v>5.782827495065906e-06</v>
+        <v>5556756650083.198</v>
       </c>
       <c r="D203" t="n">
-        <v>0.0003951330037892837</v>
+        <v>0.0829005257053885</v>
       </c>
       <c r="E203" t="inlineStr">
         <is>
@@ -4226,16 +4226,16 @@
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
-        <v>4.591649519705875</v>
+        <v>5.357905000000001</v>
       </c>
       <c r="B204" t="n">
-        <v>0.0003193587987121797</v>
+        <v>326113489822352.5</v>
       </c>
       <c r="C204" t="n">
-        <v>7.855301118910593e-06</v>
+        <v>7946819729885.916</v>
       </c>
       <c r="D204" t="n">
-        <v>2.265408164178728e-14</v>
+        <v>0.2895691058795544</v>
       </c>
       <c r="E204" t="inlineStr">
         <is>
@@ -4245,16 +4245,16 @@
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
-        <v>4.593303504209699</v>
+        <v>5.359834999999999</v>
       </c>
       <c r="B205" t="n">
-        <v>0.0003050390271953874</v>
+        <v>315902294776108.1</v>
       </c>
       <c r="C205" t="n">
-        <v>7.53123143742637e-06</v>
+        <v>7711784427941.897</v>
       </c>
       <c r="D205" t="n">
-        <v>2.878076812494797e-17</v>
+        <v>0.5462885662716361</v>
       </c>
       <c r="E205" t="inlineStr">
         <is>
@@ -4264,16 +4264,16 @@
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
-        <v>4.595068896996162</v>
+        <v>5.361894</v>
       </c>
       <c r="B206" t="n">
-        <v>0.0003037356791616503</v>
+        <v>312873506502758</v>
       </c>
       <c r="C206" t="n">
-        <v>7.5003879249581e-06</v>
+        <v>7644054857906.413</v>
       </c>
       <c r="D206" t="n">
-        <v>5.15858218554771e-16</v>
+        <v>0.5146583714495505</v>
       </c>
       <c r="E206" t="inlineStr">
         <is>
@@ -4283,16 +4283,16 @@
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
-        <v>4.596757160971567</v>
+        <v>5.363857</v>
       </c>
       <c r="B207" t="n">
-        <v>0.0002950702240346215</v>
+        <v>311444603637709.2</v>
       </c>
       <c r="C207" t="n">
-        <v>7.309202468070481e-06</v>
+        <v>7626066354675.086</v>
       </c>
       <c r="D207" t="n">
-        <v>1.983624073421608e-19</v>
+        <v>0.3395871403778348</v>
       </c>
       <c r="E207" t="inlineStr">
         <is>
@@ -4302,16 +4302,16 @@
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
-        <v>4.598633962040672</v>
+        <v>5.366045</v>
       </c>
       <c r="B208" t="n">
-        <v>0.0002931769684049623</v>
+        <v>307931545876952.8</v>
       </c>
       <c r="C208" t="n">
-        <v>7.363113535525948e-06</v>
+        <v>7607926836712.587</v>
       </c>
       <c r="D208" t="n">
-        <v>3.98479651344118e-19</v>
+        <v>0.5653180963350626</v>
       </c>
       <c r="E208" t="inlineStr">
         <is>
@@ -4321,16 +4321,16 @@
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
-        <v>4.600339365751868</v>
+        <v>5.368041000000001</v>
       </c>
       <c r="B209" t="n">
-        <v>0.0002984201586435217</v>
+        <v>309875257046328.4</v>
       </c>
       <c r="C209" t="n">
-        <v>6.906724884732946e-06</v>
+        <v>7211148045237.149</v>
       </c>
       <c r="D209" t="n">
-        <v>1.030434022224835e-18</v>
+        <v>0.5312470653020949</v>
       </c>
       <c r="E209" t="inlineStr">
         <is>
@@ -4340,16 +4340,16 @@
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
-        <v>4.601719114483036</v>
+        <v>5.369651</v>
       </c>
       <c r="B210" t="n">
-        <v>0.0002945166570296219</v>
+        <v>308594367830012.8</v>
       </c>
       <c r="C210" t="n">
-        <v>7.208277667800971e-06</v>
+        <v>7488090372621.064</v>
       </c>
       <c r="D210" t="n">
-        <v>3.569254677777853e-18</v>
+        <v>0.5955746041635103</v>
       </c>
       <c r="E210" t="inlineStr">
         <is>
@@ -4359,16 +4359,16 @@
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
-        <v>4.606132596449195</v>
+        <v>5.374804</v>
       </c>
       <c r="B211" t="n">
-        <v>0.0002638030967230728</v>
+        <v>272928671000489.4</v>
       </c>
       <c r="C211" t="n">
-        <v>5.911654591499153e-06</v>
+        <v>6211041274436.396</v>
       </c>
       <c r="D211" t="n">
-        <v>4.330947964785396e-17</v>
+        <v>0.4414497922520066</v>
       </c>
       <c r="E211" t="inlineStr">
         <is>
@@ -4378,16 +4378,16 @@
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
-        <v>4.610666056565891</v>
+        <v>5.380088</v>
       </c>
       <c r="B212" t="n">
-        <v>0.0002291601237114955</v>
+        <v>230533361494989.8</v>
       </c>
       <c r="C212" t="n">
-        <v>5.124383608670212e-06</v>
+        <v>5220363609223.763</v>
       </c>
       <c r="D212" t="n">
-        <v>3.215325019180028e-12</v>
+        <v>0.4028234087108547</v>
       </c>
       <c r="E212" t="inlineStr">
         <is>
@@ -4397,16 +4397,16 @@
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
-        <v>4.613091329180303</v>
+        <v>5.382924</v>
       </c>
       <c r="B213" t="n">
-        <v>0.0002211969081337964</v>
+        <v>219574683084122.1</v>
       </c>
       <c r="C213" t="n">
-        <v>4.862354018823293e-06</v>
+        <v>4899794479300.226</v>
       </c>
       <c r="D213" t="n">
-        <v>2.652258197082398e-10</v>
+        <v>0.3256962418251876</v>
       </c>
       <c r="E213" t="inlineStr">
         <is>
@@ -4416,16 +4416,16 @@
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
-        <v>4.613451263631914</v>
+        <v>5.383343</v>
       </c>
       <c r="B214" t="n">
-        <v>0.000227360229047433</v>
+        <v>228374394097528.5</v>
       </c>
       <c r="C214" t="n">
-        <v>4.956858549674886e-06</v>
+        <v>5074378338139.877</v>
       </c>
       <c r="D214" t="n">
-        <v>4.138284415451839e-12</v>
+        <v>0.158409370671604</v>
       </c>
       <c r="E214" t="inlineStr">
         <is>
@@ -4435,16 +4435,16 @@
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
-        <v>4.613896896762476</v>
+        <v>5.383858999999999</v>
       </c>
       <c r="B215" t="n">
-        <v>0.0002214057502334439</v>
+        <v>219157653021867.8</v>
       </c>
       <c r="C215" t="n">
-        <v>4.803372832235394e-06</v>
+        <v>4837362634157.591</v>
       </c>
       <c r="D215" t="n">
-        <v>1.080579187906353e-09</v>
+        <v>0.3357873050891326</v>
       </c>
       <c r="E215" t="inlineStr">
         <is>
@@ -4454,16 +4454,16 @@
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
-        <v>4.615696569020522</v>
+        <v>5.385955</v>
       </c>
       <c r="B216" t="n">
-        <v>0.0002168142004232977</v>
+        <v>215642280729371.4</v>
       </c>
       <c r="C216" t="n">
-        <v>4.693752318716369e-06</v>
+        <v>4749400273335.204</v>
       </c>
       <c r="D216" t="n">
-        <v>3.694610963810386e-10</v>
+        <v>0.4046234247893263</v>
       </c>
       <c r="E216" t="inlineStr">
         <is>
@@ -4473,16 +4473,16 @@
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
-        <v>4.619038817499749</v>
+        <v>5.389858</v>
       </c>
       <c r="B217" t="n">
-        <v>0.0002156714019026727</v>
+        <v>213598711075939.9</v>
       </c>
       <c r="C217" t="n">
-        <v>4.614373293066239e-06</v>
+        <v>4659081235072.589</v>
       </c>
       <c r="D217" t="n">
-        <v>6.261875158986318e-10</v>
+        <v>0.7233619535415032</v>
       </c>
       <c r="E217" t="inlineStr">
         <is>
@@ -4492,16 +4492,16 @@
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
-        <v>4.621798314962087</v>
+        <v>5.393084</v>
       </c>
       <c r="B218" t="n">
-        <v>0.0002183739772607947</v>
+        <v>215682443617454.4</v>
       </c>
       <c r="C218" t="n">
-        <v>4.670479706726835e-06</v>
+        <v>4720922928096.231</v>
       </c>
       <c r="D218" t="n">
-        <v>2.091706034505422e-09</v>
+        <v>0.03883255661352283</v>
       </c>
       <c r="E218" t="inlineStr">
         <is>
@@ -4511,16 +4511,16 @@
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
-        <v>4.630650988498092</v>
+        <v>5.403415</v>
       </c>
       <c r="B219" t="n">
-        <v>0.0002316434860189551</v>
+        <v>228080261795863.2</v>
       </c>
       <c r="C219" t="n">
-        <v>4.958239007197553e-06</v>
+        <v>4992553211654.409</v>
       </c>
       <c r="D219" t="n">
-        <v>4.761473737916959e-09</v>
+        <v>0.0954849404107541</v>
       </c>
       <c r="E219" t="inlineStr">
         <is>
@@ -4530,16 +4530,16 @@
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
-        <v>4.639795037542543</v>
+        <v>5.414078</v>
       </c>
       <c r="B220" t="n">
-        <v>0.0002322648492670935</v>
+        <v>227267733282424.8</v>
       </c>
       <c r="C220" t="n">
-        <v>4.987399649426189e-06</v>
+        <v>4971886007484.359</v>
       </c>
       <c r="D220" t="n">
-        <v>7.551969494174054e-08</v>
+        <v>0.07762521747738162</v>
       </c>
       <c r="E220" t="inlineStr">
         <is>
@@ -4549,16 +4549,16 @@
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
-        <v>4.64860486173907</v>
+        <v>5.424364</v>
       </c>
       <c r="B221" t="n">
-        <v>0.0002220424243221014</v>
+        <v>218124411103608.8</v>
       </c>
       <c r="C221" t="n">
-        <v>4.775539161993276e-06</v>
+        <v>4774933373760.942</v>
       </c>
       <c r="D221" t="n">
-        <v>1.39235013964339e-08</v>
+        <v>0.0531072719047126</v>
       </c>
       <c r="E221" t="inlineStr">
         <is>
@@ -4568,16 +4568,16 @@
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
-        <v>4.658074565763548</v>
+        <v>5.435405</v>
       </c>
       <c r="B222" t="n">
-        <v>0.0002281884621056504</v>
+        <v>228739338668577.5</v>
       </c>
       <c r="C222" t="n">
-        <v>4.844873505797802e-06</v>
+        <v>4975119449465.432</v>
       </c>
       <c r="D222" t="n">
-        <v>1.461936368830409e-11</v>
+        <v>0.2852439883281742</v>
       </c>
       <c r="E222" t="inlineStr">
         <is>
@@ -4587,16 +4587,16 @@
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
-        <v>4.661373964903298</v>
+        <v>5.439261</v>
       </c>
       <c r="B223" t="n">
-        <v>0.0002380721725744355</v>
+        <v>241053215313155.8</v>
       </c>
       <c r="C223" t="n">
-        <v>5.080787255089398e-06</v>
+        <v>5284032334876.369</v>
       </c>
       <c r="D223" t="n">
-        <v>1.260284678334202e-13</v>
+        <v>0.0797883089639584</v>
       </c>
       <c r="E223" t="inlineStr">
         <is>

--- a/legendre_out/DATA/a1/a1Fits.xlsx
+++ b/legendre_out/DATA/a1/a1Fits.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E223"/>
+  <dimension ref="A1:E221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -388,16 +388,16 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>3.996021</v>
+        <v>3.434374559103622</v>
       </c>
       <c r="B2" t="n">
-        <v>26266158381009.4</v>
+        <v>3.000154242034687e-05</v>
       </c>
       <c r="C2" t="n">
-        <v>637845187870.8157</v>
+        <v>7.285549416914637e-07</v>
       </c>
       <c r="D2" t="n">
-        <v>0.3206995831729136</v>
+        <v>0.3206995731106633</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -407,16 +407,16 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>4.000967</v>
+        <v>3.43865949305135</v>
       </c>
       <c r="B3" t="n">
-        <v>24191172664421.75</v>
+        <v>2.763146714319384e-05</v>
       </c>
       <c r="C3" t="n">
-        <v>636577961255.866</v>
+        <v>7.271074985798868e-07</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1911497426129495</v>
+        <v>0.1911497465791668</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -426,16 +426,16 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>4.00294</v>
+        <v>3.440287767951486</v>
       </c>
       <c r="B4" t="n">
-        <v>22563455968366.57</v>
+        <v>2.577226830385066e-05</v>
       </c>
       <c r="C4" t="n">
-        <v>610174425947.78</v>
+        <v>6.969490423322151e-07</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2033566748671685</v>
+        <v>0.2033566684298083</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -445,16 +445,16 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>4.006972</v>
+        <v>3.443801413788623</v>
       </c>
       <c r="B5" t="n">
-        <v>21265323787939.45</v>
+        <v>2.428952509867424e-05</v>
       </c>
       <c r="C5" t="n">
-        <v>597132438357.9393</v>
+        <v>6.820523175158766e-07</v>
       </c>
       <c r="D5" t="n">
-        <v>0.006938283654961844</v>
+        <v>0.006938283788120915</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -464,16 +464,16 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>4.009086</v>
+        <v>3.445601086046668</v>
       </c>
       <c r="B6" t="n">
-        <v>20766728344636.64</v>
+        <v>2.372002301597441e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>628656392761.6399</v>
+        <v>7.180593818945264e-07</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1173906377756931</v>
+        <v>0.1173906376986253</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -483,16 +483,16 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>4.010032</v>
+        <v>3.446372374157259</v>
       </c>
       <c r="B7" t="n">
-        <v>20248107039059.88</v>
+        <v>2.312764710066394e-05</v>
       </c>
       <c r="C7" t="n">
-        <v>622604260845.1572</v>
+        <v>7.111465593766218e-07</v>
       </c>
       <c r="D7" t="n">
-        <v>0.07447615528512951</v>
+        <v>0.07447615633044775</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -502,16 +502,16 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>4.01507</v>
+        <v>3.450743006783942</v>
       </c>
       <c r="B8" t="n">
-        <v>19774266087286.65</v>
+        <v>2.258641991980371e-05</v>
       </c>
       <c r="C8" t="n">
-        <v>560460551829.4518</v>
+        <v>6.401652195156967e-07</v>
       </c>
       <c r="D8" t="n">
-        <v>0.130175903120391</v>
+        <v>0.1301759014344223</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -521,16 +521,16 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>4.019108</v>
+        <v>3.454170953942123</v>
       </c>
       <c r="B9" t="n">
-        <v>16976557644514.62</v>
+        <v>1.939084151484123e-05</v>
       </c>
       <c r="C9" t="n">
-        <v>489091337904.1931</v>
+        <v>5.586463879270433e-07</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1722605615521016</v>
+        <v>0.1722605636412457</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -540,16 +540,16 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>4.019916</v>
+        <v>3.454856543373759</v>
       </c>
       <c r="B10" t="n">
-        <v>14464705429302.04</v>
+        <v>1.652177173379054e-05</v>
       </c>
       <c r="C10" t="n">
-        <v>495285844229.1041</v>
+        <v>5.657218331053732e-07</v>
       </c>
       <c r="D10" t="n">
-        <v>0.05363200027856841</v>
+        <v>0.05363200407674028</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -559,16 +559,16 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>4.025044</v>
+        <v>3.459227176000442</v>
       </c>
       <c r="B11" t="n">
-        <v>10044051791058.37</v>
+        <v>1.147244456758692e-05</v>
       </c>
       <c r="C11" t="n">
-        <v>394101267492.1676</v>
+        <v>4.501475137096457e-07</v>
       </c>
       <c r="D11" t="n">
-        <v>0.004140514773603434</v>
+        <v>0.004140514383950021</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -578,16 +578,16 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>4.029979</v>
+        <v>3.463512109948169</v>
       </c>
       <c r="B12" t="n">
-        <v>6109011034641.726</v>
+        <v>6.977790626549638e-06</v>
       </c>
       <c r="C12" t="n">
-        <v>270024972504.8442</v>
+        <v>3.084259809642814e-07</v>
       </c>
       <c r="D12" t="n">
-        <v>0.002542254435409761</v>
+        <v>0.002542254348718668</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -597,16 +597,16 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>4.035141</v>
+        <v>3.467882742574851</v>
       </c>
       <c r="B13" t="n">
-        <v>4647027295333.852</v>
+        <v>5.307894078801236e-06</v>
       </c>
       <c r="C13" t="n">
-        <v>240611430780.837</v>
+        <v>2.748294569379141e-07</v>
       </c>
       <c r="D13" t="n">
-        <v>0.02759948167591292</v>
+        <v>0.02759948165977852</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -616,16 +616,16 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>4.269958</v>
+        <v>3.669188939439092</v>
       </c>
       <c r="B14" t="n">
-        <v>21618795169740.84</v>
+        <v>2.469326465206197e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>586174728185.1631</v>
+        <v>6.695362803015539e-07</v>
       </c>
       <c r="D14" t="n">
-        <v>0.07751227725757361</v>
+        <v>0.07751227763811147</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -635,16 +635,16 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>4.290051</v>
+        <v>3.686414373908955</v>
       </c>
       <c r="B15" t="n">
-        <v>33918736766032.9</v>
+        <v>3.874241541531473e-05</v>
       </c>
       <c r="C15" t="n">
-        <v>850306465309.0576</v>
+        <v>9.712309325528824e-07</v>
       </c>
       <c r="D15" t="n">
-        <v>0.1126901708248887</v>
+        <v>0.1126901650886912</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -654,16 +654,16 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>4.291116000000001</v>
+        <v>3.687271360698501</v>
       </c>
       <c r="B16" t="n">
-        <v>45990738410900.34</v>
+        <v>5.253121026628386e-05</v>
       </c>
       <c r="C16" t="n">
-        <v>1149837587182.299</v>
+        <v>1.313359214801878e-06</v>
       </c>
       <c r="D16" t="n">
-        <v>0.08187146433803183</v>
+        <v>0.08187146434929413</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -673,16 +673,16 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>4.293189</v>
+        <v>3.689071032956547</v>
       </c>
       <c r="B17" t="n">
-        <v>43399166553208.2</v>
+        <v>4.957108371890544e-05</v>
       </c>
       <c r="C17" t="n">
-        <v>1096887715874.037</v>
+        <v>1.252879194038493e-06</v>
       </c>
       <c r="D17" t="n">
-        <v>0.05987005534383341</v>
+        <v>0.05987005440565888</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -692,16 +692,16 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>4.294196</v>
+        <v>3.689928019746092</v>
       </c>
       <c r="B18" t="n">
-        <v>44016603835201.71</v>
+        <v>5.027632850608362e-05</v>
       </c>
       <c r="C18" t="n">
-        <v>1146617295114.933</v>
+        <v>1.309680956108659e-06</v>
       </c>
       <c r="D18" t="n">
-        <v>0.02596808603212999</v>
+        <v>0.02596808477925766</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -711,16 +711,16 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>4.295147</v>
+        <v>3.690699307856684</v>
       </c>
       <c r="B19" t="n">
-        <v>43650346301356.97</v>
+        <v>4.98579844617926e-05</v>
       </c>
       <c r="C19" t="n">
-        <v>1157102585533.487</v>
+        <v>1.321657388487153e-06</v>
       </c>
       <c r="D19" t="n">
-        <v>0.06074981982436022</v>
+        <v>0.06074981759448679</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -730,16 +730,16 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>4.296155000000001</v>
+        <v>3.691641993325183</v>
       </c>
       <c r="B20" t="n">
-        <v>43953372091471.19</v>
+        <v>5.020410439878777e-05</v>
       </c>
       <c r="C20" t="n">
-        <v>1202402508469.496</v>
+        <v>1.373399540458392e-06</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0446817548798877</v>
+        <v>0.04468175348249061</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -749,16 +749,16 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>4.297219999999999</v>
+        <v>3.692498980114729</v>
       </c>
       <c r="B21" t="n">
-        <v>47664665835574.34</v>
+        <v>5.44431916291678e-05</v>
       </c>
       <c r="C21" t="n">
-        <v>1352328062816.611</v>
+        <v>1.544646428130132e-06</v>
       </c>
       <c r="D21" t="n">
-        <v>0.1455487359910279</v>
+        <v>0.1455487346580308</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -768,16 +768,16 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>4.298083999999999</v>
+        <v>3.693270268225319</v>
       </c>
       <c r="B22" t="n">
-        <v>64880414477411.14</v>
+        <v>7.410724015313657e-05</v>
       </c>
       <c r="C22" t="n">
-        <v>2196692339016.195</v>
+        <v>2.509090116165247e-06</v>
       </c>
       <c r="D22" t="n">
-        <v>0.2707577537499413</v>
+        <v>0.2707577495343503</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -787,16 +787,16 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>4.299093</v>
+        <v>3.694127255014865</v>
       </c>
       <c r="B23" t="n">
-        <v>79425655008073.33</v>
+        <v>9.072100005241123e-05</v>
       </c>
       <c r="C23" t="n">
-        <v>2869361501441.252</v>
+        <v>3.27742144954006e-06</v>
       </c>
       <c r="D23" t="n">
-        <v>0.5128419549987994</v>
+        <v>0.5128419582092506</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -806,16 +806,16 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>4.301051999999999</v>
+        <v>3.695841228593956</v>
       </c>
       <c r="B24" t="n">
-        <v>97751461857009.98</v>
+        <v>0.0001116529714359026</v>
       </c>
       <c r="C24" t="n">
-        <v>3682868857642.334</v>
+        <v>4.20661995610511e-06</v>
       </c>
       <c r="D24" t="n">
-        <v>0.2478092136954488</v>
+        <v>0.2478092202813828</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -825,16 +825,16 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>4.303098</v>
+        <v>3.697555202173048</v>
       </c>
       <c r="B25" t="n">
-        <v>103753901501705.4</v>
+        <v>0.0001185090348680956</v>
       </c>
       <c r="C25" t="n">
-        <v>3596591685085.876</v>
+        <v>4.10807307660879e-06</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9509575078380748</v>
+        <v>0.9509575086418054</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -844,16 +844,16 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>4.305231</v>
+        <v>3.699354874431093</v>
       </c>
       <c r="B26" t="n">
-        <v>94896562590158.25</v>
+        <v>0.0001083920689375963</v>
       </c>
       <c r="C26" t="n">
-        <v>3550030885574.061</v>
+        <v>4.054890730576845e-06</v>
       </c>
       <c r="D26" t="n">
-        <v>0.2763090748426273</v>
+        <v>0.2763090799018289</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -863,16 +863,16 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>4.30725</v>
+        <v>3.701068848010184</v>
       </c>
       <c r="B27" t="n">
-        <v>89120385087623.81</v>
+        <v>0.0001017944448485512</v>
       </c>
       <c r="C27" t="n">
-        <v>3453253147039.514</v>
+        <v>3.944349957990391e-06</v>
       </c>
       <c r="D27" t="n">
-        <v>0.1692029445034632</v>
+        <v>0.1692029435666012</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -882,16 +882,16 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>4.309297</v>
+        <v>3.70286852026823</v>
       </c>
       <c r="B28" t="n">
-        <v>90785489416900.84</v>
+        <v>0.0001036963484720066</v>
       </c>
       <c r="C28" t="n">
-        <v>3511832622073.659</v>
+        <v>4.011260185567302e-06</v>
       </c>
       <c r="D28" t="n">
-        <v>0.6852952805240224</v>
+        <v>0.6852952787038942</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -901,16 +901,16 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>4.309961</v>
+        <v>3.703468411020912</v>
       </c>
       <c r="B29" t="n">
-        <v>91915085337109.23</v>
+        <v>0.0001049865874526784</v>
       </c>
       <c r="C29" t="n">
-        <v>3374118892826.108</v>
+        <v>3.853961803306445e-06</v>
       </c>
       <c r="D29" t="n">
-        <v>0.291847217263306</v>
+        <v>0.2918472162988566</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -920,16 +920,16 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>4.311172</v>
+        <v>3.704496795168366</v>
       </c>
       <c r="B30" t="n">
-        <v>88475128631953.34</v>
+        <v>0.0001010574246729614</v>
       </c>
       <c r="C30" t="n">
-        <v>3261090635643.677</v>
+        <v>3.724859478181301e-06</v>
       </c>
       <c r="D30" t="n">
-        <v>0.6681934365759237</v>
+        <v>0.6681934337525948</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -939,16 +939,16 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>4.313105999999999</v>
+        <v>3.706125070068503</v>
       </c>
       <c r="B31" t="n">
-        <v>83904885399193.59</v>
+        <v>9.583723437422295e-05</v>
       </c>
       <c r="C31" t="n">
-        <v>3224449562428.536</v>
+        <v>3.683007574751136e-06</v>
       </c>
       <c r="D31" t="n">
-        <v>0.7055528603366732</v>
+        <v>0.7055528648962955</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -958,16 +958,16 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>4.315126</v>
+        <v>3.707839043647593</v>
       </c>
       <c r="B32" t="n">
-        <v>78389682250745.12</v>
+        <v>8.953769891951617e-05</v>
       </c>
       <c r="C32" t="n">
-        <v>3153792885841.242</v>
+        <v>3.602302612447361e-06</v>
       </c>
       <c r="D32" t="n">
-        <v>0.8852932709223027</v>
+        <v>0.885293272919178</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -977,16 +977,16 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>4.317204</v>
+        <v>3.709638715905639</v>
       </c>
       <c r="B33" t="n">
-        <v>74714289456584.91</v>
+        <v>8.533961816792934e-05</v>
       </c>
       <c r="C33" t="n">
-        <v>2936681814094.513</v>
+        <v>3.354315572364757e-06</v>
       </c>
       <c r="D33" t="n">
-        <v>0.539854660899397</v>
+        <v>0.5398546660422341</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -996,16 +996,16 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>4.319168</v>
+        <v>3.71135268948473</v>
       </c>
       <c r="B34" t="n">
-        <v>69681436702301.15</v>
+        <v>7.959102923424123e-05</v>
       </c>
       <c r="C34" t="n">
-        <v>2994845443063.104</v>
+        <v>3.420750810179524e-06</v>
       </c>
       <c r="D34" t="n">
-        <v>0.4139083404610636</v>
+        <v>0.4139083214081158</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -1015,16 +1015,16 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>4.32116</v>
+        <v>3.713066663063821</v>
       </c>
       <c r="B35" t="n">
-        <v>68258209672294.24</v>
+        <v>7.796540098685737e-05</v>
       </c>
       <c r="C35" t="n">
-        <v>2716774641999.327</v>
+        <v>3.103134779898495e-06</v>
       </c>
       <c r="D35" t="n">
-        <v>0.7968196972465339</v>
+        <v>0.7968196850861453</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -1034,16 +1034,16 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>4.32298</v>
+        <v>3.714609239285003</v>
       </c>
       <c r="B36" t="n">
-        <v>61231806871199.2</v>
+        <v>6.993975397670115e-05</v>
       </c>
       <c r="C36" t="n">
-        <v>2471970215010.792</v>
+        <v>2.823516031379127e-06</v>
       </c>
       <c r="D36" t="n">
-        <v>0.3341945432919025</v>
+        <v>0.3341945353385813</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -1053,16 +1053,16 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>4.325205</v>
+        <v>3.716494610222004</v>
       </c>
       <c r="B37" t="n">
-        <v>52532944398878.36</v>
+        <v>6.000380166294159e-05</v>
       </c>
       <c r="C37" t="n">
-        <v>2054427650298.18</v>
+        <v>2.346593567094264e-06</v>
       </c>
       <c r="D37" t="n">
-        <v>0.09771420204495959</v>
+        <v>0.09771420296844117</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -1072,16 +1072,16 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>4.327112000000001</v>
+        <v>3.718122885122139</v>
       </c>
       <c r="B38" t="n">
-        <v>44586813628827.88</v>
+        <v>5.092762941309818e-05</v>
       </c>
       <c r="C38" t="n">
-        <v>1674680198352.057</v>
+        <v>1.912841166095105e-06</v>
       </c>
       <c r="D38" t="n">
-        <v>0.06586294317777706</v>
+        <v>0.06586294303396435</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -1091,16 +1091,16 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>4.329078</v>
+        <v>3.719836858701231</v>
       </c>
       <c r="B39" t="n">
-        <v>37400269917423.16</v>
+        <v>4.27190671864446e-05</v>
       </c>
       <c r="C39" t="n">
-        <v>1311761149416.767</v>
+        <v>1.498310381255116e-06</v>
       </c>
       <c r="D39" t="n">
-        <v>0.5953144540573457</v>
+        <v>0.5953144536717296</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -1110,16 +1110,16 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>4.330119</v>
+        <v>3.720693845490776</v>
       </c>
       <c r="B40" t="n">
-        <v>42530150668850.78</v>
+        <v>4.85784826572358e-05</v>
       </c>
       <c r="C40" t="n">
-        <v>1645506877317.928</v>
+        <v>1.879519024396914e-06</v>
       </c>
       <c r="D40" t="n">
-        <v>0.6531794197694272</v>
+        <v>0.6531794154983763</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -1129,16 +1129,16 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>4.331189</v>
+        <v>3.721636530959276</v>
       </c>
       <c r="B41" t="n">
-        <v>31680503212700.05</v>
+        <v>3.618587641946012e-05</v>
       </c>
       <c r="C41" t="n">
-        <v>1136125064308.236</v>
+        <v>1.297696596297212e-06</v>
       </c>
       <c r="D41" t="n">
-        <v>0.4649086333345466</v>
+        <v>0.4649086291030278</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -1148,16 +1148,16 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>4.333242</v>
+        <v>3.723350504538367</v>
       </c>
       <c r="B42" t="n">
-        <v>32750291514590.95</v>
+        <v>3.74078023162222e-05</v>
       </c>
       <c r="C42" t="n">
-        <v>1004758312423.957</v>
+        <v>1.14764780879032e-06</v>
       </c>
       <c r="D42" t="n">
-        <v>0.04490967043393174</v>
+        <v>0.04490967203382437</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -1167,16 +1167,16 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>4.335151000000001</v>
+        <v>3.725064478117458</v>
       </c>
       <c r="B43" t="n">
-        <v>31304689055564.59</v>
+        <v>3.575661664910162e-05</v>
       </c>
       <c r="C43" t="n">
-        <v>908040559601.7465</v>
+        <v>1.037175554157505e-06</v>
       </c>
       <c r="D43" t="n">
-        <v>0.1475094854897687</v>
+        <v>0.1475094866782071</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -1186,16 +1186,16 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>4.340042</v>
+        <v>3.729178014707276</v>
       </c>
       <c r="B44" t="n">
-        <v>27823615981808.99</v>
+        <v>3.178049042586882e-05</v>
       </c>
       <c r="C44" t="n">
-        <v>789974772566.7579</v>
+        <v>9.023193006082339e-07</v>
       </c>
       <c r="D44" t="n">
-        <v>0.01510769006051141</v>
+        <v>0.01510769123901244</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -1205,16 +1205,16 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>4.344876999999999</v>
+        <v>3.73337724997605</v>
       </c>
       <c r="B45" t="n">
-        <v>26275599943909.53</v>
+        <v>3.001232669975656e-05</v>
       </c>
       <c r="C45" t="n">
-        <v>751284542359.6008</v>
+        <v>8.581268239665896e-07</v>
       </c>
       <c r="D45" t="n">
-        <v>0.1721746824013108</v>
+        <v>0.1721746839415746</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -1224,16 +1224,16 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>4.349976</v>
+        <v>3.737747882602732</v>
       </c>
       <c r="B46" t="n">
-        <v>25965085384570.65</v>
+        <v>2.965765299718466e-05</v>
       </c>
       <c r="C46" t="n">
-        <v>713608987576.998</v>
+        <v>8.150933225154343e-07</v>
       </c>
       <c r="D46" t="n">
-        <v>0.1575971304754777</v>
+        <v>0.1575971257440999</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -1243,16 +1243,16 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>4.370053</v>
+        <v>3.754973317072596</v>
       </c>
       <c r="B47" t="n">
-        <v>21343331708290.59</v>
+        <v>2.437862676138678e-05</v>
       </c>
       <c r="C47" t="n">
-        <v>626329798950.0082</v>
+        <v>7.154019161658189e-07</v>
       </c>
       <c r="D47" t="n">
-        <v>0.002248433351549117</v>
+        <v>0.00224843355150821</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -1262,16 +1262,16 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>4.390148</v>
+        <v>3.772113052863507</v>
       </c>
       <c r="B48" t="n">
-        <v>22135723898803.7</v>
+        <v>2.528370726576391e-05</v>
       </c>
       <c r="C48" t="n">
-        <v>651403327308.8427</v>
+        <v>7.440412201218811e-07</v>
       </c>
       <c r="D48" t="n">
-        <v>0.02205958126870018</v>
+        <v>0.02205957923693635</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -1281,16 +1281,16 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>4.410025</v>
+        <v>3.789167089975462</v>
       </c>
       <c r="B49" t="n">
-        <v>24072557632542.03</v>
+        <v>2.74959835278975e-05</v>
       </c>
       <c r="C49" t="n">
-        <v>717481925753.469</v>
+        <v>8.195170429571394e-07</v>
       </c>
       <c r="D49" t="n">
-        <v>0.009219436834525379</v>
+        <v>0.009219437382104149</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -1300,16 +1300,16 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>4.420244</v>
+        <v>3.797908355228826</v>
       </c>
       <c r="B50" t="n">
-        <v>24201031616936.32</v>
+        <v>2.764272818320678e-05</v>
       </c>
       <c r="C50" t="n">
-        <v>806266645597.2103</v>
+        <v>9.209280857412723e-07</v>
       </c>
       <c r="D50" t="n">
-        <v>0.08888971196633143</v>
+        <v>0.08888971175463276</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -1319,16 +1319,16 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>4.430182</v>
+        <v>3.806478223124282</v>
       </c>
       <c r="B51" t="n">
-        <v>24460642661313.77</v>
+        <v>2.793925924186295e-05</v>
       </c>
       <c r="C51" t="n">
-        <v>789386664673.9561</v>
+        <v>9.016475562079493e-07</v>
       </c>
       <c r="D51" t="n">
-        <v>0.2470375298858309</v>
+        <v>0.2470375337939135</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -1338,16 +1338,16 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>4.440043</v>
+        <v>3.814876693661827</v>
       </c>
       <c r="B52" t="n">
-        <v>20765235675026.76</v>
+        <v>2.371831807989177e-05</v>
       </c>
       <c r="C52" t="n">
-        <v>1097757221082.781</v>
+        <v>1.253872353640091e-06</v>
       </c>
       <c r="D52" t="n">
-        <v>0.09517576993246206</v>
+        <v>0.09517576629946205</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -1357,16 +1357,16 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>4.449945</v>
+        <v>3.823360862878328</v>
       </c>
       <c r="B53" t="n">
-        <v>21144930984846.16</v>
+        <v>2.415201092280286e-05</v>
       </c>
       <c r="C53" t="n">
-        <v>1224435708698.295</v>
+        <v>1.398566143748921e-06</v>
       </c>
       <c r="D53" t="n">
-        <v>0.002922683075457926</v>
+        <v>0.002922682941036195</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -1376,16 +1376,16 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>4.454988</v>
+        <v>3.82773149550501</v>
       </c>
       <c r="B54" t="n">
-        <v>13293513992177.11</v>
+        <v>1.518402191473265e-05</v>
       </c>
       <c r="C54" t="n">
-        <v>1927748763497.55</v>
+        <v>2.20189932052701e-06</v>
       </c>
       <c r="D54" t="n">
-        <v>0.9298323472541765</v>
+        <v>0.9298323471061805</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -1395,16 +1395,16 @@
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>4.460121</v>
+        <v>3.832102128131692</v>
       </c>
       <c r="B55" t="n">
-        <v>12813897500799.58</v>
+        <v>1.463619777656303e-05</v>
       </c>
       <c r="C55" t="n">
-        <v>2632486609507.203</v>
+        <v>3.006859912806283e-06</v>
       </c>
       <c r="D55" t="n">
-        <v>0.909406640821765</v>
+        <v>0.9094066415656054</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -1414,16 +1414,16 @@
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>4.469957</v>
+        <v>3.840586297348192</v>
       </c>
       <c r="B56" t="n">
-        <v>13188004164549.96</v>
+        <v>1.506350723091026e-05</v>
       </c>
       <c r="C56" t="n">
-        <v>2030573169588.251</v>
+        <v>2.319346673634064e-06</v>
       </c>
       <c r="D56" t="n">
-        <v>0.6182043311729872</v>
+        <v>0.6182043291529135</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -1433,16 +1433,16 @@
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>4.477981</v>
+        <v>3.847442191664556</v>
       </c>
       <c r="B57" t="n">
-        <v>18132921006272.68</v>
+        <v>2.071165454672651e-05</v>
       </c>
       <c r="C57" t="n">
-        <v>2025635286164.452</v>
+        <v>2.31370656107185e-06</v>
       </c>
       <c r="D57" t="n">
-        <v>0.7800242993587835</v>
+        <v>0.7800243022437017</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -1452,16 +1452,16 @@
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>4.486129</v>
+        <v>3.854383784659876</v>
       </c>
       <c r="B58" t="n">
-        <v>25238270521093.57</v>
+        <v>2.882747574461396e-05</v>
       </c>
       <c r="C58" t="n">
-        <v>1549431211082.299</v>
+        <v>1.769780168537662e-06</v>
       </c>
       <c r="D58" t="n">
-        <v>0.4166804650052046</v>
+        <v>0.4166804695151552</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -1471,16 +1471,16 @@
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>4.488189</v>
+        <v>3.856183456917921</v>
       </c>
       <c r="B59" t="n">
-        <v>28722343004801.16</v>
+        <v>3.280702793695272e-05</v>
       </c>
       <c r="C59" t="n">
-        <v>1484028924611.307</v>
+        <v>1.695076839217269e-06</v>
       </c>
       <c r="D59" t="n">
-        <v>0.04944578390351102</v>
+        <v>0.04944578355134666</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -1490,16 +1490,16 @@
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>4.490073000000001</v>
+        <v>3.857811731818057</v>
       </c>
       <c r="B60" t="n">
-        <v>27909070434898.67</v>
+        <v>3.187809760233196e-05</v>
       </c>
       <c r="C60" t="n">
-        <v>1495901138209.026</v>
+        <v>1.708637434456233e-06</v>
       </c>
       <c r="D60" t="n">
-        <v>0.4671517744808594</v>
+        <v>0.4671517652420089</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -1509,16 +1509,16 @@
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>4.492223</v>
+        <v>3.859611404076103</v>
       </c>
       <c r="B61" t="n">
-        <v>30317705705188.01</v>
+        <v>3.46292716489193e-05</v>
       </c>
       <c r="C61" t="n">
-        <v>1175095808235.376</v>
+        <v>1.342209479291025e-06</v>
       </c>
       <c r="D61" t="n">
-        <v>0.03528472145164618</v>
+        <v>0.03528472206270934</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -1528,16 +1528,16 @@
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>4.494992</v>
+        <v>3.86201096708683</v>
       </c>
       <c r="B62" t="n">
-        <v>34137394104801.61</v>
+        <v>3.899216863487676e-05</v>
       </c>
       <c r="C62" t="n">
-        <v>1050238033155.724</v>
+        <v>1.199595329521268e-06</v>
       </c>
       <c r="D62" t="n">
-        <v>0.006397423747663936</v>
+        <v>0.006397423516214584</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -1547,16 +1547,16 @@
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>4.499972000000001</v>
+        <v>3.866295901034558</v>
       </c>
       <c r="B63" t="n">
-        <v>36785184099929.34</v>
+        <v>4.201650827796277e-05</v>
       </c>
       <c r="C63" t="n">
-        <v>1038503821553.5</v>
+        <v>1.18619236194368e-06</v>
       </c>
       <c r="D63" t="n">
-        <v>0.1635495430882473</v>
+        <v>0.163549543883124</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -1566,16 +1566,16 @@
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>4.510205</v>
+        <v>3.875037166287922</v>
       </c>
       <c r="B64" t="n">
-        <v>39880686291522.42</v>
+        <v>4.555223052345129e-05</v>
       </c>
       <c r="C64" t="n">
-        <v>1042117464282.988</v>
+        <v>1.19031990999692e-06</v>
       </c>
       <c r="D64" t="n">
-        <v>0.03086185406691974</v>
+        <v>0.03086185584934518</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -1585,16 +1585,16 @@
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>4.512183</v>
+        <v>3.876751139867013</v>
       </c>
       <c r="B65" t="n">
-        <v>46815905840273.25</v>
+        <v>5.347372706062752e-05</v>
       </c>
       <c r="C65" t="n">
-        <v>1415867452449.821</v>
+        <v>1.617221932236465e-06</v>
       </c>
       <c r="D65" t="n">
-        <v>0.005527186569242002</v>
+        <v>0.005527186450941878</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -1604,16 +1604,16 @@
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>4.515076000000001</v>
+        <v>3.879236401556695</v>
       </c>
       <c r="B66" t="n">
-        <v>47213491023708.02</v>
+        <v>5.392785399208004e-05</v>
       </c>
       <c r="C66" t="n">
-        <v>1995821424284.041</v>
+        <v>2.27965278641955e-06</v>
       </c>
       <c r="D66" t="n">
-        <v>0.3079728922198953</v>
+        <v>0.3079728927292671</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -1623,16 +1623,16 @@
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>4.520067</v>
+        <v>3.883521335504422</v>
       </c>
       <c r="B67" t="n">
-        <v>43091890702894.77</v>
+        <v>4.922010930009435e-05</v>
       </c>
       <c r="C67" t="n">
-        <v>2237031709826.94</v>
+        <v>2.555166262808162e-06</v>
       </c>
       <c r="D67" t="n">
-        <v>0.4076766407144584</v>
+        <v>0.4076766361864472</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -1642,16 +1642,16 @@
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>4.525238</v>
+        <v>3.887891968131104</v>
       </c>
       <c r="B68" t="n">
-        <v>38355334457488.09</v>
+        <v>4.380995414284909e-05</v>
       </c>
       <c r="C68" t="n">
-        <v>2855722223555.88</v>
+        <v>3.261842490737283e-06</v>
       </c>
       <c r="D68" t="n">
-        <v>0.2215924626640925</v>
+        <v>0.2215924646228657</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -1661,16 +1661,16 @@
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>4.529406</v>
+        <v>3.891491312647195</v>
       </c>
       <c r="B69" t="n">
-        <v>43059508247977.38</v>
+        <v>4.918312165210555e-05</v>
       </c>
       <c r="C69" t="n">
-        <v>2500092295317.288</v>
+        <v>2.855637431718153e-06</v>
       </c>
       <c r="D69" t="n">
-        <v>0.5313591974000104</v>
+        <v>0.5313591972718883</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -1680,16 +1680,16 @@
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>4.535056</v>
+        <v>3.896376137347605</v>
       </c>
       <c r="B70" t="n">
-        <v>35582195812409.01</v>
+        <v>4.064243965274718e-05</v>
       </c>
       <c r="C70" t="n">
-        <v>3537671810318.671</v>
+        <v>4.040774039925789e-06</v>
       </c>
       <c r="D70" t="n">
-        <v>0.9556877635984402</v>
+        <v>0.9556877636193425</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -1699,16 +1699,16 @@
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>4.540236</v>
+        <v>3.900746769974288</v>
       </c>
       <c r="B71" t="n">
-        <v>27819627470600.64</v>
+        <v>3.177593472196273e-05</v>
       </c>
       <c r="C71" t="n">
-        <v>4334850488085.862</v>
+        <v>4.951321733732732e-06</v>
       </c>
       <c r="D71" t="n">
-        <v>0.8606664270276837</v>
+        <v>0.8606664262878452</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -1718,16 +1718,16 @@
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>4.549804</v>
+        <v>3.908973843153924</v>
       </c>
       <c r="B72" t="n">
-        <v>36254477585079.62</v>
+        <v>4.141032848613948e-05</v>
       </c>
       <c r="C72" t="n">
-        <v>2354007380051.513</v>
+        <v>2.688777370941651e-06</v>
       </c>
       <c r="D72" t="n">
-        <v>0.5211559809418023</v>
+        <v>0.5211559754720283</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -1737,16 +1737,16 @@
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>4.560183</v>
+        <v>3.917886505765197</v>
       </c>
       <c r="B73" t="n">
-        <v>12343231138161.31</v>
+        <v>1.409859662756308e-05</v>
       </c>
       <c r="C73" t="n">
-        <v>3220794947284.918</v>
+        <v>3.678833228451137e-06</v>
       </c>
       <c r="D73" t="n">
-        <v>0.9932084727005335</v>
+        <v>0.9932084724972622</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -1756,16 +1756,16 @@
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>4.570129</v>
+        <v>3.926370674981698</v>
       </c>
       <c r="B74" t="n">
-        <v>9600974498579.336</v>
+        <v>1.096635600062079e-05</v>
       </c>
       <c r="C74" t="n">
-        <v>3009031185963.858</v>
+        <v>3.436953949360833e-06</v>
       </c>
       <c r="D74" t="n">
-        <v>0.9799216037321513</v>
+        <v>0.9799216032517144</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -1775,16 +1775,16 @@
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>4.580025</v>
+        <v>3.934854844198199</v>
       </c>
       <c r="B75" t="n">
-        <v>12662384292283.13</v>
+        <v>1.446313745654189e-05</v>
       </c>
       <c r="C75" t="n">
-        <v>2533379705821.711</v>
+        <v>2.893658737716127e-06</v>
       </c>
       <c r="D75" t="n">
-        <v>0.9459932484611623</v>
+        <v>0.9459932491518417</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -1794,16 +1794,16 @@
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>4.590082</v>
+        <v>3.943510410772608</v>
       </c>
       <c r="B76" t="n">
-        <v>31852558778474.14</v>
+        <v>3.638240047843436e-05</v>
       </c>
       <c r="C76" t="n">
-        <v>2275024905516.304</v>
+        <v>2.59856257691325e-06</v>
       </c>
       <c r="D76" t="n">
-        <v>0.6758942167371524</v>
+        <v>0.6758942165878485</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -1813,16 +1813,16 @@
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>4.600268</v>
+        <v>3.952251676025972</v>
       </c>
       <c r="B77" t="n">
-        <v>92390131433999.44</v>
+        <v>0.0001055291909995931</v>
       </c>
       <c r="C77" t="n">
-        <v>3847676713192.359</v>
+        <v>4.394865612711465e-06</v>
       </c>
       <c r="D77" t="n">
-        <v>0.3875694287596317</v>
+        <v>0.3875694320585614</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -1832,16 +1832,16 @@
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>4.609989</v>
+        <v>3.960564447884564</v>
       </c>
       <c r="B78" t="n">
-        <v>269139872277540</v>
+        <v>0.0003074150082799202</v>
       </c>
       <c r="C78" t="n">
-        <v>8914519061156.795</v>
+        <v>1.018227780932772e-05</v>
       </c>
       <c r="D78" t="n">
-        <v>0.9915261206358454</v>
+        <v>0.9915261211358508</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -1851,16 +1851,16 @@
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>4.620227</v>
+        <v>3.969305713137928</v>
       </c>
       <c r="B79" t="n">
-        <v>291398884604664</v>
+        <v>0.0003328395369877125</v>
       </c>
       <c r="C79" t="n">
-        <v>10719632886682.46</v>
+        <v>1.22441019425499e-05</v>
       </c>
       <c r="D79" t="n">
-        <v>0.2608810830246954</v>
+        <v>0.26088107628292</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -1870,16 +1870,16 @@
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>4.629939</v>
+        <v>3.977618484996519</v>
       </c>
       <c r="B80" t="n">
-        <v>227547837416513.8</v>
+        <v>0.0002599080535354469</v>
       </c>
       <c r="C80" t="n">
-        <v>7722041369624.391</v>
+        <v>8.82021452928127e-06</v>
       </c>
       <c r="D80" t="n">
-        <v>0.8591598346975906</v>
+        <v>0.8591598382134482</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -1889,16 +1889,16 @@
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>4.635173</v>
+        <v>3.982160514981111</v>
       </c>
       <c r="B81" t="n">
-        <v>119007706859428.9</v>
+        <v>0.0001359321265676764</v>
       </c>
       <c r="C81" t="n">
-        <v>4512897085284.668</v>
+        <v>5.154688838582071e-06</v>
       </c>
       <c r="D81" t="n">
-        <v>0.5545544932342458</v>
+        <v>0.5545544892215535</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -1908,16 +1908,16 @@
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>4.639959999999999</v>
+        <v>3.986274051570929</v>
       </c>
       <c r="B82" t="n">
-        <v>106886109652453</v>
+        <v>0.0001220866831877324</v>
       </c>
       <c r="C82" t="n">
-        <v>3624663480878.352</v>
+        <v>4.140137044224441e-06</v>
       </c>
       <c r="D82" t="n">
-        <v>0.09435335741445562</v>
+        <v>0.09435335364868938</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -1927,16 +1927,16 @@
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>4.649962</v>
+        <v>3.994843919466384</v>
       </c>
       <c r="B83" t="n">
-        <v>125988967449964.2</v>
+        <v>0.000143906211749224</v>
       </c>
       <c r="C83" t="n">
-        <v>3876536075727.723</v>
+        <v>4.427829134217341e-06</v>
       </c>
       <c r="D83" t="n">
-        <v>0.06660724560979087</v>
+        <v>0.06660724136802561</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
@@ -1946,16 +1946,16 @@
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>4.670119000000001</v>
+        <v>4.012069353936249</v>
       </c>
       <c r="B84" t="n">
-        <v>134453954919108.1</v>
+        <v>0.0001535750290626236</v>
       </c>
       <c r="C84" t="n">
-        <v>3584790667986.802</v>
+        <v>4.094593804572978e-06</v>
       </c>
       <c r="D84" t="n">
-        <v>0.8141481952079448</v>
+        <v>0.8141482090137346</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -1965,16 +1965,16 @@
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>4.680153</v>
+        <v>4.020724920510658</v>
       </c>
       <c r="B85" t="n">
-        <v>92917918481192.59</v>
+        <v>0.0001061320362073925</v>
       </c>
       <c r="C85" t="n">
-        <v>2456205228635.405</v>
+        <v>2.805509060932127e-06</v>
       </c>
       <c r="D85" t="n">
-        <v>0.6101102828161361</v>
+        <v>0.6101102762514936</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
@@ -1984,16 +1984,16 @@
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>4.689928</v>
+        <v>4.02903769236925</v>
       </c>
       <c r="B86" t="n">
-        <v>65314682917715.84</v>
+        <v>7.460326717705928e-05</v>
       </c>
       <c r="C86" t="n">
-        <v>1767458281258.596</v>
+        <v>2.018813479043713e-06</v>
       </c>
       <c r="D86" t="n">
-        <v>0.2610450111061989</v>
+        <v>0.2610450128321808</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -2003,16 +2003,16 @@
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>4.71002</v>
+        <v>4.046263126839114</v>
       </c>
       <c r="B87" t="n">
-        <v>55322205459883.05</v>
+        <v>6.318973141465907e-05</v>
       </c>
       <c r="C87" t="n">
-        <v>1407518953613.911</v>
+        <v>1.607686170246328e-06</v>
       </c>
       <c r="D87" t="n">
-        <v>0.1510851131011251</v>
+        <v>0.1510851073700234</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
@@ -2022,16 +2022,16 @@
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>4.730004</v>
+        <v>4.063402862630025</v>
       </c>
       <c r="B88" t="n">
-        <v>60723837708381.62</v>
+        <v>6.935954500329951e-05</v>
       </c>
       <c r="C88" t="n">
-        <v>1593719572965.557</v>
+        <v>1.820366902272281e-06</v>
       </c>
       <c r="D88" t="n">
-        <v>0.1012813202857294</v>
+        <v>0.101281317645583</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
@@ -2041,16 +2041,16 @@
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>4.749999</v>
+        <v>4.080542598420934</v>
       </c>
       <c r="B89" t="n">
-        <v>98127926678940.06</v>
+        <v>0.0001120829744446205</v>
       </c>
       <c r="C89" t="n">
-        <v>2514161206408.455</v>
+        <v>2.871707121414456e-06</v>
       </c>
       <c r="D89" t="n">
-        <v>0.2372106726897283</v>
+        <v>0.2372106753705733</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
@@ -2060,16 +2060,16 @@
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>4.755179</v>
+        <v>4.084998929726572</v>
       </c>
       <c r="B90" t="n">
-        <v>202515176685673.9</v>
+        <v>0.0002313154277874164</v>
       </c>
       <c r="C90" t="n">
-        <v>5145227632635.947</v>
+        <v>5.876944877643168e-06</v>
       </c>
       <c r="D90" t="n">
-        <v>0.5808496847157774</v>
+        <v>0.5808497123213625</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
@@ -2079,16 +2079,16 @@
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>4.758876</v>
+        <v>4.08816978084789</v>
       </c>
       <c r="B91" t="n">
-        <v>206505042885893.8</v>
+        <v>0.0002358727040221707</v>
       </c>
       <c r="C91" t="n">
-        <v>5237686712676.402</v>
+        <v>5.982552825977417e-06</v>
       </c>
       <c r="D91" t="n">
-        <v>0.5719164427614277</v>
+        <v>0.5719164245448892</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
@@ -2098,16 +2098,16 @@
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>4.770038</v>
+        <v>4.097682334211846</v>
       </c>
       <c r="B92" t="n">
-        <v>194486336756546.4</v>
+        <v>0.0002221447839952602</v>
       </c>
       <c r="C92" t="n">
-        <v>5040011524163.825</v>
+        <v>5.756765696507257e-06</v>
       </c>
       <c r="D92" t="n">
-        <v>0.1584133899716844</v>
+        <v>0.1584134063392696</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
@@ -2117,16 +2117,16 @@
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>4.775016</v>
+        <v>4.101967268159573</v>
       </c>
       <c r="B93" t="n">
-        <v>156627681669846.4</v>
+        <v>0.0001789021431545884</v>
       </c>
       <c r="C93" t="n">
-        <v>4337390856671.248</v>
+        <v>4.954223369203144e-06</v>
       </c>
       <c r="D93" t="n">
-        <v>0.2018847155387382</v>
+        <v>0.2018847221418105</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
@@ -2136,16 +2136,16 @@
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>4.780179</v>
+        <v>4.106423599465209</v>
       </c>
       <c r="B94" t="n">
-        <v>110163786219579.7</v>
+        <v>0.0001258304871842469</v>
       </c>
       <c r="C94" t="n">
-        <v>4145254321570.318</v>
+        <v>4.73476255467662e-06</v>
       </c>
       <c r="D94" t="n">
-        <v>0.167947979186581</v>
+        <v>0.1679479844700973</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
@@ -2155,16 +2155,16 @@
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>4.790118</v>
+        <v>4.114907768681709</v>
       </c>
       <c r="B95" t="n">
-        <v>174354422563898</v>
+        <v>0.0001991498540119604</v>
       </c>
       <c r="C95" t="n">
-        <v>5288462702923.837</v>
+        <v>6.040549803137015e-06</v>
       </c>
       <c r="D95" t="n">
-        <v>0.1141131089621018</v>
+        <v>0.1141131009790249</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
@@ -2174,16 +2174,16 @@
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>4.799915</v>
+        <v>4.123306239219255</v>
       </c>
       <c r="B96" t="n">
-        <v>363086166300180.8</v>
+        <v>0.0004147216682794244</v>
       </c>
       <c r="C96" t="n">
-        <v>8878432976537.084</v>
+        <v>1.014105982860041e-05</v>
       </c>
       <c r="D96" t="n">
-        <v>0.6138013911169995</v>
+        <v>0.6138013940068189</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
@@ -2193,16 +2193,16 @@
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>4.810027</v>
+        <v>4.131961805793665</v>
       </c>
       <c r="B97" t="n">
-        <v>318179839832337.1</v>
+        <v>0.0003634290871641658</v>
       </c>
       <c r="C97" t="n">
-        <v>7665644410328.023</v>
+        <v>8.755797193816334e-06</v>
       </c>
       <c r="D97" t="n">
-        <v>0.3280823443178162</v>
+        <v>0.3280823364371093</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
@@ -2212,16 +2212,16 @@
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>4.81216</v>
+        <v>4.133847176730665</v>
       </c>
       <c r="B98" t="n">
-        <v>210109843868751.6</v>
+        <v>0.0002399901539528359</v>
       </c>
       <c r="C98" t="n">
-        <v>5004870565353.496</v>
+        <v>5.716627233746923e-06</v>
       </c>
       <c r="D98" t="n">
-        <v>0.2074509586620095</v>
+        <v>0.2074509654172489</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
@@ -2231,16 +2231,16 @@
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>4.81527</v>
+        <v>4.136503835778257</v>
       </c>
       <c r="B99" t="n">
-        <v>133782685824602.5</v>
+        <v>0.0001528082967493449</v>
       </c>
       <c r="C99" t="n">
-        <v>3193186257757.161</v>
+        <v>3.647298229944277e-06</v>
       </c>
       <c r="D99" t="n">
-        <v>0.07189672449280297</v>
+        <v>0.07189672630164823</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
@@ -2250,16 +2250,16 @@
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>4.820058</v>
+        <v>4.140617372368075</v>
       </c>
       <c r="B100" t="n">
-        <v>65833419523116.34</v>
+        <v>7.519577471931954e-05</v>
       </c>
       <c r="C100" t="n">
-        <v>1630595096623.772</v>
+        <v>1.862486597188414e-06</v>
       </c>
       <c r="D100" t="n">
-        <v>0.05842632023339293</v>
+        <v>0.05842631838678226</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
@@ -2269,16 +2269,16 @@
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>4.829886</v>
+        <v>4.149015842905621</v>
       </c>
       <c r="B101" t="n">
-        <v>47609311865225.62</v>
+        <v>5.437996558735128e-05</v>
       </c>
       <c r="C101" t="n">
-        <v>1149577634111.447</v>
+        <v>1.313062293717529e-06</v>
       </c>
       <c r="D101" t="n">
-        <v>0.6476897279163398</v>
+        <v>0.6476897226491498</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
@@ -2288,16 +2288,16 @@
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>4.85003</v>
+        <v>4.166241277375486</v>
       </c>
       <c r="B102" t="n">
-        <v>50183679931002.13</v>
+        <v>5.732044175378717e-05</v>
       </c>
       <c r="C102" t="n">
-        <v>1202626285192.208</v>
+        <v>1.373655142018551e-06</v>
       </c>
       <c r="D102" t="n">
-        <v>0.06508770931631463</v>
+        <v>0.06508770918598142</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
@@ -2307,16 +2307,16 @@
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>4.866293</v>
+        <v>4.180210162045077</v>
       </c>
       <c r="B103" t="n">
-        <v>54335396176413.87</v>
+        <v>6.20625852228339e-05</v>
       </c>
       <c r="C103" t="n">
-        <v>1319781847723.254</v>
+        <v>1.507471724472597e-06</v>
       </c>
       <c r="D103" t="n">
-        <v>0.04603358550131367</v>
+        <v>0.04603358421464534</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
@@ -2326,16 +2326,16 @@
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
-        <v>4.889892</v>
+        <v>4.200435050278351</v>
       </c>
       <c r="B104" t="n">
-        <v>57858938748166.46</v>
+        <v>6.608722063740619e-05</v>
       </c>
       <c r="C104" t="n">
-        <v>1360511168772.423</v>
+        <v>1.553993278016504e-06</v>
       </c>
       <c r="D104" t="n">
-        <v>0.0577049239319978</v>
+        <v>0.0577049230710239</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
@@ -2345,16 +2345,16 @@
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
-        <v>4.899914</v>
+        <v>4.209004918173807</v>
       </c>
       <c r="B105" t="n">
-        <v>61057716704406.78</v>
+        <v>6.974090580952666e-05</v>
       </c>
       <c r="C105" t="n">
-        <v>1572219481913.32</v>
+        <v>1.795809221782491e-06</v>
       </c>
       <c r="D105" t="n">
-        <v>0.2412435677988668</v>
+        <v>0.241243573220581</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
@@ -2364,16 +2364,16 @@
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
-        <v>4.910130000000001</v>
+        <v>4.21774618342717</v>
       </c>
       <c r="B106" t="n">
-        <v>61449588192247.84</v>
+        <v>7.01885064558694e-05</v>
       </c>
       <c r="C106" t="n">
-        <v>1563187839872.183</v>
+        <v>1.785493164885028e-06</v>
       </c>
       <c r="D106" t="n">
-        <v>0.219321375282432</v>
+        <v>0.2193213720935255</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
@@ -2383,16 +2383,16 @@
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
-        <v>4.919957</v>
+        <v>4.226230352643671</v>
       </c>
       <c r="B107" t="n">
-        <v>61917655717140.34</v>
+        <v>7.072313915325942e-05</v>
       </c>
       <c r="C107" t="n">
-        <v>1687192360505.185</v>
+        <v>1.927132716331288e-06</v>
       </c>
       <c r="D107" t="n">
-        <v>0.317247512942635</v>
+        <v>0.317247514650235</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
@@ -2402,16 +2402,16 @@
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
-        <v>4.926154</v>
+        <v>4.231543670738853</v>
       </c>
       <c r="B108" t="n">
-        <v>64949055897819.77</v>
+        <v>7.418564326925211e-05</v>
       </c>
       <c r="C108" t="n">
-        <v>1593485045194.434</v>
+        <v>1.82009902070515e-06</v>
       </c>
       <c r="D108" t="n">
-        <v>0.2311112589122442</v>
+        <v>0.2311112555152242</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
@@ -2421,16 +2421,16 @@
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
-        <v>4.930194999999999</v>
+        <v>4.234971617897036</v>
       </c>
       <c r="B109" t="n">
-        <v>66162455836313.59</v>
+        <v>7.557160424454405e-05</v>
       </c>
       <c r="C109" t="n">
-        <v>1731854204821.984</v>
+        <v>1.978146048270872e-06</v>
       </c>
       <c r="D109" t="n">
-        <v>0.2232211145417492</v>
+        <v>0.2232211064750261</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
@@ -2440,16 +2440,16 @@
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
-        <v>4.936923</v>
+        <v>4.24071342938699</v>
       </c>
       <c r="B110" t="n">
-        <v>66667072113375.05</v>
+        <v>7.614798335586908e-05</v>
       </c>
       <c r="C110" t="n">
-        <v>1656131647734.897</v>
+        <v>1.891654773289404e-06</v>
       </c>
       <c r="D110" t="n">
-        <v>0.0216499230657057</v>
+        <v>0.02164992357584874</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
@@ -2459,16 +2459,16 @@
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
-        <v>4.946745</v>
+        <v>4.249111899924536</v>
       </c>
       <c r="B111" t="n">
-        <v>67307055867966.52</v>
+        <v>7.687898091953641e-05</v>
       </c>
       <c r="C111" t="n">
-        <v>1697159836610.07</v>
+        <v>1.938517694948631e-06</v>
       </c>
       <c r="D111" t="n">
-        <v>0.1277092397406529</v>
+        <v>0.1277092454179315</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
@@ -2478,16 +2478,16 @@
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
-        <v>4.950269</v>
+        <v>4.2521970523669</v>
       </c>
       <c r="B112" t="n">
-        <v>70022131118172.51</v>
+        <v>7.99801746524017e-05</v>
       </c>
       <c r="C112" t="n">
-        <v>1844781126390.622</v>
+        <v>2.107132623862344e-06</v>
       </c>
       <c r="D112" t="n">
-        <v>0.1350481918198086</v>
+        <v>0.1350481939380189</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
@@ -2497,16 +2497,16 @@
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
-        <v>4.956763</v>
+        <v>4.257767466498946</v>
       </c>
       <c r="B113" t="n">
-        <v>67239009933430.99</v>
+        <v>7.680125808677259e-05</v>
       </c>
       <c r="C113" t="n">
-        <v>1730016765907.478</v>
+        <v>1.976047301479071e-06</v>
       </c>
       <c r="D113" t="n">
-        <v>0.01106302621593182</v>
+        <v>0.01106302600262891</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
@@ -2516,16 +2516,16 @@
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
-        <v>4.961869</v>
+        <v>4.262138099125628</v>
       </c>
       <c r="B114" t="n">
-        <v>70101978391738.73</v>
+        <v>8.007137742112398e-05</v>
       </c>
       <c r="C114" t="n">
-        <v>1775960683354.312</v>
+        <v>2.028525032455187e-06</v>
       </c>
       <c r="D114" t="n">
-        <v>0.393886294232087</v>
+        <v>0.3938863094451204</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
@@ -2535,16 +2535,16 @@
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
-        <v>4.964748</v>
+        <v>4.264537662136355</v>
       </c>
       <c r="B115" t="n">
-        <v>70113011848482.84</v>
+        <v>8.008397995429655e-05</v>
       </c>
       <c r="C115" t="n">
-        <v>1817434957622.541</v>
+        <v>2.075897479548432e-06</v>
       </c>
       <c r="D115" t="n">
-        <v>0.09763031446818639</v>
+        <v>0.09763031238687842</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
@@ -2554,16 +2554,16 @@
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
-        <v>4.967875</v>
+        <v>4.267280019862901</v>
       </c>
       <c r="B116" t="n">
-        <v>71885839423705.08</v>
+        <v>8.21089261733579e-05</v>
       </c>
       <c r="C116" t="n">
-        <v>1869125982702.751</v>
+        <v>2.134939629262983e-06</v>
       </c>
       <c r="D116" t="n">
-        <v>0.1406328057418564</v>
+        <v>0.1406328046678125</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
@@ -2573,16 +2573,16 @@
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
-        <v>4.970043</v>
+        <v>4.269079692120946</v>
       </c>
       <c r="B117" t="n">
-        <v>76344233007719.36</v>
+        <v>8.720136042315918e-05</v>
       </c>
       <c r="C117" t="n">
-        <v>2024917199486.659</v>
+        <v>2.312886352203438e-06</v>
       </c>
       <c r="D117" t="n">
-        <v>0.1352281642892172</v>
+        <v>0.1352281682178952</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
@@ -2592,16 +2592,16 @@
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
-        <v>4.9728</v>
+        <v>4.271479255131674</v>
       </c>
       <c r="B118" t="n">
-        <v>72043633085097.22</v>
+        <v>8.228916027800296e-05</v>
       </c>
       <c r="C118" t="n">
-        <v>1798823495355.813</v>
+        <v>2.05463922950975e-06</v>
       </c>
       <c r="D118" t="n">
-        <v>0.05802915556244292</v>
+        <v>0.05802915600424567</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
@@ -2611,16 +2611,16 @@
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
-        <v>4.974629</v>
+        <v>4.273021831352856</v>
       </c>
       <c r="B119" t="n">
-        <v>73345883966094.16</v>
+        <v>8.377660771846928e-05</v>
       </c>
       <c r="C119" t="n">
-        <v>1902796098003.289</v>
+        <v>2.173398065632232e-06</v>
       </c>
       <c r="D119" t="n">
-        <v>0.3461059616318575</v>
+        <v>0.3461059666552824</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
@@ -2630,16 +2630,16 @@
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
-        <v>4.984706</v>
+        <v>4.281677397927266</v>
       </c>
       <c r="B120" t="n">
-        <v>74139906750650.97</v>
+        <v>8.468355078247249e-05</v>
       </c>
       <c r="C120" t="n">
-        <v>1868564168097.332</v>
+        <v>2.134297917434311e-06</v>
       </c>
       <c r="D120" t="n">
-        <v>0.05461898283240153</v>
+        <v>0.05461898488015323</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
@@ -2649,16 +2649,16 @@
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
-        <v>4.990074</v>
+        <v>4.286305126590811</v>
       </c>
       <c r="B121" t="n">
-        <v>79208680040917.94</v>
+        <v>9.047316852704549e-05</v>
       </c>
       <c r="C121" t="n">
-        <v>2040812105075.927</v>
+        <v>2.331041715872939e-06</v>
       </c>
       <c r="D121" t="n">
-        <v>0.03575046569405625</v>
+        <v>0.035750466910466</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
@@ -2668,16 +2668,16 @@
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
-        <v>4.994669</v>
+        <v>4.29024726582272</v>
       </c>
       <c r="B122" t="n">
-        <v>76353630909009.64</v>
+        <v>8.721209487429061e-05</v>
       </c>
       <c r="C122" t="n">
-        <v>1878384289369.392</v>
+        <v>2.145514584855104e-06</v>
       </c>
       <c r="D122" t="n">
-        <v>0.1239827481052743</v>
+        <v>0.1239827505576054</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
@@ -2687,16 +2687,16 @@
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
-        <v>5.004642</v>
+        <v>4.298731435039221</v>
       </c>
       <c r="B123" t="n">
-        <v>78473938683856.38</v>
+        <v>8.963393756427206e-05</v>
       </c>
       <c r="C123" t="n">
-        <v>1881779400477.989</v>
+        <v>2.149392526655107e-06</v>
       </c>
       <c r="D123" t="n">
-        <v>0.01522631465311364</v>
+        <v>0.01522631353643083</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
@@ -2706,16 +2706,16 @@
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
-        <v>5.00999</v>
+        <v>4.303359163702766</v>
       </c>
       <c r="B124" t="n">
-        <v>85252629735725.91</v>
+        <v>9.737664514887169e-05</v>
       </c>
       <c r="C124" t="n">
-        <v>2128995839881.997</v>
+        <v>2.431766309278849e-06</v>
       </c>
       <c r="D124" t="n">
-        <v>0.2299116198127691</v>
+        <v>0.229911611959793</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
@@ -2725,16 +2725,16 @@
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
-        <v>5.014843</v>
+        <v>4.307472700292585</v>
       </c>
       <c r="B125" t="n">
-        <v>90928616797301.19</v>
+        <v>0.0001038598302544735</v>
       </c>
       <c r="C125" t="n">
-        <v>2208128908762.361</v>
+        <v>2.522153113072709e-06</v>
       </c>
       <c r="D125" t="n">
-        <v>0.1105751251757531</v>
+        <v>0.1105751250206696</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
@@ -2744,16 +2744,16 @@
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
-        <v>5.017737</v>
+        <v>4.309957961982268</v>
       </c>
       <c r="B126" t="n">
-        <v>102941814116664.5</v>
+        <v>0.0001175814580627266</v>
       </c>
       <c r="C126" t="n">
-        <v>2516096630583.18</v>
+        <v>2.873917788094132e-06</v>
       </c>
       <c r="D126" t="n">
-        <v>0.1847151326513273</v>
+        <v>0.1847151271479366</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
@@ -2763,16 +2763,16 @@
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
-        <v>5.017861</v>
+        <v>4.310129359340176</v>
       </c>
       <c r="B127" t="n">
-        <v>102154704251500.5</v>
+        <v>0.0001166824111796317</v>
       </c>
       <c r="C127" t="n">
-        <v>2486568522367.775</v>
+        <v>2.84019040604755e-06</v>
       </c>
       <c r="D127" t="n">
-        <v>0.282503143402948</v>
+        <v>0.2825031516725175</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
@@ -2782,16 +2782,16 @@
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
-        <v>5.019822</v>
+        <v>4.311757634240313</v>
       </c>
       <c r="B128" t="n">
-        <v>126100432316192.5</v>
+        <v>0.0001440335284033769</v>
       </c>
       <c r="C128" t="n">
-        <v>3147233660402.18</v>
+        <v>3.594810580187028e-06</v>
       </c>
       <c r="D128" t="n">
-        <v>0.8712483365552687</v>
+        <v>0.8712483649930175</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
@@ -2801,16 +2801,16 @@
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
-        <v>5.024805000000001</v>
+        <v>4.31604256818804</v>
       </c>
       <c r="B129" t="n">
-        <v>200163018126498.2</v>
+        <v>0.0002286287624292498</v>
       </c>
       <c r="C129" t="n">
-        <v>5062049808896.804</v>
+        <v>5.781938100958142e-06</v>
       </c>
       <c r="D129" t="n">
-        <v>0.4909711508684929</v>
+        <v>0.4909711380561544</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
@@ -2820,16 +2820,16 @@
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
-        <v>5.027826</v>
+        <v>4.318613528556677</v>
       </c>
       <c r="B130" t="n">
-        <v>273344300597728.9</v>
+        <v>0.0003122173600061873</v>
       </c>
       <c r="C130" t="n">
-        <v>6710769796756.943</v>
+        <v>7.66512718550302e-06</v>
       </c>
       <c r="D130" t="n">
-        <v>0.914101541231659</v>
+        <v>0.9141015389682577</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
@@ -2839,16 +2839,16 @@
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
-        <v>5.030101</v>
+        <v>4.320584598172632</v>
       </c>
       <c r="B131" t="n">
-        <v>271773301566630.2</v>
+        <v>0.000310422944790086</v>
       </c>
       <c r="C131" t="n">
-        <v>6875251121330.899</v>
+        <v>7.85299986459225e-06</v>
       </c>
       <c r="D131" t="n">
-        <v>0.3034282616668983</v>
+        <v>0.3034282757988295</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
@@ -2858,16 +2858,16 @@
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
-        <v>5.032781</v>
+        <v>4.322898462504404</v>
       </c>
       <c r="B132" t="n">
-        <v>256771932338093.9</v>
+        <v>0.0002932881889689139</v>
       </c>
       <c r="C132" t="n">
-        <v>6402263529324.548</v>
+        <v>7.312747378355064e-06</v>
       </c>
       <c r="D132" t="n">
-        <v>0.5280415111665957</v>
+        <v>0.5280415208224981</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
@@ -2877,16 +2877,16 @@
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
-        <v>5.035899</v>
+        <v>4.325555121551995</v>
       </c>
       <c r="B133" t="n">
-        <v>250643276361069.5</v>
+        <v>0.0002862879592234184</v>
       </c>
       <c r="C133" t="n">
-        <v>6254411077191.225</v>
+        <v>7.143868417275234e-06</v>
       </c>
       <c r="D133" t="n">
-        <v>0.5503080381958066</v>
+        <v>0.5503080386748069</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
@@ -2896,16 +2896,16 @@
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
-        <v>5.038705999999999</v>
+        <v>4.327954684562723</v>
       </c>
       <c r="B134" t="n">
-        <v>248224640496097.1</v>
+        <v>0.0002835253625906371</v>
       </c>
       <c r="C134" t="n">
-        <v>6242752677260.589</v>
+        <v>7.130552029279033e-06</v>
       </c>
       <c r="D134" t="n">
-        <v>0.827975899924081</v>
+        <v>0.8279758983566553</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
@@ -2915,16 +2915,16 @@
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
-        <v>5.041981</v>
+        <v>4.330782740968223</v>
       </c>
       <c r="B135" t="n">
-        <v>233716325556426.7</v>
+        <v>0.0002669537795698326</v>
       </c>
       <c r="C135" t="n">
-        <v>6071722679047.694</v>
+        <v>6.935199383973108e-06</v>
       </c>
       <c r="D135" t="n">
-        <v>0.9479286482745299</v>
+        <v>0.9479286521365077</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
@@ -2934,16 +2934,16 @@
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
-        <v>5.044789</v>
+        <v>4.33318230397895</v>
       </c>
       <c r="B136" t="n">
-        <v>210541372171224.8</v>
+        <v>0.000240483051049968</v>
       </c>
       <c r="C136" t="n">
-        <v>5422777660557.12</v>
+        <v>6.193966074999816e-06</v>
       </c>
       <c r="D136" t="n">
-        <v>0.9868208939102909</v>
+        <v>0.9868208919690296</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
@@ -2953,16 +2953,16 @@
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
-        <v>5.049971</v>
+        <v>4.337638635284587</v>
       </c>
       <c r="B137" t="n">
-        <v>157342754263527.1</v>
+        <v>0.0001797189086259691</v>
       </c>
       <c r="C137" t="n">
-        <v>4307195716438.867</v>
+        <v>4.919734102515735e-06</v>
       </c>
       <c r="D137" t="n">
-        <v>0.3599861952919523</v>
+        <v>0.3599862083075316</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
@@ -2972,16 +2972,16 @@
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
-        <v>5.054843</v>
+        <v>4.341752171874406</v>
       </c>
       <c r="B138" t="n">
-        <v>113275618185340.5</v>
+        <v>0.0001293848613067862</v>
       </c>
       <c r="C138" t="n">
-        <v>3126218549946.772</v>
+        <v>3.57080686085567e-06</v>
       </c>
       <c r="D138" t="n">
-        <v>0.3659121759940078</v>
+        <v>0.3659121736067225</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
@@ -2991,16 +2991,16 @@
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
-        <v>5.064876</v>
+        <v>4.350407738448815</v>
       </c>
       <c r="B139" t="n">
-        <v>222607917658898.5</v>
+        <v>0.0002542656138601661</v>
       </c>
       <c r="C139" t="n">
-        <v>5303645065514.558</v>
+        <v>6.057891300810975e-06</v>
       </c>
       <c r="D139" t="n">
-        <v>0.8240951643946476</v>
+        <v>0.8240951446848512</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
@@ -3010,16 +3010,16 @@
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
-        <v>5.069912</v>
+        <v>4.354692672396543</v>
       </c>
       <c r="B140" t="n">
-        <v>216638936227737.2</v>
+        <v>0.0002474477667020884</v>
       </c>
       <c r="C140" t="n">
-        <v>5219384008900.141</v>
+        <v>5.961647234885174e-06</v>
       </c>
       <c r="D140" t="n">
-        <v>0.04800946423924911</v>
+        <v>0.04800946324981823</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
@@ -3029,16 +3029,16 @@
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
-        <v>5.074481</v>
+        <v>4.358634811628452</v>
       </c>
       <c r="B141" t="n">
-        <v>222775798213861.1</v>
+        <v>0.0002544573691264853</v>
       </c>
       <c r="C141" t="n">
-        <v>5178117046677.769</v>
+        <v>5.91451158670739e-06</v>
       </c>
       <c r="D141" t="n">
-        <v>0.856606779516332</v>
+        <v>0.8566067973386853</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
@@ -3048,16 +3048,16 @@
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
-        <v>5.084189</v>
+        <v>4.366947583487043</v>
       </c>
       <c r="B142" t="n">
-        <v>200732890933376.5</v>
+        <v>0.0002292796781555733</v>
       </c>
       <c r="C142" t="n">
-        <v>4807461549241.73</v>
+        <v>5.491144133002071e-06</v>
       </c>
       <c r="D142" t="n">
-        <v>0.1363190279430805</v>
+        <v>0.1363190332830554</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
@@ -3067,16 +3067,16 @@
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
-        <v>5.089986</v>
+        <v>4.371918106866407</v>
       </c>
       <c r="B143" t="n">
-        <v>202219058641290</v>
+        <v>0.0002309771980809863</v>
       </c>
       <c r="C143" t="n">
-        <v>4904637516138.921</v>
+        <v>5.602139770481062e-06</v>
       </c>
       <c r="D143" t="n">
-        <v>0.0670546158684017</v>
+        <v>0.06705461295150296</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
@@ -3086,16 +3086,16 @@
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
-        <v>5.093717</v>
+        <v>4.375088957987725</v>
       </c>
       <c r="B144" t="n">
-        <v>359818278792034.2</v>
+        <v>0.0004109890449836846</v>
       </c>
       <c r="C144" t="n">
-        <v>9119667797544.117</v>
+        <v>1.041660133438674e-05</v>
       </c>
       <c r="D144" t="n">
-        <v>0.8243454494221493</v>
+        <v>0.8243454512546275</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
@@ -3105,16 +3105,16 @@
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
-        <v>5.09676</v>
+        <v>4.377745617035317</v>
       </c>
       <c r="B145" t="n">
-        <v>470590714949373.5</v>
+        <v>0.0005375147401555683</v>
       </c>
       <c r="C145" t="n">
-        <v>11457220527457.97</v>
+        <v>1.308658399049362e-05</v>
       </c>
       <c r="D145" t="n">
-        <v>0.454745582364051</v>
+        <v>0.4547455839602899</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
@@ -3124,16 +3124,16 @@
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
-        <v>5.098893</v>
+        <v>4.379545289293363</v>
       </c>
       <c r="B146" t="n">
-        <v>455611369060426.5</v>
+        <v>0.0005204051395067142</v>
       </c>
       <c r="C146" t="n">
-        <v>11495771780690.7</v>
+        <v>1.313061773133015e-05</v>
       </c>
       <c r="D146" t="n">
-        <v>0.2084875319079232</v>
+        <v>0.2084875241125113</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
@@ -3143,16 +3143,16 @@
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
-        <v>5.099991</v>
+        <v>4.380487974761863</v>
       </c>
       <c r="B147" t="n">
-        <v>460814675654826.5</v>
+        <v>0.0005263484230223983</v>
       </c>
       <c r="C147" t="n">
-        <v>11772915087724.55</v>
+        <v>1.344717435392931e-05</v>
       </c>
       <c r="D147" t="n">
-        <v>0.6369483278867751</v>
+        <v>0.6369483248606711</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
@@ -3162,16 +3162,16 @@
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
-        <v>5.100430999999999</v>
+        <v>4.380830769477681</v>
       </c>
       <c r="B148" t="n">
-        <v>450122705549392.9</v>
+        <v>0.0005141359176291859</v>
       </c>
       <c r="C148" t="n">
-        <v>11500504995884.24</v>
+        <v>1.313602405717051e-05</v>
       </c>
       <c r="D148" t="n">
-        <v>0.3744267930558033</v>
+        <v>0.3744267828937071</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
@@ -3181,16 +3181,16 @@
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
-        <v>5.100713</v>
+        <v>4.381087865514544</v>
       </c>
       <c r="B149" t="n">
-        <v>453196208878900.2</v>
+        <v>0.0005176465125329521</v>
       </c>
       <c r="C149" t="n">
-        <v>11521539959163.14</v>
+        <v>1.316005046113863e-05</v>
       </c>
       <c r="D149" t="n">
-        <v>0.449054859057551</v>
+        <v>0.4490548492865228</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
@@ -3200,16 +3200,16 @@
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
-        <v>5.102879</v>
+        <v>4.382973236451544</v>
       </c>
       <c r="B150" t="n">
-        <v>757554779618674.8</v>
+        <v>0.0008652887683119142</v>
       </c>
       <c r="C150" t="n">
-        <v>18098644272134.23</v>
+        <v>2.067250321924399e-05</v>
       </c>
       <c r="D150" t="n">
-        <v>0.5582716184746888</v>
+        <v>0.5582716193843738</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
@@ -3219,16 +3219,16 @@
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
-        <v>5.104856</v>
+        <v>4.384687210030635</v>
       </c>
       <c r="B151" t="n">
-        <v>804720959262412.9</v>
+        <v>0.0009191625837005913</v>
       </c>
       <c r="C151" t="n">
-        <v>18923481053358.21</v>
+        <v>2.161464235799663e-05</v>
       </c>
       <c r="D151" t="n">
-        <v>0.6422842092873703</v>
+        <v>0.6422842274913443</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
@@ -3238,16 +3238,16 @@
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
-        <v>5.106897</v>
+        <v>4.386401183609727</v>
       </c>
       <c r="B152" t="n">
-        <v>755319090289636.5</v>
+        <v>0.0008627351361211296</v>
       </c>
       <c r="C152" t="n">
-        <v>17959546151959.97</v>
+        <v>2.051362357759167e-05</v>
       </c>
       <c r="D152" t="n">
-        <v>0.5169721390526612</v>
+        <v>0.5169721344584255</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
@@ -3257,16 +3257,16 @@
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
-        <v>5.108781</v>
+        <v>4.388029458509863</v>
       </c>
       <c r="B153" t="n">
-        <v>727368050172022.5</v>
+        <v>0.0008308091009129575</v>
       </c>
       <c r="C153" t="n">
-        <v>17242469539921.52</v>
+        <v>1.969456947334699e-05</v>
       </c>
       <c r="D153" t="n">
-        <v>0.4538783178734204</v>
+        <v>0.4538783253677257</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
@@ -3276,16 +3276,16 @@
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
-        <v>5.110037</v>
+        <v>4.389057842657317</v>
       </c>
       <c r="B154" t="n">
-        <v>728490303200735.5</v>
+        <v>0.0008320909510795256</v>
       </c>
       <c r="C154" t="n">
-        <v>17373084795547.77</v>
+        <v>1.984375989458474e-05</v>
       </c>
       <c r="D154" t="n">
-        <v>0.1494310061824584</v>
+        <v>0.1494310029939997</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
@@ -3295,16 +3295,16 @@
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
-        <v>5.11075</v>
+        <v>4.389743432088954</v>
       </c>
       <c r="B155" t="n">
-        <v>688762472399343.2</v>
+        <v>0.0007867133152502938</v>
       </c>
       <c r="C155" t="n">
-        <v>16435091751781.27</v>
+        <v>1.877237223675691e-05</v>
       </c>
       <c r="D155" t="n">
-        <v>0.4080350682631906</v>
+        <v>0.4080350649644943</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
@@ -3314,16 +3314,16 @@
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
-        <v>5.113839</v>
+        <v>4.392314392457591</v>
       </c>
       <c r="B156" t="n">
-        <v>647474988793015.1</v>
+        <v>0.0007395542226564705</v>
       </c>
       <c r="C156" t="n">
-        <v>15369403436193.61</v>
+        <v>1.755512938822839e-05</v>
       </c>
       <c r="D156" t="n">
-        <v>0.1969174254533504</v>
+        <v>0.196917424218406</v>
       </c>
       <c r="E156" t="inlineStr">
         <is>
@@ -3333,16 +3333,16 @@
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
-        <v>5.118804</v>
+        <v>4.396599326405318</v>
       </c>
       <c r="B157" t="n">
-        <v>529667329656039.8</v>
+        <v>0.0006049928057316262</v>
       </c>
       <c r="C157" t="n">
-        <v>12370593515307</v>
+        <v>1.412985030367019e-05</v>
       </c>
       <c r="D157" t="n">
-        <v>0.5671633706949292</v>
+        <v>0.5671633768837803</v>
       </c>
       <c r="E157" t="inlineStr">
         <is>
@@ -3352,16 +3352,16 @@
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
-        <v>5.123773</v>
+        <v>4.400884260353045</v>
       </c>
       <c r="B158" t="n">
-        <v>375816518004095.8</v>
+        <v>0.0004292624386658923</v>
       </c>
       <c r="C158" t="n">
-        <v>9144579282546.391</v>
+        <v>1.044505555156056e-05</v>
       </c>
       <c r="D158" t="n">
-        <v>0.5464884698369796</v>
+        <v>0.546488475700655</v>
       </c>
       <c r="E158" t="inlineStr">
         <is>
@@ -3371,16 +3371,16 @@
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
-        <v>5.128523</v>
+        <v>4.404912098263909</v>
       </c>
       <c r="B159" t="n">
-        <v>213424955801299.5</v>
+        <v>0.0002437767172252931</v>
       </c>
       <c r="C159" t="n">
-        <v>5284281103360.329</v>
+        <v>6.035773541686369e-06</v>
       </c>
       <c r="D159" t="n">
-        <v>0.4594476566440858</v>
+        <v>0.4594476607115416</v>
       </c>
       <c r="E159" t="inlineStr">
         <is>
@@ -3390,16 +3390,16 @@
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
-        <v>5.129939</v>
+        <v>4.406111879769273</v>
       </c>
       <c r="B160" t="n">
-        <v>225215657986423.8</v>
+        <v>0.0002572442083367581</v>
       </c>
       <c r="C160" t="n">
-        <v>5824618224787.502</v>
+        <v>6.652953510346989e-06</v>
       </c>
       <c r="D160" t="n">
-        <v>0.1134191548167992</v>
+        <v>0.1134191475780368</v>
       </c>
       <c r="E160" t="inlineStr">
         <is>
@@ -3409,16 +3409,16 @@
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
-        <v>5.133811</v>
+        <v>4.4094541282485</v>
       </c>
       <c r="B161" t="n">
-        <v>122751461661382.2</v>
+        <v>0.0001402082913643601</v>
       </c>
       <c r="C161" t="n">
-        <v>3354006548761.985</v>
+        <v>3.830989229129094e-06</v>
       </c>
       <c r="D161" t="n">
-        <v>0.8557536835195672</v>
+        <v>0.8557536657909224</v>
       </c>
       <c r="E161" t="inlineStr">
         <is>
@@ -3428,16 +3428,16 @@
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
-        <v>5.138881</v>
+        <v>4.413824760875183</v>
       </c>
       <c r="B162" t="n">
-        <v>110225719597731.1</v>
+        <v>0.0001259012282784311</v>
       </c>
       <c r="C162" t="n">
-        <v>3177524906439.651</v>
+        <v>3.629409633252933e-06</v>
       </c>
       <c r="D162" t="n">
-        <v>0.3623222305306277</v>
+        <v>0.3623222241325574</v>
       </c>
       <c r="E162" t="inlineStr">
         <is>
@@ -3447,16 +3447,16 @@
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
-        <v>5.141653</v>
+        <v>4.41622432388591</v>
       </c>
       <c r="B163" t="n">
-        <v>115670999176509.8</v>
+        <v>0.0001321208963886041</v>
       </c>
       <c r="C163" t="n">
-        <v>3235110215242.679</v>
+        <v>3.695184306183956e-06</v>
       </c>
       <c r="D163" t="n">
-        <v>0.724318076464726</v>
+        <v>0.7243180728131574</v>
       </c>
       <c r="E163" t="inlineStr">
         <is>
@@ -3466,16 +3466,16 @@
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
-        <v>5.144741000000001</v>
+        <v>4.418795284254546</v>
       </c>
       <c r="B164" t="n">
-        <v>114816483905678</v>
+        <v>0.0001311448581505286</v>
       </c>
       <c r="C164" t="n">
-        <v>3216550449284.174</v>
+        <v>3.673985109593758e-06</v>
       </c>
       <c r="D164" t="n">
-        <v>0.1700462462720921</v>
+        <v>0.170046239369838</v>
       </c>
       <c r="E164" t="inlineStr">
         <is>
@@ -3485,16 +3485,16 @@
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
-        <v>5.147988</v>
+        <v>4.421623340660047</v>
       </c>
       <c r="B165" t="n">
-        <v>118566106269100.2</v>
+        <v>0.0001354277245494635</v>
       </c>
       <c r="C165" t="n">
-        <v>3382903069580.764</v>
+        <v>3.863995202083171e-06</v>
       </c>
       <c r="D165" t="n">
-        <v>0.58011940516506</v>
+        <v>0.5801194090919577</v>
       </c>
       <c r="E165" t="inlineStr">
         <is>
@@ -3504,16 +3504,16 @@
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
-        <v>5.150005999999999</v>
+        <v>4.423337314239138</v>
       </c>
       <c r="B166" t="n">
-        <v>123278996141743.7</v>
+        <v>0.000140810847792884</v>
       </c>
       <c r="C166" t="n">
-        <v>3638578841628.554</v>
+        <v>4.156031337048521e-06</v>
       </c>
       <c r="D166" t="n">
-        <v>0.8487088428877568</v>
+        <v>0.8487088253604682</v>
       </c>
       <c r="E166" t="inlineStr">
         <is>
@@ -3523,16 +3523,16 @@
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
-        <v>5.150983</v>
+        <v>4.424194301028683</v>
       </c>
       <c r="B167" t="n">
-        <v>124237385468648.4</v>
+        <v>0.0001419055325131608</v>
       </c>
       <c r="C167" t="n">
-        <v>3352329334673.755</v>
+        <v>3.82907348875365e-06</v>
       </c>
       <c r="D167" t="n">
-        <v>0.783529949668705</v>
+        <v>0.7835299421706055</v>
       </c>
       <c r="E167" t="inlineStr">
         <is>
@@ -3542,16 +3542,16 @@
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
-        <v>5.15704</v>
+        <v>4.429336221765956</v>
       </c>
       <c r="B168" t="n">
-        <v>131853702346655.2</v>
+        <v>0.0001506049870321878</v>
       </c>
       <c r="C168" t="n">
-        <v>3452023385391.321</v>
+        <v>3.942945309455007e-06</v>
       </c>
       <c r="D168" t="n">
-        <v>0.8082445801539779</v>
+        <v>0.8082445718333698</v>
       </c>
       <c r="E168" t="inlineStr">
         <is>
@@ -3561,16 +3561,16 @@
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
-        <v>5.159375</v>
+        <v>4.431392990060865</v>
       </c>
       <c r="B169" t="n">
-        <v>138856240316468.8</v>
+        <v>0.0001586033755668486</v>
       </c>
       <c r="C169" t="n">
-        <v>3505711997580.104</v>
+        <v>4.004269129846757e-06</v>
       </c>
       <c r="D169" t="n">
-        <v>0.4022694168387682</v>
+        <v>0.4022694211924328</v>
       </c>
       <c r="E169" t="inlineStr">
         <is>
@@ -3580,16 +3580,16 @@
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
-        <v>5.170048</v>
+        <v>4.440477050030048</v>
       </c>
       <c r="B170" t="n">
-        <v>137567381770787.4</v>
+        <v>0.000157131225044153</v>
       </c>
       <c r="C170" t="n">
-        <v>3597614515186.86</v>
+        <v>4.109241359174105e-06</v>
       </c>
       <c r="D170" t="n">
-        <v>0.1028041595025479</v>
+        <v>0.1028041655122342</v>
       </c>
       <c r="E170" t="inlineStr">
         <is>
@@ -3599,16 +3599,16 @@
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
-        <v>5.189844</v>
+        <v>4.457445388463049</v>
       </c>
       <c r="B171" t="n">
-        <v>159329656216570.7</v>
+        <v>0.000181988373410047</v>
       </c>
       <c r="C171" t="n">
-        <v>3862522934038.51</v>
+        <v>4.411823150330201e-06</v>
       </c>
       <c r="D171" t="n">
-        <v>0.07342251325490955</v>
+        <v>0.07342251648586956</v>
       </c>
       <c r="E171" t="inlineStr">
         <is>
@@ -3618,16 +3618,16 @@
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
-        <v>5.210028</v>
+        <v>4.474756521611869</v>
       </c>
       <c r="B172" t="n">
-        <v>206533596339564.5</v>
+        <v>0.0002359053181334132</v>
       </c>
       <c r="C172" t="n">
-        <v>5022347601820.792</v>
+        <v>5.736589736562904e-06</v>
       </c>
       <c r="D172" t="n">
-        <v>0.3394802284240175</v>
+        <v>0.3394802413228645</v>
       </c>
       <c r="E172" t="inlineStr">
         <is>
@@ -3637,16 +3637,16 @@
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
-        <v>5.230028</v>
+        <v>4.491896257402779</v>
       </c>
       <c r="B173" t="n">
-        <v>296552769335186.4</v>
+        <v>0.0003387263703939848</v>
       </c>
       <c r="C173" t="n">
-        <v>7451064842570.248</v>
+        <v>8.510701663795464e-06</v>
       </c>
       <c r="D173" t="n">
-        <v>0.2331424344331294</v>
+        <v>0.2331424453881687</v>
       </c>
       <c r="E173" t="inlineStr">
         <is>
@@ -3656,16 +3656,16 @@
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
-        <v>5.239501000000001</v>
+        <v>4.500037631903461</v>
       </c>
       <c r="B174" t="n">
-        <v>428580452010976.8</v>
+        <v>0.000489530079652768</v>
       </c>
       <c r="C174" t="n">
-        <v>10325274269827.94</v>
+        <v>1.17936604801454e-05</v>
       </c>
       <c r="D174" t="n">
-        <v>0.8515184964785218</v>
+        <v>0.851518483276705</v>
       </c>
       <c r="E174" t="inlineStr">
         <is>
@@ -3675,16 +3675,16 @@
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
-        <v>5.243064</v>
+        <v>4.503122784345824</v>
       </c>
       <c r="B175" t="n">
-        <v>463687818026503.2</v>
+        <v>0.0005296301628213759</v>
       </c>
       <c r="C175" t="n">
-        <v>11612369081050.79</v>
+        <v>1.326379664956468e-05</v>
       </c>
       <c r="D175" t="n">
-        <v>0.3609184914242828</v>
+        <v>0.3609184843968983</v>
       </c>
       <c r="E175" t="inlineStr">
         <is>
@@ -3694,16 +3694,16 @@
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
-        <v>5.250129</v>
+        <v>4.509121691872643</v>
       </c>
       <c r="B176" t="n">
-        <v>645738444157258</v>
+        <v>0.0007375707192471187</v>
       </c>
       <c r="C176" t="n">
-        <v>16311502130021.65</v>
+        <v>1.863120659469711e-05</v>
       </c>
       <c r="D176" t="n">
-        <v>0.4931813762392973</v>
+        <v>0.4931813656358585</v>
       </c>
       <c r="E176" t="inlineStr">
         <is>
@@ -3713,16 +3713,16 @@
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
-        <v>5.25994</v>
+        <v>4.517520162410189</v>
       </c>
       <c r="B177" t="n">
-        <v>845220510215523.5</v>
+        <v>0.0009654216895387854</v>
       </c>
       <c r="C177" t="n">
-        <v>21066904004972.01</v>
+        <v>2.406288749163089e-05</v>
       </c>
       <c r="D177" t="n">
-        <v>0.5760222487803454</v>
+        <v>0.5760222524793126</v>
       </c>
       <c r="E177" t="inlineStr">
         <is>
@@ -3732,16 +3732,16 @@
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
-        <v>5.26504</v>
+        <v>4.521890795036872</v>
       </c>
       <c r="B178" t="n">
-        <v>884512989783574.5</v>
+        <v>0.00101030206237973</v>
       </c>
       <c r="C178" t="n">
-        <v>22600455889173.68</v>
+        <v>2.58145300884427e-05</v>
       </c>
       <c r="D178" t="n">
-        <v>0.3366532085808898</v>
+        <v>0.3366532076704422</v>
       </c>
       <c r="E178" t="inlineStr">
         <is>
@@ -3751,16 +3751,16 @@
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
-        <v>5.269983</v>
+        <v>4.526175728984599</v>
       </c>
       <c r="B179" t="n">
-        <v>944230862920391</v>
+        <v>0.00107851258176764</v>
       </c>
       <c r="C179" t="n">
-        <v>24039350831443.93</v>
+        <v>2.745805432350921e-05</v>
       </c>
       <c r="D179" t="n">
-        <v>0.3766126520348259</v>
+        <v>0.3766126471381885</v>
       </c>
       <c r="E179" t="inlineStr">
         <is>
@@ -3770,16 +3770,16 @@
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
-        <v>5.27496</v>
+        <v>4.530460662932327</v>
       </c>
       <c r="B180" t="n">
-        <v>1075247729233161</v>
+        <v>0.001239254667015087</v>
       </c>
       <c r="C180" t="n">
-        <v>27116661278935.24</v>
+        <v>2.168065459750456e-05</v>
       </c>
       <c r="D180" t="n">
-        <v>0.6028299426037687</v>
+        <v>0.9130027607897095</v>
       </c>
       <c r="E180" t="inlineStr">
         <is>
@@ -3789,16 +3789,16 @@
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
-        <v>5.275024</v>
+        <v>4.534574199522145</v>
       </c>
       <c r="B181" t="n">
-        <v>1093855233542810</v>
+        <v>0.001674368276272529</v>
       </c>
       <c r="C181" t="n">
-        <v>26582113969878.19</v>
+        <v>4.165314566662297e-05</v>
       </c>
       <c r="D181" t="n">
-        <v>0.8514521469056284</v>
+        <v>0.2889681726166507</v>
       </c>
       <c r="E181" t="inlineStr">
         <is>
@@ -3808,16 +3808,16 @@
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
-        <v>5.279812000000001</v>
+        <v>4.539030530827781</v>
       </c>
       <c r="B182" t="n">
-        <v>1465898711520360</v>
+        <v>0.001989520656920035</v>
       </c>
       <c r="C182" t="n">
-        <v>36467062495015.66</v>
+        <v>4.936096424128925e-05</v>
       </c>
       <c r="D182" t="n">
-        <v>0.2889681699175978</v>
+        <v>0.2303699580624935</v>
       </c>
       <c r="E182" t="inlineStr">
         <is>
@@ -3827,16 +3827,16 @@
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
-        <v>5.284953</v>
+        <v>4.543486862133419</v>
       </c>
       <c r="B183" t="n">
-        <v>1741812604132561</v>
+        <v>0.002551724524152538</v>
       </c>
       <c r="C183" t="n">
-        <v>43215208246385.99</v>
+        <v>6.079037983669346e-05</v>
       </c>
       <c r="D183" t="n">
-        <v>0.2303699567249946</v>
+        <v>0.09412436798807236</v>
       </c>
       <c r="E183" t="inlineStr">
         <is>
@@ -3846,16 +3846,16 @@
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
-        <v>5.290161</v>
+        <v>4.545800726465191</v>
       </c>
       <c r="B184" t="n">
-        <v>2234018490626926</v>
+        <v>0.002939094816715013</v>
       </c>
       <c r="C184" t="n">
-        <v>53221588517149.11</v>
+        <v>6.963091684359225e-05</v>
       </c>
       <c r="D184" t="n">
-        <v>0.09412436765436805</v>
+        <v>0.5027108893832466</v>
       </c>
       <c r="E184" t="inlineStr">
         <is>
@@ -3865,16 +3865,16 @@
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
-        <v>5.292942</v>
+        <v>4.549914263055009</v>
       </c>
       <c r="B185" t="n">
-        <v>2573158701417684</v>
+        <v>0.002853840274752063</v>
       </c>
       <c r="C185" t="n">
-        <v>60961422023752.05</v>
+        <v>6.670542348747326e-05</v>
       </c>
       <c r="D185" t="n">
-        <v>0.5027108983126479</v>
+        <v>0.102843817628062</v>
       </c>
       <c r="E185" t="inlineStr">
         <is>
@@ -3884,16 +3884,16 @@
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
-        <v>5.297674</v>
+        <v>4.551628236634101</v>
       </c>
       <c r="B186" t="n">
-        <v>2498518896693724</v>
+        <v>0.002809658588883497</v>
       </c>
       <c r="C186" t="n">
-        <v>58400171324579.99</v>
+        <v>6.580657196388144e-05</v>
       </c>
       <c r="D186" t="n">
-        <v>0.1028438092821903</v>
+        <v>0.8163241747290514</v>
       </c>
       <c r="E186" t="inlineStr">
         <is>
@@ -3903,16 +3903,16 @@
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
-        <v>5.299721</v>
+        <v>4.553942100965873</v>
       </c>
       <c r="B187" t="n">
-        <v>2459838111540222</v>
+        <v>0.002751707466284682</v>
       </c>
       <c r="C187" t="n">
-        <v>57613232628614.41</v>
+        <v>6.448556036818976e-05</v>
       </c>
       <c r="D187" t="n">
-        <v>0.8163241554397435</v>
+        <v>0.05647314655526144</v>
       </c>
       <c r="E187" t="inlineStr">
         <is>
@@ -3922,16 +3922,16 @@
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
-        <v>5.302376000000001</v>
+        <v>4.558912624345237</v>
       </c>
       <c r="B188" t="n">
-        <v>2409102276474947</v>
+        <v>0.002179801067622252</v>
       </c>
       <c r="C188" t="n">
-        <v>56456695395439.92</v>
+        <v>5.041783279341505e-05</v>
       </c>
       <c r="D188" t="n">
-        <v>0.056473150225506</v>
+        <v>0.07620078971645852</v>
       </c>
       <c r="E188" t="inlineStr">
         <is>
@@ -3941,16 +3941,16 @@
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
-        <v>5.308233</v>
+        <v>4.562940462256101</v>
       </c>
       <c r="B189" t="n">
-        <v>1908401883324239</v>
+        <v>0.001625156705784719</v>
       </c>
       <c r="C189" t="n">
-        <v>44140489964602.42</v>
+        <v>3.787086703954652e-05</v>
       </c>
       <c r="D189" t="n">
-        <v>0.07620078902727212</v>
+        <v>0.07750022178316694</v>
       </c>
       <c r="E189" t="inlineStr">
         <is>
@@ -3960,16 +3960,16 @@
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
-        <v>5.312876</v>
+        <v>4.56688260148801</v>
       </c>
       <c r="B190" t="n">
-        <v>1422814295790178</v>
+        <v>0.00114638927242524</v>
       </c>
       <c r="C190" t="n">
-        <v>33155701691644.89</v>
+        <v>2.672978648320969e-05</v>
       </c>
       <c r="D190" t="n">
-        <v>0.07750020734406188</v>
+        <v>0.1706848373604941</v>
       </c>
       <c r="E190" t="inlineStr">
         <is>
@@ -3979,16 +3979,16 @@
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
-        <v>5.317521</v>
+        <v>4.571424631472602</v>
       </c>
       <c r="B191" t="n">
-        <v>1003656471614308</v>
+        <v>0.0007783870873183319</v>
       </c>
       <c r="C191" t="n">
-        <v>23401756995873.08</v>
+        <v>1.817793394077567e-05</v>
       </c>
       <c r="D191" t="n">
-        <v>0.1706848080331571</v>
+        <v>0.1471600257748894</v>
       </c>
       <c r="E191" t="inlineStr">
         <is>
@@ -3998,16 +3998,16 @@
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
-        <v>5.322808999999999</v>
+        <v>4.575623866741375</v>
       </c>
       <c r="B192" t="n">
-        <v>681472913193155.5</v>
+        <v>0.0005427347121975533</v>
       </c>
       <c r="C192" t="n">
-        <v>15914664835887.27</v>
+        <v>1.2934227651113e-05</v>
       </c>
       <c r="D192" t="n">
-        <v>0.1471600266025867</v>
+        <v>0.04842409168838611</v>
       </c>
       <c r="E192" t="inlineStr">
         <is>
@@ -4017,16 +4017,16 @@
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
-        <v>5.327683</v>
+        <v>4.580080198047011</v>
       </c>
       <c r="B193" t="n">
-        <v>475160767152834.4</v>
+        <v>0.0004103987674781566</v>
       </c>
       <c r="C193" t="n">
-        <v>11323833521681.25</v>
+        <v>6.993700654583055e-06</v>
       </c>
       <c r="D193" t="n">
-        <v>0.04842409080588747</v>
+        <v>0.3145026683028072</v>
       </c>
       <c r="E193" t="inlineStr">
         <is>
@@ -4036,16 +4036,16 @@
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
-        <v>5.33288</v>
+        <v>4.58402233727892</v>
       </c>
       <c r="B194" t="n">
-        <v>355092849353661.8</v>
+        <v>0.0003697364686038057</v>
       </c>
       <c r="C194" t="n">
-        <v>8731410303209.432</v>
+        <v>8.544078322445754e-06</v>
       </c>
       <c r="D194" t="n">
-        <v>0.6761282972722735</v>
+        <v>0.07330194936264313</v>
       </c>
       <c r="E194" t="inlineStr">
         <is>
@@ -4055,16 +4055,16 @@
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
-        <v>5.332912</v>
+        <v>4.588478668584557</v>
       </c>
       <c r="B195" t="n">
-        <v>363576070782328.6</v>
+        <v>0.0003375864942135216</v>
       </c>
       <c r="C195" t="n">
-        <v>8590566583948.858</v>
+        <v>7.828691278713388e-06</v>
       </c>
       <c r="D195" t="n">
-        <v>0.08343728642096938</v>
+        <v>0.5458617801958927</v>
       </c>
       <c r="E195" t="inlineStr">
         <is>
@@ -4074,16 +4074,16 @@
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
-        <v>5.337469</v>
+        <v>4.588650065942466</v>
       </c>
       <c r="B196" t="n">
-        <v>323701912137863.8</v>
+        <v>0.0003362389831665302</v>
       </c>
       <c r="C196" t="n">
-        <v>7480285891067.456</v>
+        <v>7.62297758056451e-06</v>
       </c>
       <c r="D196" t="n">
-        <v>0.07330194733112451</v>
+        <v>0.07131119126114246</v>
       </c>
       <c r="E196" t="inlineStr">
         <is>
@@ -4093,16 +4093,16 @@
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
-        <v>5.342735</v>
+        <v>4.592078013100648</v>
       </c>
       <c r="B197" t="n">
-        <v>295554815053003.6</v>
+        <v>0.0002999041358998337</v>
       </c>
       <c r="C197" t="n">
-        <v>6853969111774.129</v>
+        <v>6.818454906740466e-06</v>
       </c>
       <c r="D197" t="n">
-        <v>0.5458617822150813</v>
+        <v>0.9047032741526911</v>
       </c>
       <c r="E197" t="inlineStr">
         <is>
@@ -4112,16 +4112,16 @@
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
-        <v>5.342928</v>
+        <v>4.593277794606012</v>
       </c>
       <c r="B198" t="n">
-        <v>294375077898325.2</v>
+        <v>0.0002944360689054706</v>
       </c>
       <c r="C198" t="n">
-        <v>6673868090147.952</v>
+        <v>6.556295379891172e-06</v>
       </c>
       <c r="D198" t="n">
-        <v>0.07131119399633766</v>
+        <v>0.09717502337309289</v>
       </c>
       <c r="E198" t="inlineStr">
         <is>
@@ -4131,16 +4131,16 @@
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
-        <v>5.346943</v>
+        <v>4.593534890642876</v>
       </c>
       <c r="B199" t="n">
-        <v>262564151598914.8</v>
+        <v>0.0002909504225544872</v>
       </c>
       <c r="C199" t="n">
-        <v>5969513643484.399</v>
+        <v>6.469394243005098e-06</v>
       </c>
       <c r="D199" t="n">
-        <v>0.9047032811749044</v>
+        <v>0.8312320605120969</v>
       </c>
       <c r="E199" t="inlineStr">
         <is>
@@ -4150,16 +4150,16 @@
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
-        <v>5.348261</v>
+        <v>4.596534344406285</v>
       </c>
       <c r="B200" t="n">
-        <v>257776894054290.7</v>
+        <v>0.0003068144083216727</v>
       </c>
       <c r="C200" t="n">
-        <v>5739994654873.787</v>
+        <v>7.400651657131738e-06</v>
       </c>
       <c r="D200" t="n">
-        <v>0.09717502221045926</v>
+        <v>0.4685613042076956</v>
       </c>
       <c r="E200" t="inlineStr">
         <is>
@@ -4169,16 +4169,16 @@
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
-        <v>5.348582</v>
+        <v>4.597819824590603</v>
       </c>
       <c r="B201" t="n">
-        <v>254725233019458.3</v>
+        <v>0.0002867692000445767</v>
       </c>
       <c r="C201" t="n">
-        <v>5663913257618.213</v>
+        <v>6.346998596198177e-06</v>
       </c>
       <c r="D201" t="n">
-        <v>0.8312320485667586</v>
+        <v>0.08290052708229875</v>
       </c>
       <c r="E201" t="inlineStr">
         <is>
@@ -4188,16 +4188,16 @@
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
-        <v>5.352053</v>
+        <v>4.601504867785649</v>
       </c>
       <c r="B202" t="n">
-        <v>268614050796752.2</v>
+        <v>0.0003724910035479419</v>
       </c>
       <c r="C202" t="n">
-        <v>6479223165954.891</v>
+        <v>9.076959258578284e-06</v>
       </c>
       <c r="D202" t="n">
-        <v>0.4685613037442546</v>
+        <v>0.2895691043958039</v>
       </c>
       <c r="E202" t="inlineStr">
         <is>
@@ -4207,16 +4207,16 @@
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
-        <v>5.353596</v>
+        <v>4.603133142685785</v>
       </c>
       <c r="B203" t="n">
-        <v>251064599397392.4</v>
+        <v>0.0003608276458816227</v>
       </c>
       <c r="C203" t="n">
-        <v>5556756650083.198</v>
+        <v>8.808498927134815e-06</v>
       </c>
       <c r="D203" t="n">
-        <v>0.0829005257053885</v>
+        <v>0.5462885604122816</v>
       </c>
       <c r="E203" t="inlineStr">
         <is>
@@ -4226,16 +4226,16 @@
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
-        <v>5.357905000000001</v>
+        <v>4.604932814943831</v>
       </c>
       <c r="B204" t="n">
-        <v>326113489822352.5</v>
+        <v>0.0003573681251934594</v>
       </c>
       <c r="C204" t="n">
-        <v>7946819729885.916</v>
+        <v>8.731137337339506e-06</v>
       </c>
       <c r="D204" t="n">
-        <v>0.2895691058795544</v>
+        <v>0.5146583696283784</v>
       </c>
       <c r="E204" t="inlineStr">
         <is>
@@ -4245,16 +4245,16 @@
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
-        <v>5.359834999999999</v>
+        <v>4.606646788522922</v>
       </c>
       <c r="B205" t="n">
-        <v>315902294776108.1</v>
+        <v>0.0003557360137351089</v>
       </c>
       <c r="C205" t="n">
-        <v>7711784427941.897</v>
+        <v>8.710590625234788e-06</v>
       </c>
       <c r="D205" t="n">
-        <v>0.5462885662716361</v>
+        <v>0.3395871392444004</v>
       </c>
       <c r="E205" t="inlineStr">
         <is>
@@ -4264,16 +4264,16 @@
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
-        <v>5.361894</v>
+        <v>4.608446460780968</v>
       </c>
       <c r="B206" t="n">
-        <v>312873506502758</v>
+        <v>0.0003517233545562289</v>
       </c>
       <c r="C206" t="n">
-        <v>7644054857906.413</v>
+        <v>8.689871450905831e-06</v>
       </c>
       <c r="D206" t="n">
-        <v>0.5146583714495505</v>
+        <v>0.5653180935277243</v>
       </c>
       <c r="E206" t="inlineStr">
         <is>
@@ -4283,16 +4283,16 @@
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
-        <v>5.363857</v>
+        <v>4.610160434360059</v>
       </c>
       <c r="B207" t="n">
-        <v>311444603637709.2</v>
+        <v>0.0003539434859674832</v>
       </c>
       <c r="C207" t="n">
-        <v>7626066354675.086</v>
+        <v>8.236665631308368e-06</v>
       </c>
       <c r="D207" t="n">
-        <v>0.3395871403778348</v>
+        <v>0.531247064658521</v>
       </c>
       <c r="E207" t="inlineStr">
         <is>
@@ -4302,16 +4302,16 @@
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
-        <v>5.366045</v>
+        <v>4.611617311902286</v>
       </c>
       <c r="B208" t="n">
-        <v>307931545876952.8</v>
+        <v>0.0003524804379592516</v>
       </c>
       <c r="C208" t="n">
-        <v>7607926836712.587</v>
+        <v>8.552992703816807e-06</v>
       </c>
       <c r="D208" t="n">
-        <v>0.5653180963350626</v>
+        <v>0.5955746086398523</v>
       </c>
       <c r="E208" t="inlineStr">
         <is>
@@ -4321,16 +4321,16 @@
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
-        <v>5.368041000000001</v>
+        <v>4.615987944528968</v>
       </c>
       <c r="B209" t="n">
-        <v>309875257046328.4</v>
+        <v>0.0003117426225159579</v>
       </c>
       <c r="C209" t="n">
-        <v>7211148045237.149</v>
+        <v>7.094330869748853e-06</v>
       </c>
       <c r="D209" t="n">
-        <v>0.5312470653020949</v>
+        <v>0.4414497693135647</v>
       </c>
       <c r="E209" t="inlineStr">
         <is>
@@ -4340,16 +4340,16 @@
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
-        <v>5.369651</v>
+        <v>4.620529974513559</v>
       </c>
       <c r="B210" t="n">
-        <v>308594367830012.8</v>
+        <v>0.0002633181571860833</v>
       </c>
       <c r="C210" t="n">
-        <v>7488090372621.064</v>
+        <v>5.962766157114592e-06</v>
       </c>
       <c r="D210" t="n">
-        <v>0.5955746041635103</v>
+        <v>0.4028234120762519</v>
       </c>
       <c r="E210" t="inlineStr">
         <is>
@@ -4359,16 +4359,16 @@
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
-        <v>5.374804</v>
+        <v>4.622929537524286</v>
       </c>
       <c r="B211" t="n">
-        <v>272928671000489.4</v>
+        <v>0.0002508010144019103</v>
       </c>
       <c r="C211" t="n">
-        <v>6211041274436.396</v>
+        <v>5.596607994624076e-06</v>
       </c>
       <c r="D211" t="n">
-        <v>0.4414497922520066</v>
+        <v>0.3256962375784307</v>
       </c>
       <c r="E211" t="inlineStr">
         <is>
@@ -4378,16 +4378,16 @@
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
-        <v>5.380088</v>
+        <v>4.623272332240105</v>
       </c>
       <c r="B212" t="n">
-        <v>230533361494989.8</v>
+        <v>0.0002608521569917321</v>
       </c>
       <c r="C212" t="n">
-        <v>5220363609223.763</v>
+        <v>5.796019916742422e-06</v>
       </c>
       <c r="D212" t="n">
-        <v>0.4028234087108547</v>
+        <v>0.1584093696978506</v>
       </c>
       <c r="E212" t="inlineStr">
         <is>
@@ -4397,16 +4397,16 @@
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
-        <v>5.382924</v>
+        <v>4.623786524313832</v>
       </c>
       <c r="B213" t="n">
-        <v>219574683084122.1</v>
+        <v>0.0002503246773637742</v>
       </c>
       <c r="C213" t="n">
-        <v>4899794479300.226</v>
+        <v>5.525297548135172e-06</v>
       </c>
       <c r="D213" t="n">
-        <v>0.3256962418251876</v>
+        <v>0.3357873098552666</v>
       </c>
       <c r="E213" t="inlineStr">
         <is>
@@ -4416,16 +4416,16 @@
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
-        <v>5.383343</v>
+        <v>4.625586196571877</v>
       </c>
       <c r="B214" t="n">
-        <v>228374394097528.5</v>
+        <v>0.000246309374097866</v>
       </c>
       <c r="C214" t="n">
-        <v>5074378338139.877</v>
+        <v>5.424825803141501e-06</v>
       </c>
       <c r="D214" t="n">
-        <v>0.158409370671604</v>
+        <v>0.4046234039739113</v>
       </c>
       <c r="E214" t="inlineStr">
         <is>
@@ -4435,16 +4435,16 @@
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
-        <v>5.383858999999999</v>
+        <v>4.628928445051105</v>
       </c>
       <c r="B215" t="n">
-        <v>219157653021867.8</v>
+        <v>0.0002439751825949623</v>
       </c>
       <c r="C215" t="n">
-        <v>4837362634157.591</v>
+        <v>5.321662244893902e-06</v>
       </c>
       <c r="D215" t="n">
-        <v>0.3357873050891326</v>
+        <v>0.7233619560288779</v>
       </c>
       <c r="E215" t="inlineStr">
         <is>
@@ -4454,16 +4454,16 @@
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
-        <v>5.385955</v>
+        <v>4.631670802777651</v>
       </c>
       <c r="B216" t="n">
-        <v>215642280729371.4</v>
+        <v>0.0002463552488623995</v>
       </c>
       <c r="C216" t="n">
-        <v>4749400273335.204</v>
+        <v>5.3922986048813e-06</v>
       </c>
       <c r="D216" t="n">
-        <v>0.4046234247893263</v>
+        <v>0.03883255671305967</v>
       </c>
       <c r="E216" t="inlineStr">
         <is>
@@ -4473,16 +4473,16 @@
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
-        <v>5.389858</v>
+        <v>4.64049776670997</v>
       </c>
       <c r="B217" t="n">
-        <v>213598711075939.9</v>
+        <v>0.0002605161955197903</v>
       </c>
       <c r="C217" t="n">
-        <v>4659081235072.589</v>
+        <v>5.702558207519123e-06</v>
       </c>
       <c r="D217" t="n">
-        <v>0.7233619535415032</v>
+        <v>0.09548494299483791</v>
       </c>
       <c r="E217" t="inlineStr">
         <is>
@@ -4492,16 +4492,16 @@
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
-        <v>5.393084</v>
+        <v>4.649667525358106</v>
       </c>
       <c r="B218" t="n">
-        <v>215682443617454.4</v>
+        <v>0.0002595881149456854</v>
       </c>
       <c r="C218" t="n">
-        <v>4720922928096.231</v>
+        <v>5.678951863525508e-06</v>
       </c>
       <c r="D218" t="n">
-        <v>0.03883255661352283</v>
+        <v>0.0776252186130283</v>
       </c>
       <c r="E218" t="inlineStr">
         <is>
@@ -4511,16 +4511,16 @@
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
-        <v>5.403415</v>
+        <v>4.658494489290425</v>
       </c>
       <c r="B219" t="n">
-        <v>228080261795863.2</v>
+        <v>0.0002491444951862125</v>
       </c>
       <c r="C219" t="n">
-        <v>4992553211654.409</v>
+        <v>5.453990043082321e-06</v>
       </c>
       <c r="D219" t="n">
-        <v>0.0954849404107541</v>
+        <v>0.05310727440510204</v>
       </c>
       <c r="E219" t="inlineStr">
         <is>
@@ -4530,16 +4530,16 @@
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
-        <v>5.414078</v>
+        <v>4.667921343975426</v>
       </c>
       <c r="B220" t="n">
-        <v>227267733282424.8</v>
+        <v>0.0002612690013382199</v>
       </c>
       <c r="C220" t="n">
-        <v>4971886007484.359</v>
+        <v>5.682645131257697e-06</v>
       </c>
       <c r="D220" t="n">
-        <v>0.07762521747738162</v>
+        <v>0.2852439893899559</v>
       </c>
       <c r="E220" t="inlineStr">
         <is>
@@ -4549,56 +4549,18 @@
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
-        <v>5.424364</v>
+        <v>4.671263592454653</v>
       </c>
       <c r="B221" t="n">
-        <v>218124411103608.8</v>
+        <v>0.0002753340689050272</v>
       </c>
       <c r="C221" t="n">
-        <v>4774933373760.942</v>
+        <v>6.035489393801279e-06</v>
       </c>
       <c r="D221" t="n">
-        <v>0.0531072719047126</v>
+        <v>0.07978830804850756</v>
       </c>
       <c r="E221" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" s="1" t="n">
-        <v>5.435405</v>
-      </c>
-      <c r="B222" t="n">
-        <v>228739338668577.5</v>
-      </c>
-      <c r="C222" t="n">
-        <v>4975119449465.432</v>
-      </c>
-      <c r="D222" t="n">
-        <v>0.2852439883281742</v>
-      </c>
-      <c r="E222" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" s="1" t="n">
-        <v>5.439261</v>
-      </c>
-      <c r="B223" t="n">
-        <v>241053215313155.8</v>
-      </c>
-      <c r="C223" t="n">
-        <v>5284032334876.369</v>
-      </c>
-      <c r="D223" t="n">
-        <v>0.0797883089639584</v>
-      </c>
-      <c r="E223" t="inlineStr">
         <is>
           <t>4</t>
         </is>

--- a/legendre_out/DATA/a1/a1Fits.xlsx
+++ b/legendre_out/DATA/a1/a1Fits.xlsx
@@ -391,13 +391,13 @@
         <v>3.434374559103622</v>
       </c>
       <c r="B2" t="n">
-        <v>3.000154242034687e-05</v>
+        <v>3.013596076468496e-05</v>
       </c>
       <c r="C2" t="n">
-        <v>7.285549416914637e-07</v>
+        <v>7.319838598251805e-07</v>
       </c>
       <c r="D2" t="n">
-        <v>0.3206995731106633</v>
+        <v>0.4507412556701852</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -410,13 +410,13 @@
         <v>3.43865949305135</v>
       </c>
       <c r="B3" t="n">
-        <v>2.763146714319384e-05</v>
+        <v>2.73444058798592e-05</v>
       </c>
       <c r="C3" t="n">
-        <v>7.271074985798868e-07</v>
+        <v>7.241026217054068e-07</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1911497465791668</v>
+        <v>0.09158893112134389</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -429,13 +429,13 @@
         <v>3.440287767951486</v>
       </c>
       <c r="B4" t="n">
-        <v>2.577226830385066e-05</v>
+        <v>2.597950719870545e-05</v>
       </c>
       <c r="C4" t="n">
-        <v>6.969490423322151e-07</v>
+        <v>6.991994517872213e-07</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2033566684298083</v>
+        <v>0.4698679529006338</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -448,13 +448,13 @@
         <v>3.443801413788623</v>
       </c>
       <c r="B5" t="n">
-        <v>2.428952509867424e-05</v>
+        <v>2.3793767784357e-05</v>
       </c>
       <c r="C5" t="n">
-        <v>6.820523175158766e-07</v>
+        <v>6.761779426267915e-07</v>
       </c>
       <c r="D5" t="n">
-        <v>0.006938283788120915</v>
+        <v>0.003329146695594702</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -467,13 +467,13 @@
         <v>3.445601086046668</v>
       </c>
       <c r="B6" t="n">
-        <v>2.372002301597441e-05</v>
+        <v>2.37288659355884e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>7.180593818945264e-07</v>
+        <v>7.177632821571541e-07</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1173906376986253</v>
+        <v>0.08860788822669412</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -486,13 +486,13 @@
         <v>3.446372374157259</v>
       </c>
       <c r="B7" t="n">
-        <v>2.312764710066394e-05</v>
+        <v>2.349457740532336e-05</v>
       </c>
       <c r="C7" t="n">
-        <v>7.111465593766218e-07</v>
+        <v>7.16445984493078e-07</v>
       </c>
       <c r="D7" t="n">
-        <v>0.07447615633044775</v>
+        <v>0.2353119041363705</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -505,13 +505,13 @@
         <v>3.450743006783942</v>
       </c>
       <c r="B8" t="n">
-        <v>2.258641991980371e-05</v>
+        <v>2.219550996168652e-05</v>
       </c>
       <c r="C8" t="n">
-        <v>6.401652195156967e-07</v>
+        <v>6.349645290303457e-07</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1301759014344223</v>
+        <v>0.0884567171522339</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -524,13 +524,13 @@
         <v>3.454170953942123</v>
       </c>
       <c r="B9" t="n">
-        <v>1.939084151484123e-05</v>
+        <v>1.941334741245873e-05</v>
       </c>
       <c r="C9" t="n">
-        <v>5.586463879270433e-07</v>
+        <v>5.611781066647514e-07</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1722605636412457</v>
+        <v>0.2719832628728315</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -543,13 +543,13 @@
         <v>3.454856543373759</v>
       </c>
       <c r="B10" t="n">
-        <v>1.652177173379054e-05</v>
+        <v>1.70130104723668e-05</v>
       </c>
       <c r="C10" t="n">
-        <v>5.657218331053732e-07</v>
+        <v>5.718543863573073e-07</v>
       </c>
       <c r="D10" t="n">
-        <v>0.05363200407674028</v>
+        <v>0.2007491533675565</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -562,13 +562,13 @@
         <v>3.459227176000442</v>
       </c>
       <c r="B11" t="n">
-        <v>1.147244456758692e-05</v>
+        <v>1.145537781833911e-05</v>
       </c>
       <c r="C11" t="n">
-        <v>4.501475137096457e-07</v>
+        <v>4.449614243999268e-07</v>
       </c>
       <c r="D11" t="n">
-        <v>0.004140514383950021</v>
+        <v>0.0299270303066923</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -581,13 +581,13 @@
         <v>3.463512109948169</v>
       </c>
       <c r="B12" t="n">
-        <v>6.977790626549638e-06</v>
+        <v>6.584141806881476e-06</v>
       </c>
       <c r="C12" t="n">
-        <v>3.084259809642814e-07</v>
+        <v>3.017256285471103e-07</v>
       </c>
       <c r="D12" t="n">
-        <v>0.002542254348718668</v>
+        <v>0.0127745478208109</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -600,13 +600,13 @@
         <v>3.467882742574851</v>
       </c>
       <c r="B13" t="n">
-        <v>5.307894078801236e-06</v>
+        <v>5.22677609549112e-06</v>
       </c>
       <c r="C13" t="n">
-        <v>2.748294569379141e-07</v>
+        <v>2.704413966645773e-07</v>
       </c>
       <c r="D13" t="n">
-        <v>0.02759948165977852</v>
+        <v>0.003799818055927244</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -619,13 +619,13 @@
         <v>3.669188939439092</v>
       </c>
       <c r="B14" t="n">
-        <v>2.469326465206197e-05</v>
+        <v>2.509366992335066e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>6.695362803015539e-07</v>
+        <v>6.811062780065028e-07</v>
       </c>
       <c r="D14" t="n">
-        <v>0.07751227763811147</v>
+        <v>0.02215825893216282</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -638,13 +638,13 @@
         <v>3.686414373908955</v>
       </c>
       <c r="B15" t="n">
-        <v>3.874241541531473e-05</v>
+        <v>3.837213333776005e-05</v>
       </c>
       <c r="C15" t="n">
-        <v>9.712309325528824e-07</v>
+        <v>9.674711879002637e-07</v>
       </c>
       <c r="D15" t="n">
-        <v>0.1126901650886912</v>
+        <v>0.1347968861729194</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -657,13 +657,13 @@
         <v>3.687271360698501</v>
       </c>
       <c r="B16" t="n">
-        <v>5.253121026628386e-05</v>
+        <v>5.259493742933859e-05</v>
       </c>
       <c r="C16" t="n">
-        <v>1.313359214801878e-06</v>
+        <v>1.316479725580333e-06</v>
       </c>
       <c r="D16" t="n">
-        <v>0.08187146434929413</v>
+        <v>0.06588538130756841</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -676,13 +676,13 @@
         <v>3.689071032956547</v>
       </c>
       <c r="B17" t="n">
-        <v>4.957108371890544e-05</v>
+        <v>4.90735084620642e-05</v>
       </c>
       <c r="C17" t="n">
-        <v>1.252879194038493e-06</v>
+        <v>1.254728180310049e-06</v>
       </c>
       <c r="D17" t="n">
-        <v>0.05987005440565888</v>
+        <v>0.008987521844625198</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -695,13 +695,13 @@
         <v>3.689928019746092</v>
       </c>
       <c r="B18" t="n">
-        <v>5.027632850608362e-05</v>
+        <v>5.06268065992623e-05</v>
       </c>
       <c r="C18" t="n">
-        <v>1.309680956108659e-06</v>
+        <v>1.310078715338753e-06</v>
       </c>
       <c r="D18" t="n">
-        <v>0.02596808477925766</v>
+        <v>0.06767581798160044</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -714,13 +714,13 @@
         <v>3.690699307856684</v>
       </c>
       <c r="B19" t="n">
-        <v>4.98579844617926e-05</v>
+        <v>5.009866678585708e-05</v>
       </c>
       <c r="C19" t="n">
-        <v>1.321657388487153e-06</v>
+        <v>1.323923439861345e-06</v>
       </c>
       <c r="D19" t="n">
-        <v>0.06074981759448679</v>
+        <v>0.03380695362898238</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -733,13 +733,13 @@
         <v>3.691641993325183</v>
       </c>
       <c r="B20" t="n">
-        <v>5.020410439878777e-05</v>
+        <v>5.037189875441223e-05</v>
       </c>
       <c r="C20" t="n">
-        <v>1.373399540458392e-06</v>
+        <v>1.367906566966415e-06</v>
       </c>
       <c r="D20" t="n">
-        <v>0.04468175348249061</v>
+        <v>0.1097948277969637</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -752,13 +752,13 @@
         <v>3.692498980114729</v>
       </c>
       <c r="B21" t="n">
-        <v>5.44431916291678e-05</v>
+        <v>5.432585144255742e-05</v>
       </c>
       <c r="C21" t="n">
-        <v>1.544646428130132e-06</v>
+        <v>1.538200313079434e-06</v>
       </c>
       <c r="D21" t="n">
-        <v>0.1455487346580308</v>
+        <v>0.07192683691060396</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -771,13 +771,13 @@
         <v>3.693270268225319</v>
       </c>
       <c r="B22" t="n">
-        <v>7.410724015313657e-05</v>
+        <v>7.400798245128042e-05</v>
       </c>
       <c r="C22" t="n">
-        <v>2.509090116165247e-06</v>
+        <v>2.549786374127327e-06</v>
       </c>
       <c r="D22" t="n">
-        <v>0.2707577495343503</v>
+        <v>0.1743384819868222</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -790,13 +790,13 @@
         <v>3.694127255014865</v>
       </c>
       <c r="B23" t="n">
-        <v>9.072100005241123e-05</v>
+        <v>9.002170020518823e-05</v>
       </c>
       <c r="C23" t="n">
-        <v>3.27742144954006e-06</v>
+        <v>3.286660534363732e-06</v>
       </c>
       <c r="D23" t="n">
-        <v>0.5128419582092506</v>
+        <v>0.5717184305096701</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -809,13 +809,13 @@
         <v>3.695841228593956</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0001116529714359026</v>
+        <v>0.0001124568517637912</v>
       </c>
       <c r="C24" t="n">
-        <v>4.20661995610511e-06</v>
+        <v>4.239601045437721e-06</v>
       </c>
       <c r="D24" t="n">
-        <v>0.2478092202813828</v>
+        <v>0.2400053318049307</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -828,13 +828,13 @@
         <v>3.697555202173048</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0001185090348680956</v>
+        <v>0.000118485441498581</v>
       </c>
       <c r="C25" t="n">
-        <v>4.10807307660879e-06</v>
+        <v>4.14246291227134e-06</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9509575086418054</v>
+        <v>0.9679968272039076</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -847,13 +847,13 @@
         <v>3.699354874431093</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0001083920689375963</v>
+        <v>0.0001074816500158078</v>
       </c>
       <c r="C26" t="n">
-        <v>4.054890730576845e-06</v>
+        <v>4.00777960937043e-06</v>
       </c>
       <c r="D26" t="n">
-        <v>0.2763090799018289</v>
+        <v>0.2575968646610255</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -866,13 +866,13 @@
         <v>3.701068848010184</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0001017944448485512</v>
+        <v>0.0001057185612135713</v>
       </c>
       <c r="C27" t="n">
-        <v>3.944349957990391e-06</v>
+        <v>4.044329864761343e-06</v>
       </c>
       <c r="D27" t="n">
-        <v>0.1692029435666012</v>
+        <v>0.3796943513062396</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -885,13 +885,13 @@
         <v>3.70286852026823</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0001036963484720066</v>
+        <v>0.0001045508455610446</v>
       </c>
       <c r="C28" t="n">
-        <v>4.011260185567302e-06</v>
+        <v>3.96471295651785e-06</v>
       </c>
       <c r="D28" t="n">
-        <v>0.6852952787038942</v>
+        <v>0.4680355053964599</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -904,13 +904,13 @@
         <v>3.703468411020912</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0001049865874526784</v>
+        <v>0.0001063077447969009</v>
       </c>
       <c r="C29" t="n">
-        <v>3.853961803306445e-06</v>
+        <v>3.900679435304871e-06</v>
       </c>
       <c r="D29" t="n">
-        <v>0.2918472162988566</v>
+        <v>0.2193721463452309</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -923,13 +923,13 @@
         <v>3.704496795168366</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0001010574246729614</v>
+        <v>0.0001006728540447099</v>
       </c>
       <c r="C30" t="n">
-        <v>3.724859478181301e-06</v>
+        <v>3.734512602566003e-06</v>
       </c>
       <c r="D30" t="n">
-        <v>0.6681934337525948</v>
+        <v>0.9098347938508846</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -942,13 +942,13 @@
         <v>3.706125070068503</v>
       </c>
       <c r="B31" t="n">
-        <v>9.583723437422295e-05</v>
+        <v>9.580687472645626e-05</v>
       </c>
       <c r="C31" t="n">
-        <v>3.683007574751136e-06</v>
+        <v>3.706047776594e-06</v>
       </c>
       <c r="D31" t="n">
-        <v>0.7055528648962955</v>
+        <v>0.7154542135987065</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -961,13 +961,13 @@
         <v>3.707839043647593</v>
       </c>
       <c r="B32" t="n">
-        <v>8.953769891951617e-05</v>
+        <v>8.945567150757317e-05</v>
       </c>
       <c r="C32" t="n">
-        <v>3.602302612447361e-06</v>
+        <v>3.66012387774285e-06</v>
       </c>
       <c r="D32" t="n">
-        <v>0.885293272919178</v>
+        <v>0.9367433472881568</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -980,13 +980,13 @@
         <v>3.709638715905639</v>
       </c>
       <c r="B33" t="n">
-        <v>8.533961816792934e-05</v>
+        <v>8.642855696680949e-05</v>
       </c>
       <c r="C33" t="n">
-        <v>3.354315572364757e-06</v>
+        <v>3.396651365069421e-06</v>
       </c>
       <c r="D33" t="n">
-        <v>0.5398546660422341</v>
+        <v>0.7110987495012093</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -999,13 +999,13 @@
         <v>3.71135268948473</v>
       </c>
       <c r="B34" t="n">
-        <v>7.959102923424123e-05</v>
+        <v>7.998496971969311e-05</v>
       </c>
       <c r="C34" t="n">
-        <v>3.420750810179524e-06</v>
+        <v>3.420886997078538e-06</v>
       </c>
       <c r="D34" t="n">
-        <v>0.4139083214081158</v>
+        <v>0.2414291600065439</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -1018,13 +1018,13 @@
         <v>3.713066663063821</v>
       </c>
       <c r="B35" t="n">
-        <v>7.796540098685737e-05</v>
+        <v>7.862316008179122e-05</v>
       </c>
       <c r="C35" t="n">
-        <v>3.103134779898495e-06</v>
+        <v>3.179152667056967e-06</v>
       </c>
       <c r="D35" t="n">
-        <v>0.7968196850861453</v>
+        <v>0.9428487824524737</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -1037,13 +1037,13 @@
         <v>3.714609239285003</v>
       </c>
       <c r="B36" t="n">
-        <v>6.993975397670115e-05</v>
+        <v>6.85006711179735e-05</v>
       </c>
       <c r="C36" t="n">
-        <v>2.823516031379127e-06</v>
+        <v>2.815104315860951e-06</v>
       </c>
       <c r="D36" t="n">
-        <v>0.3341945353385813</v>
+        <v>0.1657503898072986</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -1056,13 +1056,13 @@
         <v>3.716494610222004</v>
       </c>
       <c r="B37" t="n">
-        <v>6.000380166294159e-05</v>
+        <v>6.090785093594187e-05</v>
       </c>
       <c r="C37" t="n">
-        <v>2.346593567094264e-06</v>
+        <v>2.321291098343437e-06</v>
       </c>
       <c r="D37" t="n">
-        <v>0.09771420296844117</v>
+        <v>0.3665698360576687</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -1075,13 +1075,13 @@
         <v>3.718122885122139</v>
       </c>
       <c r="B38" t="n">
-        <v>5.092762941309818e-05</v>
+        <v>5.190626331316718e-05</v>
       </c>
       <c r="C38" t="n">
-        <v>1.912841166095105e-06</v>
+        <v>1.938044408519377e-06</v>
       </c>
       <c r="D38" t="n">
-        <v>0.06586294303396435</v>
+        <v>0.614928553852943</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -1094,13 +1094,13 @@
         <v>3.719836858701231</v>
       </c>
       <c r="B39" t="n">
-        <v>4.27190671864446e-05</v>
+        <v>4.278069200772593e-05</v>
       </c>
       <c r="C39" t="n">
-        <v>1.498310381255116e-06</v>
+        <v>1.524738452079965e-06</v>
       </c>
       <c r="D39" t="n">
-        <v>0.5953144536717296</v>
+        <v>0.44798649219481</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -1113,13 +1113,13 @@
         <v>3.720693845490776</v>
       </c>
       <c r="B40" t="n">
-        <v>4.85784826572358e-05</v>
+        <v>4.922614444037793e-05</v>
       </c>
       <c r="C40" t="n">
-        <v>1.879519024396914e-06</v>
+        <v>1.91503210879908e-06</v>
       </c>
       <c r="D40" t="n">
-        <v>0.6531794154983763</v>
+        <v>0.91920880647268</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -1132,13 +1132,13 @@
         <v>3.721636530959276</v>
       </c>
       <c r="B41" t="n">
-        <v>3.618587641946012e-05</v>
+        <v>3.573212987980849e-05</v>
       </c>
       <c r="C41" t="n">
-        <v>1.297696596297212e-06</v>
+        <v>1.289592384570484e-06</v>
       </c>
       <c r="D41" t="n">
-        <v>0.4649086291030278</v>
+        <v>0.2815484191606877</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -1151,13 +1151,13 @@
         <v>3.723350504538367</v>
       </c>
       <c r="B42" t="n">
-        <v>3.74078023162222e-05</v>
+        <v>3.752645477802149e-05</v>
       </c>
       <c r="C42" t="n">
-        <v>1.14764780879032e-06</v>
+        <v>1.133887319258225e-06</v>
       </c>
       <c r="D42" t="n">
-        <v>0.04490967203382437</v>
+        <v>0.1851890457285122</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -1170,13 +1170,13 @@
         <v>3.725064478117458</v>
       </c>
       <c r="B43" t="n">
-        <v>3.575661664910162e-05</v>
+        <v>3.610326903559249e-05</v>
       </c>
       <c r="C43" t="n">
-        <v>1.037175554157505e-06</v>
+        <v>1.042956650327401e-06</v>
       </c>
       <c r="D43" t="n">
-        <v>0.1475094866782071</v>
+        <v>0.1216226515639054</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -1189,13 +1189,13 @@
         <v>3.729178014707276</v>
       </c>
       <c r="B44" t="n">
-        <v>3.178049042586882e-05</v>
+        <v>3.172248334113728e-05</v>
       </c>
       <c r="C44" t="n">
-        <v>9.023193006082339e-07</v>
+        <v>9.06706424504779e-07</v>
       </c>
       <c r="D44" t="n">
-        <v>0.01510769123901244</v>
+        <v>0.04051228866764667</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -1208,13 +1208,13 @@
         <v>3.73337724997605</v>
       </c>
       <c r="B45" t="n">
-        <v>3.001232669975656e-05</v>
+        <v>3.014808373302171e-05</v>
       </c>
       <c r="C45" t="n">
-        <v>8.581268239665896e-07</v>
+        <v>8.614276323283258e-07</v>
       </c>
       <c r="D45" t="n">
-        <v>0.1721746839415746</v>
+        <v>0.1253642354555829</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -1227,13 +1227,13 @@
         <v>3.737747882602732</v>
       </c>
       <c r="B46" t="n">
-        <v>2.965765299718466e-05</v>
+        <v>2.901938112077972e-05</v>
       </c>
       <c r="C46" t="n">
-        <v>8.150933225154343e-07</v>
+        <v>8.165753631151441e-07</v>
       </c>
       <c r="D46" t="n">
-        <v>0.1575971257440999</v>
+        <v>0.05548737722079766</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -1246,13 +1246,13 @@
         <v>3.754973317072596</v>
       </c>
       <c r="B47" t="n">
-        <v>2.437862676138678e-05</v>
+        <v>2.456630176573691e-05</v>
       </c>
       <c r="C47" t="n">
-        <v>7.154019161658189e-07</v>
+        <v>7.18125463241125e-07</v>
       </c>
       <c r="D47" t="n">
-        <v>0.00224843355150821</v>
+        <v>0.001709490474462731</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -1265,13 +1265,13 @@
         <v>3.772113052863507</v>
       </c>
       <c r="B48" t="n">
-        <v>2.528370726576391e-05</v>
+        <v>2.537468316285049e-05</v>
       </c>
       <c r="C48" t="n">
-        <v>7.440412201218811e-07</v>
+        <v>7.46452433303673e-07</v>
       </c>
       <c r="D48" t="n">
-        <v>0.02205957923693635</v>
+        <v>0.09435766031753696</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -1284,13 +1284,13 @@
         <v>3.789167089975462</v>
       </c>
       <c r="B49" t="n">
-        <v>2.74959835278975e-05</v>
+        <v>2.69043950187635e-05</v>
       </c>
       <c r="C49" t="n">
-        <v>8.195170429571394e-07</v>
+        <v>8.256412946144174e-07</v>
       </c>
       <c r="D49" t="n">
-        <v>0.009219437382104149</v>
+        <v>0.09172004969982769</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -1303,13 +1303,13 @@
         <v>3.797908355228826</v>
       </c>
       <c r="B50" t="n">
-        <v>2.764272818320678e-05</v>
+        <v>2.810890332865178e-05</v>
       </c>
       <c r="C50" t="n">
-        <v>9.209280857412723e-07</v>
+        <v>9.122620113258828e-07</v>
       </c>
       <c r="D50" t="n">
-        <v>0.08888971175463276</v>
+        <v>0.05887523167546919</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -1322,13 +1322,13 @@
         <v>3.806478223124282</v>
       </c>
       <c r="B51" t="n">
-        <v>2.793925924186295e-05</v>
+        <v>2.806261466794675e-05</v>
       </c>
       <c r="C51" t="n">
-        <v>9.016475562079493e-07</v>
+        <v>9.074968490342927e-07</v>
       </c>
       <c r="D51" t="n">
-        <v>0.2470375337939135</v>
+        <v>0.2925626813179114</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -1341,13 +1341,13 @@
         <v>3.814876693661827</v>
       </c>
       <c r="B52" t="n">
-        <v>2.371831807989177e-05</v>
+        <v>2.380234654541697e-05</v>
       </c>
       <c r="C52" t="n">
-        <v>1.253872353640091e-06</v>
+        <v>1.243682331207782e-06</v>
       </c>
       <c r="D52" t="n">
-        <v>0.09517576629946205</v>
+        <v>0.1907945590930952</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -1360,13 +1360,13 @@
         <v>3.823360862878328</v>
       </c>
       <c r="B53" t="n">
-        <v>2.415201092280286e-05</v>
+        <v>2.558140549874469e-05</v>
       </c>
       <c r="C53" t="n">
-        <v>1.398566143748921e-06</v>
+        <v>1.438758665878398e-06</v>
       </c>
       <c r="D53" t="n">
-        <v>0.002922682941036195</v>
+        <v>0.03542819658100548</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -1379,13 +1379,13 @@
         <v>3.82773149550501</v>
       </c>
       <c r="B54" t="n">
-        <v>1.518402191473265e-05</v>
+        <v>1.440853558987319e-05</v>
       </c>
       <c r="C54" t="n">
-        <v>2.20189932052701e-06</v>
+        <v>2.041480857167888e-06</v>
       </c>
       <c r="D54" t="n">
-        <v>0.9298323471061805</v>
+        <v>0.874202610869201</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -1398,13 +1398,13 @@
         <v>3.832102128131692</v>
       </c>
       <c r="B55" t="n">
-        <v>1.463619777656303e-05</v>
+        <v>1.535168466567681e-05</v>
       </c>
       <c r="C55" t="n">
-        <v>3.006859912806283e-06</v>
+        <v>2.726550817171855e-06</v>
       </c>
       <c r="D55" t="n">
-        <v>0.9094066415656054</v>
+        <v>0.9994447234054927</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -1417,13 +1417,13 @@
         <v>3.840586297348192</v>
       </c>
       <c r="B56" t="n">
-        <v>1.506350723091026e-05</v>
+        <v>1.5816030343082e-05</v>
       </c>
       <c r="C56" t="n">
-        <v>2.319346673634064e-06</v>
+        <v>2.455574610639571e-06</v>
       </c>
       <c r="D56" t="n">
-        <v>0.6182043291529135</v>
+        <v>0.4830956805323444</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -1436,13 +1436,13 @@
         <v>3.847442191664556</v>
       </c>
       <c r="B57" t="n">
-        <v>2.071165454672651e-05</v>
+        <v>2.26952205560613e-05</v>
       </c>
       <c r="C57" t="n">
-        <v>2.31370656107185e-06</v>
+        <v>2.576604961632261e-06</v>
       </c>
       <c r="D57" t="n">
-        <v>0.7800243022437017</v>
+        <v>0.9206590568166758</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -1455,13 +1455,13 @@
         <v>3.854383784659876</v>
       </c>
       <c r="B58" t="n">
-        <v>2.882747574461396e-05</v>
+        <v>2.788668569721386e-05</v>
       </c>
       <c r="C58" t="n">
-        <v>1.769780168537662e-06</v>
+        <v>1.758774911724963e-06</v>
       </c>
       <c r="D58" t="n">
-        <v>0.4166804695151552</v>
+        <v>0.1670793723696977</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -1474,13 +1474,13 @@
         <v>3.856183456917921</v>
       </c>
       <c r="B59" t="n">
-        <v>3.280702793695272e-05</v>
+        <v>3.266381546919046e-05</v>
       </c>
       <c r="C59" t="n">
-        <v>1.695076839217269e-06</v>
+        <v>1.664027909926812e-06</v>
       </c>
       <c r="D59" t="n">
-        <v>0.04944578355134666</v>
+        <v>0.03842315922835746</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -1493,13 +1493,13 @@
         <v>3.857811731818057</v>
       </c>
       <c r="B60" t="n">
-        <v>3.187809760233196e-05</v>
+        <v>3.179613499103068e-05</v>
       </c>
       <c r="C60" t="n">
-        <v>1.708637434456233e-06</v>
+        <v>1.752190572581259e-06</v>
       </c>
       <c r="D60" t="n">
-        <v>0.4671517652420089</v>
+        <v>0.07273727274868647</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -1512,13 +1512,13 @@
         <v>3.859611404076103</v>
       </c>
       <c r="B61" t="n">
-        <v>3.46292716489193e-05</v>
+        <v>3.48541004007763e-05</v>
       </c>
       <c r="C61" t="n">
-        <v>1.342209479291025e-06</v>
+        <v>1.334402097320643e-06</v>
       </c>
       <c r="D61" t="n">
-        <v>0.03528472206270934</v>
+        <v>0.04969220570694254</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -1531,13 +1531,13 @@
         <v>3.86201096708683</v>
       </c>
       <c r="B62" t="n">
-        <v>3.899216863487676e-05</v>
+        <v>3.904670264023619e-05</v>
       </c>
       <c r="C62" t="n">
-        <v>1.199595329521268e-06</v>
+        <v>1.198279518353468e-06</v>
       </c>
       <c r="D62" t="n">
-        <v>0.006397423516214584</v>
+        <v>0.01470163244932654</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -1550,13 +1550,13 @@
         <v>3.866295901034558</v>
       </c>
       <c r="B63" t="n">
-        <v>4.201650827796277e-05</v>
+        <v>4.205521880880983e-05</v>
       </c>
       <c r="C63" t="n">
-        <v>1.18619236194368e-06</v>
+        <v>1.189056418833784e-06</v>
       </c>
       <c r="D63" t="n">
-        <v>0.163549543883124</v>
+        <v>0.1096055614894153</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -1569,13 +1569,13 @@
         <v>3.875037166287922</v>
       </c>
       <c r="B64" t="n">
-        <v>4.555223052345129e-05</v>
+        <v>4.568234453109253e-05</v>
       </c>
       <c r="C64" t="n">
-        <v>1.19031990999692e-06</v>
+        <v>1.193697547735999e-06</v>
       </c>
       <c r="D64" t="n">
-        <v>0.03086185584934518</v>
+        <v>0.06565600822266421</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -1588,13 +1588,13 @@
         <v>3.876751139867013</v>
       </c>
       <c r="B65" t="n">
-        <v>5.347372706062752e-05</v>
+        <v>5.371146845261227e-05</v>
       </c>
       <c r="C65" t="n">
-        <v>1.617221932236465e-06</v>
+        <v>1.623858253797215e-06</v>
       </c>
       <c r="D65" t="n">
-        <v>0.005527186450941878</v>
+        <v>0.03631330080113556</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -1607,13 +1607,13 @@
         <v>3.879236401556695</v>
       </c>
       <c r="B66" t="n">
-        <v>5.392785399208004e-05</v>
+        <v>5.337436655692541e-05</v>
       </c>
       <c r="C66" t="n">
-        <v>2.27965278641955e-06</v>
+        <v>2.262731444791173e-06</v>
       </c>
       <c r="D66" t="n">
-        <v>0.3079728927292671</v>
+        <v>0.5054272681101861</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -1626,13 +1626,13 @@
         <v>3.883521335504422</v>
       </c>
       <c r="B67" t="n">
-        <v>4.922010930009435e-05</v>
+        <v>4.764918705751016e-05</v>
       </c>
       <c r="C67" t="n">
-        <v>2.555166262808162e-06</v>
+        <v>2.497363974130219e-06</v>
       </c>
       <c r="D67" t="n">
-        <v>0.4076766361864472</v>
+        <v>0.3663726967110842</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -1645,13 +1645,13 @@
         <v>3.887891968131104</v>
       </c>
       <c r="B68" t="n">
-        <v>4.380995414284909e-05</v>
+        <v>4.632525141475723e-05</v>
       </c>
       <c r="C68" t="n">
-        <v>3.261842490737283e-06</v>
+        <v>3.515744794594303e-06</v>
       </c>
       <c r="D68" t="n">
-        <v>0.2215924646228657</v>
+        <v>0.7397156987707592</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -1664,13 +1664,13 @@
         <v>3.891491312647195</v>
       </c>
       <c r="B69" t="n">
-        <v>4.918312165210555e-05</v>
+        <v>4.987285999719951e-05</v>
       </c>
       <c r="C69" t="n">
-        <v>2.855637431718153e-06</v>
+        <v>3.063726277781622e-06</v>
       </c>
       <c r="D69" t="n">
-        <v>0.5313591972718883</v>
+        <v>0.3799393050797293</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -1683,13 +1683,13 @@
         <v>3.896376137347605</v>
       </c>
       <c r="B70" t="n">
-        <v>4.064243965274718e-05</v>
+        <v>4.143772273533956e-05</v>
       </c>
       <c r="C70" t="n">
-        <v>4.040774039925789e-06</v>
+        <v>4.153856488482394e-06</v>
       </c>
       <c r="D70" t="n">
-        <v>0.9556877636193425</v>
+        <v>0.9515161893957591</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -1702,13 +1702,13 @@
         <v>3.900746769974288</v>
       </c>
       <c r="B71" t="n">
-        <v>3.177593472196273e-05</v>
+        <v>3.182683750894819e-05</v>
       </c>
       <c r="C71" t="n">
-        <v>4.951321733732732e-06</v>
+        <v>5.10366077836132e-06</v>
       </c>
       <c r="D71" t="n">
-        <v>0.8606664262878452</v>
+        <v>0.9751895583602664</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -1721,13 +1721,13 @@
         <v>3.908973843153924</v>
       </c>
       <c r="B72" t="n">
-        <v>4.141032848613948e-05</v>
+        <v>4.097811117335575e-05</v>
       </c>
       <c r="C72" t="n">
-        <v>2.688777370941651e-06</v>
+        <v>2.738179740620164e-06</v>
       </c>
       <c r="D72" t="n">
-        <v>0.5211559754720283</v>
+        <v>0.5224364013598284</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -1740,13 +1740,13 @@
         <v>3.917886505765197</v>
       </c>
       <c r="B73" t="n">
-        <v>1.409859662756308e-05</v>
+        <v>1.329607947260183e-05</v>
       </c>
       <c r="C73" t="n">
-        <v>3.678833228451137e-06</v>
+        <v>3.083271456842721e-06</v>
       </c>
       <c r="D73" t="n">
-        <v>0.9932084724972622</v>
+        <v>0.6812032645154722</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -1759,13 +1759,13 @@
         <v>3.926370674981698</v>
       </c>
       <c r="B74" t="n">
-        <v>1.096635600062079e-05</v>
+        <v>1.272343562884678e-05</v>
       </c>
       <c r="C74" t="n">
-        <v>3.436953949360833e-06</v>
+        <v>3.09254505818955e-06</v>
       </c>
       <c r="D74" t="n">
-        <v>0.9799216032517144</v>
+        <v>0.9010788297630954</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -1778,13 +1778,13 @@
         <v>3.934854844198199</v>
       </c>
       <c r="B75" t="n">
-        <v>1.446313745654189e-05</v>
+        <v>1.443088436190789e-05</v>
       </c>
       <c r="C75" t="n">
-        <v>2.893658737716127e-06</v>
+        <v>3.031285064096941e-06</v>
       </c>
       <c r="D75" t="n">
-        <v>0.9459932491518417</v>
+        <v>0.9264428670887528</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -1797,13 +1797,13 @@
         <v>3.943510410772608</v>
       </c>
       <c r="B76" t="n">
-        <v>3.638240047843436e-05</v>
+        <v>3.667443075499037e-05</v>
       </c>
       <c r="C76" t="n">
-        <v>2.59856257691325e-06</v>
+        <v>2.728316366548129e-06</v>
       </c>
       <c r="D76" t="n">
-        <v>0.6758942165878485</v>
+        <v>0.6942151835299819</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -1816,13 +1816,13 @@
         <v>3.952251676025972</v>
       </c>
       <c r="B77" t="n">
-        <v>0.0001055291909995931</v>
+        <v>0.0001055186714757687</v>
       </c>
       <c r="C77" t="n">
-        <v>4.394865612711465e-06</v>
+        <v>4.381106172644461e-06</v>
       </c>
       <c r="D77" t="n">
-        <v>0.3875694320585614</v>
+        <v>0.6994872453367014</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -1835,13 +1835,13 @@
         <v>3.960564447884564</v>
       </c>
       <c r="B78" t="n">
-        <v>0.0003074150082799202</v>
+        <v>0.0003065991239651622</v>
       </c>
       <c r="C78" t="n">
-        <v>1.018227780932772e-05</v>
+        <v>1.02897650621638e-05</v>
       </c>
       <c r="D78" t="n">
-        <v>0.9915261211358508</v>
+        <v>0.973854388509102</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -1854,13 +1854,13 @@
         <v>3.969305713137928</v>
       </c>
       <c r="B79" t="n">
-        <v>0.0003328395369877125</v>
+        <v>0.0003388314456516444</v>
       </c>
       <c r="C79" t="n">
-        <v>1.22441019425499e-05</v>
+        <v>1.24025614122311e-05</v>
       </c>
       <c r="D79" t="n">
-        <v>0.26088107628292</v>
+        <v>0.5191009527453688</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -1873,13 +1873,13 @@
         <v>3.977618484996519</v>
       </c>
       <c r="B80" t="n">
-        <v>0.0002599080535354469</v>
+        <v>0.0002567900141278503</v>
       </c>
       <c r="C80" t="n">
-        <v>8.82021452928127e-06</v>
+        <v>8.671921019625913e-06</v>
       </c>
       <c r="D80" t="n">
-        <v>0.8591598382134482</v>
+        <v>0.8475275369368458</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -1892,13 +1892,13 @@
         <v>3.982160514981111</v>
       </c>
       <c r="B81" t="n">
-        <v>0.0001359321265676764</v>
+        <v>0.000136776709277761</v>
       </c>
       <c r="C81" t="n">
-        <v>5.154688838582071e-06</v>
+        <v>5.201256311339665e-06</v>
       </c>
       <c r="D81" t="n">
-        <v>0.5545544892215535</v>
+        <v>0.4182503249887271</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -1911,13 +1911,13 @@
         <v>3.986274051570929</v>
       </c>
       <c r="B82" t="n">
-        <v>0.0001220866831877324</v>
+        <v>0.0001224316161438904</v>
       </c>
       <c r="C82" t="n">
-        <v>4.140137044224441e-06</v>
+        <v>4.155675974621074e-06</v>
       </c>
       <c r="D82" t="n">
-        <v>0.09435335364868938</v>
+        <v>0.1265995331912895</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -1930,13 +1930,13 @@
         <v>3.994843919466384</v>
       </c>
       <c r="B83" t="n">
-        <v>0.000143906211749224</v>
+        <v>0.000143826421696326</v>
       </c>
       <c r="C83" t="n">
-        <v>4.427829134217341e-06</v>
+        <v>4.422836504297044e-06</v>
       </c>
       <c r="D83" t="n">
-        <v>0.06660724136802561</v>
+        <v>0.03800089109780361</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
@@ -1949,13 +1949,13 @@
         <v>4.012069353936249</v>
       </c>
       <c r="B84" t="n">
-        <v>0.0001535750290626236</v>
+        <v>0.0001536626037401231</v>
       </c>
       <c r="C84" t="n">
-        <v>4.094593804572978e-06</v>
+        <v>4.08791215353182e-06</v>
       </c>
       <c r="D84" t="n">
-        <v>0.8141482090137346</v>
+        <v>0.7690467428453208</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -1968,13 +1968,13 @@
         <v>4.020724920510658</v>
       </c>
       <c r="B85" t="n">
-        <v>0.0001061320362073925</v>
+        <v>0.0001065872618959993</v>
       </c>
       <c r="C85" t="n">
-        <v>2.805509060932127e-06</v>
+        <v>2.808829954626368e-06</v>
       </c>
       <c r="D85" t="n">
-        <v>0.6101102762514936</v>
+        <v>0.8410319288713102</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
@@ -1987,13 +1987,13 @@
         <v>4.02903769236925</v>
       </c>
       <c r="B86" t="n">
-        <v>7.460326717705928e-05</v>
+        <v>7.426092595719247e-05</v>
       </c>
       <c r="C86" t="n">
-        <v>2.018813479043713e-06</v>
+        <v>2.015144857341899e-06</v>
       </c>
       <c r="D86" t="n">
-        <v>0.2610450128321808</v>
+        <v>0.2145228908692212</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -2006,13 +2006,13 @@
         <v>4.046263126839114</v>
       </c>
       <c r="B87" t="n">
-        <v>6.318973141465907e-05</v>
+        <v>6.264884285602418e-05</v>
       </c>
       <c r="C87" t="n">
-        <v>1.607686170246328e-06</v>
+        <v>1.599364979277097e-06</v>
       </c>
       <c r="D87" t="n">
-        <v>0.1510851073700234</v>
+        <v>0.2023107127806202</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
@@ -2025,13 +2025,13 @@
         <v>4.063402862630025</v>
       </c>
       <c r="B88" t="n">
-        <v>6.935954500329951e-05</v>
+        <v>6.939741172385346e-05</v>
       </c>
       <c r="C88" t="n">
-        <v>1.820366902272281e-06</v>
+        <v>1.818958738337179e-06</v>
       </c>
       <c r="D88" t="n">
-        <v>0.101281317645583</v>
+        <v>0.1927953091314398</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
@@ -2044,13 +2044,13 @@
         <v>4.080542598420934</v>
       </c>
       <c r="B89" t="n">
-        <v>0.0001120829744446205</v>
+        <v>0.0001121123993189927</v>
       </c>
       <c r="C89" t="n">
-        <v>2.871707121414456e-06</v>
+        <v>2.872120007278975e-06</v>
       </c>
       <c r="D89" t="n">
-        <v>0.2372106753705733</v>
+        <v>0.226141625708176</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
@@ -2063,13 +2063,13 @@
         <v>4.084998929726572</v>
       </c>
       <c r="B90" t="n">
-        <v>0.0002313154277874164</v>
+        <v>0.0002316275241089844</v>
       </c>
       <c r="C90" t="n">
-        <v>5.876944877643168e-06</v>
+        <v>5.878816572139667e-06</v>
       </c>
       <c r="D90" t="n">
-        <v>0.5808497123213625</v>
+        <v>0.6676953682586788</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
@@ -2082,13 +2082,13 @@
         <v>4.08816978084789</v>
       </c>
       <c r="B91" t="n">
-        <v>0.0002358727040221707</v>
+        <v>0.0002354420283000615</v>
       </c>
       <c r="C91" t="n">
-        <v>5.982552825977417e-06</v>
+        <v>5.974532424136399e-06</v>
       </c>
       <c r="D91" t="n">
-        <v>0.5719164245448892</v>
+        <v>0.5379472635612814</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
@@ -2101,13 +2101,13 @@
         <v>4.097682334211846</v>
       </c>
       <c r="B92" t="n">
-        <v>0.0002221447839952602</v>
+        <v>0.0002235187203240925</v>
       </c>
       <c r="C92" t="n">
-        <v>5.756765696507257e-06</v>
+        <v>5.772722425115563e-06</v>
       </c>
       <c r="D92" t="n">
-        <v>0.1584134063392696</v>
+        <v>0.2207246998374577</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
@@ -2120,13 +2120,13 @@
         <v>4.101967268159573</v>
       </c>
       <c r="B93" t="n">
-        <v>0.0001789021431545884</v>
+        <v>0.0001792764235120635</v>
       </c>
       <c r="C93" t="n">
-        <v>4.954223369203144e-06</v>
+        <v>4.966626641287694e-06</v>
       </c>
       <c r="D93" t="n">
-        <v>0.2018847221418105</v>
+        <v>0.3189527918542084</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
@@ -2139,13 +2139,13 @@
         <v>4.106423599465209</v>
       </c>
       <c r="B94" t="n">
-        <v>0.0001258304871842469</v>
+        <v>0.0001268143114399678</v>
       </c>
       <c r="C94" t="n">
-        <v>4.73476255467662e-06</v>
+        <v>4.728145926202153e-06</v>
       </c>
       <c r="D94" t="n">
-        <v>0.1679479844700973</v>
+        <v>0.07202156230026009</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
@@ -2158,13 +2158,13 @@
         <v>4.114907768681709</v>
       </c>
       <c r="B95" t="n">
-        <v>0.0001991498540119604</v>
+        <v>0.0001975523091187232</v>
       </c>
       <c r="C95" t="n">
-        <v>6.040549803137015e-06</v>
+        <v>6.012293101036516e-06</v>
       </c>
       <c r="D95" t="n">
-        <v>0.1141131009790249</v>
+        <v>0.08510305532272666</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
@@ -2177,13 +2177,13 @@
         <v>4.123306239219255</v>
       </c>
       <c r="B96" t="n">
-        <v>0.0004147216682794244</v>
+        <v>0.0004165879019062633</v>
       </c>
       <c r="C96" t="n">
-        <v>1.014105982860041e-05</v>
+        <v>1.01785313358658e-05</v>
       </c>
       <c r="D96" t="n">
-        <v>0.6138013940068189</v>
+        <v>0.5581248441889537</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
@@ -2196,13 +2196,13 @@
         <v>4.131961805793665</v>
       </c>
       <c r="B97" t="n">
-        <v>0.0003634290871641658</v>
+        <v>0.0003639063103444141</v>
       </c>
       <c r="C97" t="n">
-        <v>8.755797193816334e-06</v>
+        <v>8.759894908642088e-06</v>
       </c>
       <c r="D97" t="n">
-        <v>0.3280823364371093</v>
+        <v>0.257050053445122</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
@@ -2215,13 +2215,13 @@
         <v>4.133847176730665</v>
       </c>
       <c r="B98" t="n">
-        <v>0.0002399901539528359</v>
+        <v>0.0002407015070768913</v>
       </c>
       <c r="C98" t="n">
-        <v>5.716627233746923e-06</v>
+        <v>5.727569938186865e-06</v>
       </c>
       <c r="D98" t="n">
-        <v>0.2074509654172489</v>
+        <v>0.2593057815423556</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
@@ -2234,13 +2234,13 @@
         <v>4.136503835778257</v>
       </c>
       <c r="B99" t="n">
-        <v>0.0001528082967493449</v>
+        <v>0.0001531970326935972</v>
       </c>
       <c r="C99" t="n">
-        <v>3.647298229944277e-06</v>
+        <v>3.657342733627688e-06</v>
       </c>
       <c r="D99" t="n">
-        <v>0.07189672630164823</v>
+        <v>0.09780092124996587</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
@@ -2253,13 +2253,13 @@
         <v>4.140617372368075</v>
       </c>
       <c r="B100" t="n">
-        <v>7.519577471931954e-05</v>
+        <v>7.476181792736192e-05</v>
       </c>
       <c r="C100" t="n">
-        <v>1.862486597188414e-06</v>
+        <v>1.857506287545761e-06</v>
       </c>
       <c r="D100" t="n">
-        <v>0.05842631838678226</v>
+        <v>0.0284884836447498</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
@@ -2272,13 +2272,13 @@
         <v>4.149015842905621</v>
       </c>
       <c r="B101" t="n">
-        <v>5.437996558735128e-05</v>
+        <v>5.451444798097336e-05</v>
       </c>
       <c r="C101" t="n">
-        <v>1.313062293717529e-06</v>
+        <v>1.314911409843443e-06</v>
       </c>
       <c r="D101" t="n">
-        <v>0.6476897226491498</v>
+        <v>0.3800415407852359</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
@@ -2291,13 +2291,13 @@
         <v>4.166241277375486</v>
       </c>
       <c r="B102" t="n">
-        <v>5.732044175378717e-05</v>
+        <v>5.722268948047766e-05</v>
       </c>
       <c r="C102" t="n">
-        <v>1.373655142018551e-06</v>
+        <v>1.375511498892706e-06</v>
       </c>
       <c r="D102" t="n">
-        <v>0.06508770918598142</v>
+        <v>0.09173112898090774</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
@@ -2310,13 +2310,13 @@
         <v>4.180210162045077</v>
       </c>
       <c r="B103" t="n">
-        <v>6.20625852228339e-05</v>
+        <v>6.18219555674588e-05</v>
       </c>
       <c r="C103" t="n">
-        <v>1.507471724472597e-06</v>
+        <v>1.502501374136433e-06</v>
       </c>
       <c r="D103" t="n">
-        <v>0.04603358421464534</v>
+        <v>0.03299466392957414</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
@@ -2329,13 +2329,13 @@
         <v>4.200435050278351</v>
       </c>
       <c r="B104" t="n">
-        <v>6.608722063740619e-05</v>
+        <v>6.57643642447686e-05</v>
       </c>
       <c r="C104" t="n">
-        <v>1.553993278016504e-06</v>
+        <v>1.549945753028263e-06</v>
       </c>
       <c r="D104" t="n">
-        <v>0.0577049230710239</v>
+        <v>0.06917212343209368</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
@@ -2348,13 +2348,13 @@
         <v>4.209004918173807</v>
       </c>
       <c r="B105" t="n">
-        <v>6.974090580952666e-05</v>
+        <v>7.003126995907139e-05</v>
       </c>
       <c r="C105" t="n">
-        <v>1.795809221782491e-06</v>
+        <v>1.802944737895917e-06</v>
       </c>
       <c r="D105" t="n">
-        <v>0.241243573220581</v>
+        <v>0.3730377747052997</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
@@ -2367,13 +2367,13 @@
         <v>4.21774618342717</v>
       </c>
       <c r="B106" t="n">
-        <v>7.01885064558694e-05</v>
+        <v>7.029603501948421e-05</v>
       </c>
       <c r="C106" t="n">
-        <v>1.785493164885028e-06</v>
+        <v>1.78587319912502e-06</v>
       </c>
       <c r="D106" t="n">
-        <v>0.2193213720935255</v>
+        <v>0.3193881257977523</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
@@ -2386,13 +2386,13 @@
         <v>4.226230352643671</v>
       </c>
       <c r="B107" t="n">
-        <v>7.072313915325942e-05</v>
+        <v>7.105491756250939e-05</v>
       </c>
       <c r="C107" t="n">
-        <v>1.927132716331288e-06</v>
+        <v>1.924352036079504e-06</v>
       </c>
       <c r="D107" t="n">
-        <v>0.317247514650235</v>
+        <v>0.4973962915857829</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
@@ -2405,13 +2405,13 @@
         <v>4.231543670738853</v>
       </c>
       <c r="B108" t="n">
-        <v>7.418564326925211e-05</v>
+        <v>7.362119808797143e-05</v>
       </c>
       <c r="C108" t="n">
-        <v>1.82009902070515e-06</v>
+        <v>1.809457791593465e-06</v>
       </c>
       <c r="D108" t="n">
-        <v>0.2311112555152242</v>
+        <v>0.3592142500495701</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
@@ -2424,13 +2424,13 @@
         <v>4.234971617897036</v>
       </c>
       <c r="B109" t="n">
-        <v>7.557160424454405e-05</v>
+        <v>7.56879732585637e-05</v>
       </c>
       <c r="C109" t="n">
-        <v>1.978146048270872e-06</v>
+        <v>1.982477332500259e-06</v>
       </c>
       <c r="D109" t="n">
-        <v>0.2232211064750261</v>
+        <v>0.2254861162660348</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
@@ -2443,13 +2443,13 @@
         <v>4.24071342938699</v>
       </c>
       <c r="B110" t="n">
-        <v>7.614798335586908e-05</v>
+        <v>7.561160554599451e-05</v>
       </c>
       <c r="C110" t="n">
-        <v>1.891654773289404e-06</v>
+        <v>1.88368826315141e-06</v>
       </c>
       <c r="D110" t="n">
-        <v>0.02164992357584874</v>
+        <v>0.02707745254044104</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
@@ -2462,13 +2462,13 @@
         <v>4.249111899924536</v>
       </c>
       <c r="B111" t="n">
-        <v>7.687898091953641e-05</v>
+        <v>7.68708596910019e-05</v>
       </c>
       <c r="C111" t="n">
-        <v>1.938517694948631e-06</v>
+        <v>1.936698920000792e-06</v>
       </c>
       <c r="D111" t="n">
-        <v>0.1277092454179315</v>
+        <v>0.1351704355320225</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
@@ -2481,13 +2481,13 @@
         <v>4.2521970523669</v>
       </c>
       <c r="B112" t="n">
-        <v>7.99801746524017e-05</v>
+        <v>7.971738916946329e-05</v>
       </c>
       <c r="C112" t="n">
-        <v>2.107132623862344e-06</v>
+        <v>2.107345135162438e-06</v>
       </c>
       <c r="D112" t="n">
-        <v>0.1350481939380189</v>
+        <v>0.1051113196743221</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
@@ -2500,13 +2500,13 @@
         <v>4.257767466498946</v>
       </c>
       <c r="B113" t="n">
-        <v>7.680125808677259e-05</v>
+        <v>7.669677015212725e-05</v>
       </c>
       <c r="C113" t="n">
-        <v>1.976047301479071e-06</v>
+        <v>1.979661654627823e-06</v>
       </c>
       <c r="D113" t="n">
-        <v>0.01106302600262891</v>
+        <v>0.01667233653120372</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
@@ -2519,13 +2519,13 @@
         <v>4.262138099125628</v>
       </c>
       <c r="B114" t="n">
-        <v>8.007137742112398e-05</v>
+        <v>7.978368862840218e-05</v>
       </c>
       <c r="C114" t="n">
-        <v>2.028525032455187e-06</v>
+        <v>2.030118982119563e-06</v>
       </c>
       <c r="D114" t="n">
-        <v>0.3938863094451204</v>
+        <v>0.2885505841939496</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
@@ -2538,13 +2538,13 @@
         <v>4.264537662136355</v>
       </c>
       <c r="B115" t="n">
-        <v>8.008397995429655e-05</v>
+        <v>7.981775796167136e-05</v>
       </c>
       <c r="C115" t="n">
-        <v>2.075897479548432e-06</v>
+        <v>2.074665219718204e-06</v>
       </c>
       <c r="D115" t="n">
-        <v>0.09763031238687842</v>
+        <v>0.06762927426758621</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
@@ -2557,13 +2557,13 @@
         <v>4.267280019862901</v>
       </c>
       <c r="B116" t="n">
-        <v>8.21089261733579e-05</v>
+        <v>8.271312987636362e-05</v>
       </c>
       <c r="C116" t="n">
-        <v>2.134939629262983e-06</v>
+        <v>2.145372146409226e-06</v>
       </c>
       <c r="D116" t="n">
-        <v>0.1406328046678125</v>
+        <v>0.1883681882819743</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
@@ -2576,13 +2576,13 @@
         <v>4.269079692120946</v>
       </c>
       <c r="B117" t="n">
-        <v>8.720136042315918e-05</v>
+        <v>8.756376602148226e-05</v>
       </c>
       <c r="C117" t="n">
-        <v>2.312886352203438e-06</v>
+        <v>2.324954809053438e-06</v>
       </c>
       <c r="D117" t="n">
-        <v>0.1352281682178952</v>
+        <v>0.1603667817682246</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
@@ -2595,13 +2595,13 @@
         <v>4.271479255131674</v>
       </c>
       <c r="B118" t="n">
-        <v>8.228916027800296e-05</v>
+        <v>8.267239928669011e-05</v>
       </c>
       <c r="C118" t="n">
-        <v>2.05463922950975e-06</v>
+        <v>2.06262832128259e-06</v>
       </c>
       <c r="D118" t="n">
-        <v>0.05802915600424567</v>
+        <v>0.02859683223795686</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
@@ -2614,13 +2614,13 @@
         <v>4.273021831352856</v>
       </c>
       <c r="B119" t="n">
-        <v>8.377660771846928e-05</v>
+        <v>8.403615116951823e-05</v>
       </c>
       <c r="C119" t="n">
-        <v>2.173398065632232e-06</v>
+        <v>2.180037804146396e-06</v>
       </c>
       <c r="D119" t="n">
-        <v>0.3461059666552824</v>
+        <v>0.3486775773588157</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
@@ -2633,13 +2633,13 @@
         <v>4.281677397927266</v>
       </c>
       <c r="B120" t="n">
-        <v>8.468355078247249e-05</v>
+        <v>8.497456250029359e-05</v>
       </c>
       <c r="C120" t="n">
-        <v>2.134297917434311e-06</v>
+        <v>2.140401461141363e-06</v>
       </c>
       <c r="D120" t="n">
-        <v>0.05461898488015323</v>
+        <v>0.08217304920456771</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
@@ -2652,13 +2652,13 @@
         <v>4.286305126590811</v>
       </c>
       <c r="B121" t="n">
-        <v>9.047316852704549e-05</v>
+        <v>9.029052253667089e-05</v>
       </c>
       <c r="C121" t="n">
-        <v>2.331041715872939e-06</v>
+        <v>2.327463259469266e-06</v>
       </c>
       <c r="D121" t="n">
-        <v>0.035750466910466</v>
+        <v>0.04488084721175528</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
@@ -2671,13 +2671,13 @@
         <v>4.29024726582272</v>
       </c>
       <c r="B122" t="n">
-        <v>8.721209487429061e-05</v>
+        <v>8.706312147354364e-05</v>
       </c>
       <c r="C122" t="n">
-        <v>2.145514584855104e-06</v>
+        <v>2.14455670904449e-06</v>
       </c>
       <c r="D122" t="n">
-        <v>0.1239827505576054</v>
+        <v>0.06565073223278374</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
@@ -2690,13 +2690,13 @@
         <v>4.298731435039221</v>
       </c>
       <c r="B123" t="n">
-        <v>8.963393756427206e-05</v>
+        <v>8.986309183400918e-05</v>
       </c>
       <c r="C123" t="n">
-        <v>2.149392526655107e-06</v>
+        <v>2.153896373710777e-06</v>
       </c>
       <c r="D123" t="n">
-        <v>0.01522631353643083</v>
+        <v>0.01531465383109071</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
@@ -2709,13 +2709,13 @@
         <v>4.303359163702766</v>
       </c>
       <c r="B124" t="n">
-        <v>9.737664514887169e-05</v>
+        <v>9.769801660649701e-05</v>
       </c>
       <c r="C124" t="n">
-        <v>2.431766309278849e-06</v>
+        <v>2.440173321518327e-06</v>
       </c>
       <c r="D124" t="n">
-        <v>0.229911611959793</v>
+        <v>0.3011782017981009</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
@@ -2728,13 +2728,13 @@
         <v>4.307472700292585</v>
       </c>
       <c r="B125" t="n">
-        <v>0.0001038598302544735</v>
+        <v>0.0001040330233559185</v>
       </c>
       <c r="C125" t="n">
-        <v>2.522153113072709e-06</v>
+        <v>2.528238360203416e-06</v>
       </c>
       <c r="D125" t="n">
-        <v>0.1105751250206696</v>
+        <v>0.10817540082223</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
@@ -2747,13 +2747,13 @@
         <v>4.309957961982268</v>
       </c>
       <c r="B126" t="n">
-        <v>0.0001175814580627266</v>
+        <v>0.0001181399197516867</v>
       </c>
       <c r="C126" t="n">
-        <v>2.873917788094132e-06</v>
+        <v>2.884651432279728e-06</v>
       </c>
       <c r="D126" t="n">
-        <v>0.1847151271479366</v>
+        <v>0.2587759657072865</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
@@ -2766,13 +2766,13 @@
         <v>4.310129359340176</v>
       </c>
       <c r="B127" t="n">
-        <v>0.0001166824111796317</v>
+        <v>0.0001165909827619145</v>
       </c>
       <c r="C127" t="n">
-        <v>2.84019040604755e-06</v>
+        <v>2.843183035657797e-06</v>
       </c>
       <c r="D127" t="n">
-        <v>0.2825031516725175</v>
+        <v>0.1993360098828807</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
@@ -2785,13 +2785,13 @@
         <v>4.311757634240313</v>
       </c>
       <c r="B128" t="n">
-        <v>0.0001440335284033769</v>
+        <v>0.0001442872345379762</v>
       </c>
       <c r="C128" t="n">
-        <v>3.594810580187028e-06</v>
+        <v>3.603395842432988e-06</v>
       </c>
       <c r="D128" t="n">
-        <v>0.8712483649930175</v>
+        <v>0.8973517814709855</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
@@ -2804,13 +2804,13 @@
         <v>4.31604256818804</v>
       </c>
       <c r="B129" t="n">
-        <v>0.0002286287624292498</v>
+        <v>0.0002303308951589703</v>
       </c>
       <c r="C129" t="n">
-        <v>5.781938100958142e-06</v>
+        <v>5.810227454911932e-06</v>
       </c>
       <c r="D129" t="n">
-        <v>0.4909711380561544</v>
+        <v>0.6776698506569904</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
@@ -2823,13 +2823,13 @@
         <v>4.318613528556677</v>
       </c>
       <c r="B130" t="n">
-        <v>0.0003122173600061873</v>
+        <v>0.0003120957759071577</v>
       </c>
       <c r="C130" t="n">
-        <v>7.66512718550302e-06</v>
+        <v>7.659264577552593e-06</v>
       </c>
       <c r="D130" t="n">
-        <v>0.9141015389682577</v>
+        <v>0.9601684109496377</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
@@ -2842,13 +2842,13 @@
         <v>4.320584598172632</v>
       </c>
       <c r="B131" t="n">
-        <v>0.000310422944790086</v>
+        <v>0.0003101824037394941</v>
       </c>
       <c r="C131" t="n">
-        <v>7.85299986459225e-06</v>
+        <v>7.888110355038668e-06</v>
       </c>
       <c r="D131" t="n">
-        <v>0.3034282757988295</v>
+        <v>0.1879201821912022</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
@@ -2861,13 +2861,13 @@
         <v>4.322898462504404</v>
       </c>
       <c r="B132" t="n">
-        <v>0.0002932881889689139</v>
+        <v>0.0002945446052321776</v>
       </c>
       <c r="C132" t="n">
-        <v>7.312747378355064e-06</v>
+        <v>7.328288057638073e-06</v>
       </c>
       <c r="D132" t="n">
-        <v>0.5280415208224981</v>
+        <v>0.5560597841318464</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
@@ -2880,13 +2880,13 @@
         <v>4.325555121551995</v>
       </c>
       <c r="B133" t="n">
-        <v>0.0002862879592234184</v>
+        <v>0.0002888722626258691</v>
       </c>
       <c r="C133" t="n">
-        <v>7.143868417275234e-06</v>
+        <v>7.194865909676968e-06</v>
       </c>
       <c r="D133" t="n">
-        <v>0.5503080386748069</v>
+        <v>0.5798504045824685</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
@@ -2899,13 +2899,13 @@
         <v>4.327954684562723</v>
       </c>
       <c r="B134" t="n">
-        <v>0.0002835253625906371</v>
+        <v>0.0002827513798648593</v>
       </c>
       <c r="C134" t="n">
-        <v>7.130552029279033e-06</v>
+        <v>7.123120393845569e-06</v>
       </c>
       <c r="D134" t="n">
-        <v>0.8279758983566553</v>
+        <v>0.7494254455488152</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
@@ -2918,13 +2918,13 @@
         <v>4.330782740968223</v>
       </c>
       <c r="B135" t="n">
-        <v>0.0002669537795698326</v>
+        <v>0.0002678476444624495</v>
       </c>
       <c r="C135" t="n">
-        <v>6.935199383973108e-06</v>
+        <v>6.945402241219045e-06</v>
       </c>
       <c r="D135" t="n">
-        <v>0.9479286521365077</v>
+        <v>0.904374158581273</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
@@ -2937,13 +2937,13 @@
         <v>4.33318230397895</v>
       </c>
       <c r="B136" t="n">
-        <v>0.000240483051049968</v>
+        <v>0.0002406546829831124</v>
       </c>
       <c r="C136" t="n">
-        <v>6.193966074999816e-06</v>
+        <v>6.207601777426446e-06</v>
       </c>
       <c r="D136" t="n">
-        <v>0.9868208919690296</v>
+        <v>0.9229787246661835</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
@@ -2956,13 +2956,13 @@
         <v>4.337638635284587</v>
       </c>
       <c r="B137" t="n">
-        <v>0.0001797189086259691</v>
+        <v>0.0001809711136166806</v>
       </c>
       <c r="C137" t="n">
-        <v>4.919734102515735e-06</v>
+        <v>4.948019446289163e-06</v>
       </c>
       <c r="D137" t="n">
-        <v>0.3599862083075316</v>
+        <v>0.3460844070242615</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
@@ -2975,13 +2975,13 @@
         <v>4.341752171874406</v>
       </c>
       <c r="B138" t="n">
-        <v>0.0001293848613067862</v>
+        <v>0.0001295849671605673</v>
       </c>
       <c r="C138" t="n">
-        <v>3.57080686085567e-06</v>
+        <v>3.578905433599782e-06</v>
       </c>
       <c r="D138" t="n">
-        <v>0.3659121736067225</v>
+        <v>0.3532300911958127</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
@@ -2994,13 +2994,13 @@
         <v>4.350407738448815</v>
       </c>
       <c r="B139" t="n">
-        <v>0.0002542656138601661</v>
+        <v>0.0002546154071016827</v>
       </c>
       <c r="C139" t="n">
-        <v>6.057891300810975e-06</v>
+        <v>6.061912743028196e-06</v>
       </c>
       <c r="D139" t="n">
-        <v>0.8240951446848512</v>
+        <v>0.8244185089809372</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
@@ -3013,13 +3013,13 @@
         <v>4.354692672396543</v>
       </c>
       <c r="B140" t="n">
-        <v>0.0002474477667020884</v>
+        <v>0.0002489315036726651</v>
       </c>
       <c r="C140" t="n">
-        <v>5.961647234885174e-06</v>
+        <v>5.987310007011273e-06</v>
       </c>
       <c r="D140" t="n">
-        <v>0.04800946324981823</v>
+        <v>0.05156274044445544</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
@@ -3032,13 +3032,13 @@
         <v>4.358634811628452</v>
       </c>
       <c r="B141" t="n">
-        <v>0.0002544573691264853</v>
+        <v>0.000254249327819536</v>
       </c>
       <c r="C141" t="n">
-        <v>5.91451158670739e-06</v>
+        <v>5.913967021099217e-06</v>
       </c>
       <c r="D141" t="n">
-        <v>0.8566067973386853</v>
+        <v>0.8875734060698718</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
@@ -3051,13 +3051,13 @@
         <v>4.366947583487043</v>
       </c>
       <c r="B142" t="n">
-        <v>0.0002292796781555733</v>
+        <v>0.0002297358076253804</v>
       </c>
       <c r="C142" t="n">
-        <v>5.491144133002071e-06</v>
+        <v>5.495479300646044e-06</v>
       </c>
       <c r="D142" t="n">
-        <v>0.1363190332830554</v>
+        <v>0.1991674036425795</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
@@ -3070,13 +3070,13 @@
         <v>4.371918106866407</v>
       </c>
       <c r="B143" t="n">
-        <v>0.0002309771980809863</v>
+        <v>0.0002308665122453486</v>
       </c>
       <c r="C143" t="n">
-        <v>5.602139770481062e-06</v>
+        <v>5.593505931917347e-06</v>
       </c>
       <c r="D143" t="n">
-        <v>0.06705461295150296</v>
+        <v>0.1517757797399578</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
@@ -3089,13 +3089,13 @@
         <v>4.375088957987725</v>
       </c>
       <c r="B144" t="n">
-        <v>0.0004109890449836846</v>
+        <v>0.0004113871199255009</v>
       </c>
       <c r="C144" t="n">
-        <v>1.041660133438674e-05</v>
+        <v>1.042681993448878e-05</v>
       </c>
       <c r="D144" t="n">
-        <v>0.8243454512546275</v>
+        <v>0.768055572343012</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
@@ -3108,13 +3108,13 @@
         <v>4.377745617035317</v>
       </c>
       <c r="B145" t="n">
-        <v>0.0005375147401555683</v>
+        <v>0.0005387898378421704</v>
       </c>
       <c r="C145" t="n">
-        <v>1.308658399049362e-05</v>
+        <v>1.310864042041476e-05</v>
       </c>
       <c r="D145" t="n">
-        <v>0.4547455839602899</v>
+        <v>0.5338765605310865</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
@@ -3127,13 +3127,13 @@
         <v>4.379545289293363</v>
       </c>
       <c r="B146" t="n">
-        <v>0.0005204051395067142</v>
+        <v>0.0005210817303274999</v>
       </c>
       <c r="C146" t="n">
-        <v>1.313061773133015e-05</v>
+        <v>1.313042179250628e-05</v>
       </c>
       <c r="D146" t="n">
-        <v>0.2084875241125113</v>
+        <v>0.2983765775893285</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
@@ -3146,13 +3146,13 @@
         <v>4.380487974761863</v>
       </c>
       <c r="B147" t="n">
-        <v>0.0005263484230223983</v>
+        <v>0.0005257382209663986</v>
       </c>
       <c r="C147" t="n">
-        <v>1.344717435392931e-05</v>
+        <v>1.34440892432943e-05</v>
       </c>
       <c r="D147" t="n">
-        <v>0.6369483248606711</v>
+        <v>0.6122770551600942</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
@@ -3165,13 +3165,13 @@
         <v>4.380830769477681</v>
       </c>
       <c r="B148" t="n">
-        <v>0.0005141359176291859</v>
+        <v>0.0005154300173035274</v>
       </c>
       <c r="C148" t="n">
-        <v>1.313602405717051e-05</v>
+        <v>1.314307205842148e-05</v>
       </c>
       <c r="D148" t="n">
-        <v>0.3744267828937071</v>
+        <v>0.4629657036112206</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
@@ -3184,13 +3184,13 @@
         <v>4.381087865514544</v>
       </c>
       <c r="B149" t="n">
-        <v>0.0005176465125329521</v>
+        <v>0.0005183782470443226</v>
       </c>
       <c r="C149" t="n">
-        <v>1.316005046113863e-05</v>
+        <v>1.317543143996505e-05</v>
       </c>
       <c r="D149" t="n">
-        <v>0.4490548492865228</v>
+        <v>0.4045083095973158</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
@@ -3203,13 +3203,13 @@
         <v>4.382973236451544</v>
       </c>
       <c r="B150" t="n">
-        <v>0.0008652887683119142</v>
+        <v>0.000866247132209302</v>
       </c>
       <c r="C150" t="n">
-        <v>2.067250321924399e-05</v>
+        <v>2.068856738129562e-05</v>
       </c>
       <c r="D150" t="n">
-        <v>0.5582716193843738</v>
+        <v>0.5284268778385734</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
@@ -3222,13 +3222,13 @@
         <v>4.384687210030635</v>
       </c>
       <c r="B151" t="n">
-        <v>0.0009191625837005913</v>
+        <v>0.0009204079697693852</v>
       </c>
       <c r="C151" t="n">
-        <v>2.161464235799663e-05</v>
+        <v>2.164689298358547e-05</v>
       </c>
       <c r="D151" t="n">
-        <v>0.6422842274913443</v>
+        <v>0.6449039838378816</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
@@ -3241,13 +3241,13 @@
         <v>4.386401183609727</v>
       </c>
       <c r="B152" t="n">
-        <v>0.0008627351361211296</v>
+        <v>0.0008637774304598896</v>
       </c>
       <c r="C152" t="n">
-        <v>2.051362357759167e-05</v>
+        <v>2.053574851231933e-05</v>
       </c>
       <c r="D152" t="n">
-        <v>0.5169721344584255</v>
+        <v>0.4587411465847117</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
@@ -3260,13 +3260,13 @@
         <v>4.388029458509863</v>
       </c>
       <c r="B153" t="n">
-        <v>0.0008308091009129575</v>
+        <v>0.0008327347106023742</v>
       </c>
       <c r="C153" t="n">
-        <v>1.969456947334699e-05</v>
+        <v>1.974299693661913e-05</v>
       </c>
       <c r="D153" t="n">
-        <v>0.4538783253677257</v>
+        <v>0.4335965285734625</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
@@ -3279,13 +3279,13 @@
         <v>4.389057842657317</v>
       </c>
       <c r="B154" t="n">
-        <v>0.0008320909510795256</v>
+        <v>0.0008318772598618878</v>
       </c>
       <c r="C154" t="n">
-        <v>1.984375989458474e-05</v>
+        <v>1.984439370558073e-05</v>
       </c>
       <c r="D154" t="n">
-        <v>0.1494310029939997</v>
+        <v>0.1321852999620555</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
@@ -3298,13 +3298,13 @@
         <v>4.389743432088954</v>
       </c>
       <c r="B155" t="n">
-        <v>0.0007867133152502938</v>
+        <v>0.0007881367250747407</v>
       </c>
       <c r="C155" t="n">
-        <v>1.877237223675691e-05</v>
+        <v>1.878599105309382e-05</v>
       </c>
       <c r="D155" t="n">
-        <v>0.4080350649644943</v>
+        <v>0.4529514913960617</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
@@ -3317,13 +3317,13 @@
         <v>4.392314392457591</v>
       </c>
       <c r="B156" t="n">
-        <v>0.0007395542226564705</v>
+        <v>0.0007405524255902495</v>
       </c>
       <c r="C156" t="n">
-        <v>1.755512938822839e-05</v>
+        <v>1.756510148731882e-05</v>
       </c>
       <c r="D156" t="n">
-        <v>0.196917424218406</v>
+        <v>0.226466893547993</v>
       </c>
       <c r="E156" t="inlineStr">
         <is>
@@ -3336,13 +3336,13 @@
         <v>4.396599326405318</v>
       </c>
       <c r="B157" t="n">
-        <v>0.0006049928057316262</v>
+        <v>0.0006058575481610369</v>
       </c>
       <c r="C157" t="n">
-        <v>1.412985030367019e-05</v>
+        <v>1.414834704525962e-05</v>
       </c>
       <c r="D157" t="n">
-        <v>0.5671633768837803</v>
+        <v>0.6013204623436395</v>
       </c>
       <c r="E157" t="inlineStr">
         <is>
@@ -3355,13 +3355,13 @@
         <v>4.400884260353045</v>
       </c>
       <c r="B158" t="n">
-        <v>0.0004292624386658923</v>
+        <v>0.0004291162520820955</v>
       </c>
       <c r="C158" t="n">
-        <v>1.044505555156056e-05</v>
+        <v>1.045181466753319e-05</v>
       </c>
       <c r="D158" t="n">
-        <v>0.546488475700655</v>
+        <v>0.4887067224713477</v>
       </c>
       <c r="E158" t="inlineStr">
         <is>
@@ -3374,13 +3374,13 @@
         <v>4.404912098263909</v>
       </c>
       <c r="B159" t="n">
-        <v>0.0002437767172252931</v>
+        <v>0.0002438676082922127</v>
       </c>
       <c r="C159" t="n">
-        <v>6.035773541686369e-06</v>
+        <v>6.032308365824655e-06</v>
       </c>
       <c r="D159" t="n">
-        <v>0.4594476607115416</v>
+        <v>0.3168858145290173</v>
       </c>
       <c r="E159" t="inlineStr">
         <is>
@@ -3393,13 +3393,13 @@
         <v>4.406111879769273</v>
       </c>
       <c r="B160" t="n">
-        <v>0.0002572442083367581</v>
+        <v>0.0002572071933076541</v>
       </c>
       <c r="C160" t="n">
-        <v>6.652953510346989e-06</v>
+        <v>6.654174119108758e-06</v>
       </c>
       <c r="D160" t="n">
-        <v>0.1134191475780368</v>
+        <v>0.1119346374445446</v>
       </c>
       <c r="E160" t="inlineStr">
         <is>
@@ -3412,13 +3412,13 @@
         <v>4.4094541282485</v>
       </c>
       <c r="B161" t="n">
-        <v>0.0001402082913643601</v>
+        <v>0.0001406280427895519</v>
       </c>
       <c r="C161" t="n">
-        <v>3.830989229129094e-06</v>
+        <v>3.835537057080321e-06</v>
       </c>
       <c r="D161" t="n">
-        <v>0.8557536657909224</v>
+        <v>0.8194604670040616</v>
       </c>
       <c r="E161" t="inlineStr">
         <is>
@@ -3431,13 +3431,13 @@
         <v>4.413824760875183</v>
       </c>
       <c r="B162" t="n">
-        <v>0.0001259012282784311</v>
+        <v>0.0001256643687850916</v>
       </c>
       <c r="C162" t="n">
-        <v>3.629409633252933e-06</v>
+        <v>3.639983041959804e-06</v>
       </c>
       <c r="D162" t="n">
-        <v>0.3623222241325574</v>
+        <v>0.3501722746444283</v>
       </c>
       <c r="E162" t="inlineStr">
         <is>
@@ -3450,13 +3450,13 @@
         <v>4.41622432388591</v>
       </c>
       <c r="B163" t="n">
-        <v>0.0001321208963886041</v>
+        <v>0.0001319932092884267</v>
       </c>
       <c r="C163" t="n">
-        <v>3.695184306183956e-06</v>
+        <v>3.68650572838597e-06</v>
       </c>
       <c r="D163" t="n">
-        <v>0.7243180728131574</v>
+        <v>0.8523790462011622</v>
       </c>
       <c r="E163" t="inlineStr">
         <is>
@@ -3469,13 +3469,13 @@
         <v>4.418795284254546</v>
       </c>
       <c r="B164" t="n">
-        <v>0.0001311448581505286</v>
+        <v>0.0001314731136259668</v>
       </c>
       <c r="C164" t="n">
-        <v>3.673985109593758e-06</v>
+        <v>3.68423913876126e-06</v>
       </c>
       <c r="D164" t="n">
-        <v>0.170046239369838</v>
+        <v>0.1697317050015731</v>
       </c>
       <c r="E164" t="inlineStr">
         <is>
@@ -3488,13 +3488,13 @@
         <v>4.421623340660047</v>
       </c>
       <c r="B165" t="n">
-        <v>0.0001354277245494635</v>
+        <v>0.0001363418794540511</v>
       </c>
       <c r="C165" t="n">
-        <v>3.863995202083171e-06</v>
+        <v>3.877760446112316e-06</v>
       </c>
       <c r="D165" t="n">
-        <v>0.5801194090919577</v>
+        <v>0.5411948150023722</v>
       </c>
       <c r="E165" t="inlineStr">
         <is>
@@ -3507,13 +3507,13 @@
         <v>4.423337314239138</v>
       </c>
       <c r="B166" t="n">
-        <v>0.000140810847792884</v>
+        <v>0.0001407519780143623</v>
       </c>
       <c r="C166" t="n">
-        <v>4.156031337048521e-06</v>
+        <v>4.172277380175182e-06</v>
       </c>
       <c r="D166" t="n">
-        <v>0.8487088253604682</v>
+        <v>0.6051034760006144</v>
       </c>
       <c r="E166" t="inlineStr">
         <is>
@@ -3526,13 +3526,13 @@
         <v>4.424194301028683</v>
       </c>
       <c r="B167" t="n">
-        <v>0.0001419055325131608</v>
+        <v>0.0001412948813485497</v>
       </c>
       <c r="C167" t="n">
-        <v>3.82907348875365e-06</v>
+        <v>3.812591379201056e-06</v>
       </c>
       <c r="D167" t="n">
-        <v>0.7835299421706055</v>
+        <v>0.5470087357836897</v>
       </c>
       <c r="E167" t="inlineStr">
         <is>
@@ -3545,13 +3545,13 @@
         <v>4.429336221765956</v>
       </c>
       <c r="B168" t="n">
-        <v>0.0001506049870321878</v>
+        <v>0.0001505234873261286</v>
       </c>
       <c r="C168" t="n">
-        <v>3.942945309455007e-06</v>
+        <v>3.945594013579681e-06</v>
       </c>
       <c r="D168" t="n">
-        <v>0.8082445718333698</v>
+        <v>0.6822621320998743</v>
       </c>
       <c r="E168" t="inlineStr">
         <is>
@@ -3564,13 +3564,13 @@
         <v>4.431392990060865</v>
       </c>
       <c r="B169" t="n">
-        <v>0.0001586033755668486</v>
+        <v>0.0001593975520931324</v>
       </c>
       <c r="C169" t="n">
-        <v>4.004269129846757e-06</v>
+        <v>4.011342997249948e-06</v>
       </c>
       <c r="D169" t="n">
-        <v>0.4022694211924328</v>
+        <v>0.6036352221079517</v>
       </c>
       <c r="E169" t="inlineStr">
         <is>
@@ -3583,13 +3583,13 @@
         <v>4.440477050030048</v>
       </c>
       <c r="B170" t="n">
-        <v>0.000157131225044153</v>
+        <v>0.0001582308970306473</v>
       </c>
       <c r="C170" t="n">
-        <v>4.109241359174105e-06</v>
+        <v>4.130254117377276e-06</v>
       </c>
       <c r="D170" t="n">
-        <v>0.1028041655122342</v>
+        <v>0.1098793340335436</v>
       </c>
       <c r="E170" t="inlineStr">
         <is>
@@ -3602,13 +3602,13 @@
         <v>4.457445388463049</v>
       </c>
       <c r="B171" t="n">
-        <v>0.000181988373410047</v>
+        <v>0.000182559434067743</v>
       </c>
       <c r="C171" t="n">
-        <v>4.411823150330201e-06</v>
+        <v>4.424511721550045e-06</v>
       </c>
       <c r="D171" t="n">
-        <v>0.07342251648586956</v>
+        <v>0.05305173689448618</v>
       </c>
       <c r="E171" t="inlineStr">
         <is>
@@ -3621,13 +3621,13 @@
         <v>4.474756521611869</v>
       </c>
       <c r="B172" t="n">
-        <v>0.0002359053181334132</v>
+        <v>0.0002361957764899615</v>
       </c>
       <c r="C172" t="n">
-        <v>5.736589736562904e-06</v>
+        <v>5.738640144188821e-06</v>
       </c>
       <c r="D172" t="n">
-        <v>0.3394802413228645</v>
+        <v>0.3354766364913325</v>
       </c>
       <c r="E172" t="inlineStr">
         <is>
@@ -3640,13 +3640,13 @@
         <v>4.491896257402779</v>
       </c>
       <c r="B173" t="n">
-        <v>0.0003387263703939848</v>
+        <v>0.0003393602000859807</v>
       </c>
       <c r="C173" t="n">
-        <v>8.510701663795464e-06</v>
+        <v>8.517119158754304e-06</v>
       </c>
       <c r="D173" t="n">
-        <v>0.2331424453881687</v>
+        <v>0.2251716672196729</v>
       </c>
       <c r="E173" t="inlineStr">
         <is>
@@ -3659,13 +3659,13 @@
         <v>4.500037631903461</v>
       </c>
       <c r="B174" t="n">
-        <v>0.000489530079652768</v>
+        <v>0.0004908135252147827</v>
       </c>
       <c r="C174" t="n">
-        <v>1.17936604801454e-05</v>
+        <v>1.180878042244137e-05</v>
       </c>
       <c r="D174" t="n">
-        <v>0.851518483276705</v>
+        <v>0.9080824321274185</v>
       </c>
       <c r="E174" t="inlineStr">
         <is>
@@ -3678,13 +3678,13 @@
         <v>4.503122784345824</v>
       </c>
       <c r="B175" t="n">
-        <v>0.0005296301628213759</v>
+        <v>0.0005306838388268861</v>
       </c>
       <c r="C175" t="n">
-        <v>1.326379664956468e-05</v>
+        <v>1.329113467779829e-05</v>
       </c>
       <c r="D175" t="n">
-        <v>0.3609184843968983</v>
+        <v>0.3485529875346747</v>
       </c>
       <c r="E175" t="inlineStr">
         <is>
@@ -3697,13 +3697,13 @@
         <v>4.509121691872643</v>
       </c>
       <c r="B176" t="n">
-        <v>0.0007375707192471187</v>
+        <v>0.000737816896619144</v>
       </c>
       <c r="C176" t="n">
-        <v>1.863120659469711e-05</v>
+        <v>1.863473588639428e-05</v>
       </c>
       <c r="D176" t="n">
-        <v>0.4931813656358585</v>
+        <v>0.5242766259520231</v>
       </c>
       <c r="E176" t="inlineStr">
         <is>
@@ -3716,13 +3716,13 @@
         <v>4.517520162410189</v>
       </c>
       <c r="B177" t="n">
-        <v>0.0009654216895387854</v>
+        <v>0.0009659379279900462</v>
       </c>
       <c r="C177" t="n">
-        <v>2.406288749163089e-05</v>
+        <v>2.40780783294956e-05</v>
       </c>
       <c r="D177" t="n">
-        <v>0.5760222524793126</v>
+        <v>0.5883736246476849</v>
       </c>
       <c r="E177" t="inlineStr">
         <is>
@@ -3735,13 +3735,13 @@
         <v>4.521890795036872</v>
       </c>
       <c r="B178" t="n">
-        <v>0.00101030206237973</v>
+        <v>0.001010272061608644</v>
       </c>
       <c r="C178" t="n">
-        <v>2.58145300884427e-05</v>
+        <v>2.584244768330116e-05</v>
       </c>
       <c r="D178" t="n">
-        <v>0.3366532076704422</v>
+        <v>0.2268956714325996</v>
       </c>
       <c r="E178" t="inlineStr">
         <is>
@@ -3754,13 +3754,13 @@
         <v>4.526175728984599</v>
       </c>
       <c r="B179" t="n">
-        <v>0.00107851258176764</v>
+        <v>0.001076738637953464</v>
       </c>
       <c r="C179" t="n">
-        <v>2.745805432350921e-05</v>
+        <v>2.741730902976918e-05</v>
       </c>
       <c r="D179" t="n">
-        <v>0.3766126471381885</v>
+        <v>0.3703309758500961</v>
       </c>
       <c r="E179" t="inlineStr">
         <is>
@@ -3773,13 +3773,13 @@
         <v>4.530460662932327</v>
       </c>
       <c r="B180" t="n">
-        <v>0.001239254667015087</v>
+        <v>0.001240563409521094</v>
       </c>
       <c r="C180" t="n">
-        <v>2.168065459750456e-05</v>
+        <v>2.169520969381035e-05</v>
       </c>
       <c r="D180" t="n">
-        <v>0.9130027607897095</v>
+        <v>0.9299126282286136</v>
       </c>
       <c r="E180" t="inlineStr">
         <is>
@@ -3792,13 +3792,13 @@
         <v>4.534574199522145</v>
       </c>
       <c r="B181" t="n">
-        <v>0.001674368276272529</v>
+        <v>0.001672274799099406</v>
       </c>
       <c r="C181" t="n">
-        <v>4.165314566662297e-05</v>
+        <v>4.15916427041606e-05</v>
       </c>
       <c r="D181" t="n">
-        <v>0.2889681726166507</v>
+        <v>0.2570635057518972</v>
       </c>
       <c r="E181" t="inlineStr">
         <is>
@@ -3811,13 +3811,13 @@
         <v>4.539030530827781</v>
       </c>
       <c r="B182" t="n">
-        <v>0.001989520656920035</v>
+        <v>0.001995578208954948</v>
       </c>
       <c r="C182" t="n">
-        <v>4.936096424128925e-05</v>
+        <v>4.945545332120517e-05</v>
       </c>
       <c r="D182" t="n">
-        <v>0.2303699580624935</v>
+        <v>0.2622502308874622</v>
       </c>
       <c r="E182" t="inlineStr">
         <is>
@@ -3830,13 +3830,13 @@
         <v>4.543486862133419</v>
       </c>
       <c r="B183" t="n">
-        <v>0.002551724524152538</v>
+        <v>0.002551446131743957</v>
       </c>
       <c r="C183" t="n">
-        <v>6.079037983669346e-05</v>
+        <v>6.080335961794458e-05</v>
       </c>
       <c r="D183" t="n">
-        <v>0.09412436798807236</v>
+        <v>0.07422210233121532</v>
       </c>
       <c r="E183" t="inlineStr">
         <is>
@@ -3849,13 +3849,13 @@
         <v>4.545800726465191</v>
       </c>
       <c r="B184" t="n">
-        <v>0.002939094816715013</v>
+        <v>0.002945339286251207</v>
       </c>
       <c r="C184" t="n">
-        <v>6.963091684359225e-05</v>
+        <v>6.977814011527912e-05</v>
       </c>
       <c r="D184" t="n">
-        <v>0.5027108893832466</v>
+        <v>0.4692057922060601</v>
       </c>
       <c r="E184" t="inlineStr">
         <is>
@@ -3868,13 +3868,13 @@
         <v>4.549914263055009</v>
       </c>
       <c r="B185" t="n">
-        <v>0.002853840274752063</v>
+        <v>0.00285278747289644</v>
       </c>
       <c r="C185" t="n">
-        <v>6.670542348747326e-05</v>
+        <v>6.666993027652673e-05</v>
       </c>
       <c r="D185" t="n">
-        <v>0.102843817628062</v>
+        <v>0.1235049622604558</v>
       </c>
       <c r="E185" t="inlineStr">
         <is>
@@ -3887,13 +3887,13 @@
         <v>4.551628236634101</v>
       </c>
       <c r="B186" t="n">
-        <v>0.002809658588883497</v>
+        <v>0.002812961938019532</v>
       </c>
       <c r="C186" t="n">
-        <v>6.580657196388144e-05</v>
+        <v>6.585227125307573e-05</v>
       </c>
       <c r="D186" t="n">
-        <v>0.8163241747290514</v>
+        <v>0.8313086697641652</v>
       </c>
       <c r="E186" t="inlineStr">
         <is>
@@ -3906,13 +3906,13 @@
         <v>4.553942100965873</v>
       </c>
       <c r="B187" t="n">
-        <v>0.002751707466284682</v>
+        <v>0.002754260775593216</v>
       </c>
       <c r="C187" t="n">
-        <v>6.448556036818976e-05</v>
+        <v>6.453958616899384e-05</v>
       </c>
       <c r="D187" t="n">
-        <v>0.05647314655526144</v>
+        <v>0.06160808498443746</v>
       </c>
       <c r="E187" t="inlineStr">
         <is>
@@ -3925,13 +3925,13 @@
         <v>4.558912624345237</v>
       </c>
       <c r="B188" t="n">
-        <v>0.002179801067622252</v>
+        <v>0.002182298396150906</v>
       </c>
       <c r="C188" t="n">
-        <v>5.041783279341505e-05</v>
+        <v>5.04722561439181e-05</v>
       </c>
       <c r="D188" t="n">
-        <v>0.07620078971645852</v>
+        <v>0.07091015141934763</v>
       </c>
       <c r="E188" t="inlineStr">
         <is>
@@ -3944,13 +3944,13 @@
         <v>4.562940462256101</v>
       </c>
       <c r="B189" t="n">
-        <v>0.001625156705784719</v>
+        <v>0.001626497762513444</v>
       </c>
       <c r="C189" t="n">
-        <v>3.787086703954652e-05</v>
+        <v>3.790384407724967e-05</v>
       </c>
       <c r="D189" t="n">
-        <v>0.07750022178316694</v>
+        <v>0.0742348908484074</v>
       </c>
       <c r="E189" t="inlineStr">
         <is>
@@ -3963,13 +3963,13 @@
         <v>4.56688260148801</v>
       </c>
       <c r="B190" t="n">
-        <v>0.00114638927242524</v>
+        <v>0.001146662552521903</v>
       </c>
       <c r="C190" t="n">
-        <v>2.672978648320969e-05</v>
+        <v>2.671342633428247e-05</v>
       </c>
       <c r="D190" t="n">
-        <v>0.1706848373604941</v>
+        <v>0.178394336365192</v>
       </c>
       <c r="E190" t="inlineStr">
         <is>
@@ -3982,13 +3982,13 @@
         <v>4.571424631472602</v>
       </c>
       <c r="B191" t="n">
-        <v>0.0007783870873183319</v>
+        <v>0.0007780877286129429</v>
       </c>
       <c r="C191" t="n">
-        <v>1.817793394077567e-05</v>
+        <v>1.817058309873467e-05</v>
       </c>
       <c r="D191" t="n">
-        <v>0.1471600257748894</v>
+        <v>0.1203998176703607</v>
       </c>
       <c r="E191" t="inlineStr">
         <is>
@@ -4001,13 +4001,13 @@
         <v>4.575623866741375</v>
       </c>
       <c r="B192" t="n">
-        <v>0.0005427347121975533</v>
+        <v>0.000543629058160837</v>
       </c>
       <c r="C192" t="n">
-        <v>1.2934227651113e-05</v>
+        <v>1.294254682022382e-05</v>
       </c>
       <c r="D192" t="n">
-        <v>0.04842409168838611</v>
+        <v>0.03987508852625287</v>
       </c>
       <c r="E192" t="inlineStr">
         <is>
@@ -4020,13 +4020,13 @@
         <v>4.580080198047011</v>
       </c>
       <c r="B193" t="n">
-        <v>0.0004103987674781566</v>
+        <v>0.0004115216471807054</v>
       </c>
       <c r="C193" t="n">
-        <v>6.993700654583055e-06</v>
+        <v>7.01168435372223e-06</v>
       </c>
       <c r="D193" t="n">
-        <v>0.3145026683028072</v>
+        <v>0.2961747633820777</v>
       </c>
       <c r="E193" t="inlineStr">
         <is>
@@ -4039,13 +4039,13 @@
         <v>4.58402233727892</v>
       </c>
       <c r="B194" t="n">
-        <v>0.0003697364686038057</v>
+        <v>0.0003705115890853591</v>
       </c>
       <c r="C194" t="n">
-        <v>8.544078322445754e-06</v>
+        <v>8.567535946351904e-06</v>
       </c>
       <c r="D194" t="n">
-        <v>0.07330194936264313</v>
+        <v>0.04762742723176264</v>
       </c>
       <c r="E194" t="inlineStr">
         <is>
@@ -4058,13 +4058,13 @@
         <v>4.588478668584557</v>
       </c>
       <c r="B195" t="n">
-        <v>0.0003375864942135216</v>
+        <v>0.0003388593394651468</v>
       </c>
       <c r="C195" t="n">
-        <v>7.828691278713388e-06</v>
+        <v>7.848543315835032e-06</v>
       </c>
       <c r="D195" t="n">
-        <v>0.5458617801958927</v>
+        <v>0.6026707950726837</v>
       </c>
       <c r="E195" t="inlineStr">
         <is>
@@ -4077,13 +4077,13 @@
         <v>4.588650065942466</v>
       </c>
       <c r="B196" t="n">
-        <v>0.0003362389831665302</v>
+        <v>0.0003365502205195772</v>
       </c>
       <c r="C196" t="n">
-        <v>7.62297758056451e-06</v>
+        <v>7.630962826118309e-06</v>
       </c>
       <c r="D196" t="n">
-        <v>0.07131119126114246</v>
+        <v>0.09487331186822659</v>
       </c>
       <c r="E196" t="inlineStr">
         <is>
@@ -4096,13 +4096,13 @@
         <v>4.592078013100648</v>
       </c>
       <c r="B197" t="n">
-        <v>0.0002999041358998337</v>
+        <v>0.0003001417657050828</v>
       </c>
       <c r="C197" t="n">
-        <v>6.818454906740466e-06</v>
+        <v>6.829065736534305e-06</v>
       </c>
       <c r="D197" t="n">
-        <v>0.9047032741526911</v>
+        <v>0.9054098910836056</v>
       </c>
       <c r="E197" t="inlineStr">
         <is>
@@ -4115,13 +4115,13 @@
         <v>4.593277794606012</v>
       </c>
       <c r="B198" t="n">
-        <v>0.0002944360689054706</v>
+        <v>0.0002948389327094008</v>
       </c>
       <c r="C198" t="n">
-        <v>6.556295379891172e-06</v>
+        <v>6.566639577700213e-06</v>
       </c>
       <c r="D198" t="n">
-        <v>0.09717502337309289</v>
+        <v>0.09836498744474541</v>
       </c>
       <c r="E198" t="inlineStr">
         <is>
@@ -4134,13 +4134,13 @@
         <v>4.593534890642876</v>
       </c>
       <c r="B199" t="n">
-        <v>0.0002909504225544872</v>
+        <v>0.0002906960165969283</v>
       </c>
       <c r="C199" t="n">
-        <v>6.469394243005098e-06</v>
+        <v>6.467304475249373e-06</v>
       </c>
       <c r="D199" t="n">
-        <v>0.8312320605120969</v>
+        <v>0.8085456425464901</v>
       </c>
       <c r="E199" t="inlineStr">
         <is>
@@ -4153,13 +4153,13 @@
         <v>4.596534344406285</v>
       </c>
       <c r="B200" t="n">
-        <v>0.0003068144083216727</v>
+        <v>0.0003082944001622771</v>
       </c>
       <c r="C200" t="n">
-        <v>7.400651657131738e-06</v>
+        <v>7.428030564737353e-06</v>
       </c>
       <c r="D200" t="n">
-        <v>0.4685613042076956</v>
+        <v>0.4023344739505462</v>
       </c>
       <c r="E200" t="inlineStr">
         <is>
@@ -4172,13 +4172,13 @@
         <v>4.597819824590603</v>
       </c>
       <c r="B201" t="n">
-        <v>0.0002867692000445767</v>
+        <v>0.000286128456726704</v>
       </c>
       <c r="C201" t="n">
-        <v>6.346998596198177e-06</v>
+        <v>6.334799810349891e-06</v>
       </c>
       <c r="D201" t="n">
-        <v>0.08290052708229875</v>
+        <v>0.1038417144663273</v>
       </c>
       <c r="E201" t="inlineStr">
         <is>
@@ -4191,13 +4191,13 @@
         <v>4.601504867785649</v>
       </c>
       <c r="B202" t="n">
-        <v>0.0003724910035479419</v>
+        <v>0.0003720487422311309</v>
       </c>
       <c r="C202" t="n">
-        <v>9.076959258578284e-06</v>
+        <v>9.068011852044823e-06</v>
       </c>
       <c r="D202" t="n">
-        <v>0.2895691043958039</v>
+        <v>0.2572010869122141</v>
       </c>
       <c r="E202" t="inlineStr">
         <is>
@@ -4210,13 +4210,13 @@
         <v>4.603133142685785</v>
       </c>
       <c r="B203" t="n">
-        <v>0.0003608276458816227</v>
+        <v>0.0003630461663592065</v>
       </c>
       <c r="C203" t="n">
-        <v>8.808498927134815e-06</v>
+        <v>8.846271753553633e-06</v>
       </c>
       <c r="D203" t="n">
-        <v>0.5462885604122816</v>
+        <v>0.6412242844829996</v>
       </c>
       <c r="E203" t="inlineStr">
         <is>
@@ -4229,13 +4229,13 @@
         <v>4.604932814943831</v>
       </c>
       <c r="B204" t="n">
-        <v>0.0003573681251934594</v>
+        <v>0.0003568658936019444</v>
       </c>
       <c r="C204" t="n">
-        <v>8.731137337339506e-06</v>
+        <v>8.714313348143795e-06</v>
       </c>
       <c r="D204" t="n">
-        <v>0.5146583696283784</v>
+        <v>0.5118784212747163</v>
       </c>
       <c r="E204" t="inlineStr">
         <is>
@@ -4248,13 +4248,13 @@
         <v>4.606646788522922</v>
       </c>
       <c r="B205" t="n">
-        <v>0.0003557360137351089</v>
+        <v>0.0003555428260082378</v>
       </c>
       <c r="C205" t="n">
-        <v>8.710590625234788e-06</v>
+        <v>8.702317796591618e-06</v>
       </c>
       <c r="D205" t="n">
-        <v>0.3395871392444004</v>
+        <v>0.4174514978059036</v>
       </c>
       <c r="E205" t="inlineStr">
         <is>
@@ -4267,13 +4267,13 @@
         <v>4.608446460780968</v>
       </c>
       <c r="B206" t="n">
-        <v>0.0003517233545562289</v>
+        <v>0.0003517767104592872</v>
       </c>
       <c r="C206" t="n">
-        <v>8.689871450905831e-06</v>
+        <v>8.693259357951112e-06</v>
       </c>
       <c r="D206" t="n">
-        <v>0.5653180935277243</v>
+        <v>0.6365735986895052</v>
       </c>
       <c r="E206" t="inlineStr">
         <is>
@@ -4286,13 +4286,13 @@
         <v>4.610160434360059</v>
       </c>
       <c r="B207" t="n">
-        <v>0.0003539434859674832</v>
+        <v>0.0003542894268960327</v>
       </c>
       <c r="C207" t="n">
-        <v>8.236665631308368e-06</v>
+        <v>8.251934912849177e-06</v>
       </c>
       <c r="D207" t="n">
-        <v>0.531247064658521</v>
+        <v>0.5301424255749616</v>
       </c>
       <c r="E207" t="inlineStr">
         <is>
@@ -4305,13 +4305,13 @@
         <v>4.611617311902286</v>
       </c>
       <c r="B208" t="n">
-        <v>0.0003524804379592516</v>
+        <v>0.0003517981353409048</v>
       </c>
       <c r="C208" t="n">
-        <v>8.552992703816807e-06</v>
+        <v>8.544740427227966e-06</v>
       </c>
       <c r="D208" t="n">
-        <v>0.5955746086398523</v>
+        <v>0.5868897605721496</v>
       </c>
       <c r="E208" t="inlineStr">
         <is>
@@ -4324,13 +4324,13 @@
         <v>4.615987944528968</v>
       </c>
       <c r="B209" t="n">
-        <v>0.0003117426225159579</v>
+        <v>0.0003121238357798939</v>
       </c>
       <c r="C209" t="n">
-        <v>7.094330869748853e-06</v>
+        <v>7.102054967597292e-06</v>
       </c>
       <c r="D209" t="n">
-        <v>0.4414497693135647</v>
+        <v>0.4736660193722502</v>
       </c>
       <c r="E209" t="inlineStr">
         <is>
@@ -4343,13 +4343,13 @@
         <v>4.620529974513559</v>
       </c>
       <c r="B210" t="n">
-        <v>0.0002633181571860833</v>
+        <v>0.000264688502621765</v>
       </c>
       <c r="C210" t="n">
-        <v>5.962766157114592e-06</v>
+        <v>5.978215547566958e-06</v>
       </c>
       <c r="D210" t="n">
-        <v>0.4028234120762519</v>
+        <v>0.4912862149635655</v>
       </c>
       <c r="E210" t="inlineStr">
         <is>
@@ -4362,13 +4362,13 @@
         <v>4.622929537524286</v>
       </c>
       <c r="B211" t="n">
-        <v>0.0002508010144019103</v>
+        <v>0.0002515395385049402</v>
       </c>
       <c r="C211" t="n">
-        <v>5.596607994624076e-06</v>
+        <v>5.610625501409225e-06</v>
       </c>
       <c r="D211" t="n">
-        <v>0.3256962375784307</v>
+        <v>0.3776166442739116</v>
       </c>
       <c r="E211" t="inlineStr">
         <is>
@@ -4381,13 +4381,13 @@
         <v>4.623272332240105</v>
       </c>
       <c r="B212" t="n">
-        <v>0.0002608521569917321</v>
+        <v>0.0002604158898218147</v>
       </c>
       <c r="C212" t="n">
-        <v>5.796019916742422e-06</v>
+        <v>5.782687067254916e-06</v>
       </c>
       <c r="D212" t="n">
-        <v>0.1584093696978506</v>
+        <v>0.1853773620915166</v>
       </c>
       <c r="E212" t="inlineStr">
         <is>
@@ -4400,13 +4400,13 @@
         <v>4.623786524313832</v>
       </c>
       <c r="B213" t="n">
-        <v>0.0002503246773637742</v>
+        <v>0.0002509008854204443</v>
       </c>
       <c r="C213" t="n">
-        <v>5.525297548135172e-06</v>
+        <v>5.537119670320981e-06</v>
       </c>
       <c r="D213" t="n">
-        <v>0.3357873098552666</v>
+        <v>0.3685644687526892</v>
       </c>
       <c r="E213" t="inlineStr">
         <is>
@@ -4419,13 +4419,13 @@
         <v>4.625586196571877</v>
       </c>
       <c r="B214" t="n">
-        <v>0.000246309374097866</v>
+        <v>0.0002458661420057188</v>
       </c>
       <c r="C214" t="n">
-        <v>5.424825803141501e-06</v>
+        <v>5.4109823440839e-06</v>
       </c>
       <c r="D214" t="n">
-        <v>0.4046234039739113</v>
+        <v>0.4475414622601511</v>
       </c>
       <c r="E214" t="inlineStr">
         <is>
@@ -4438,13 +4438,13 @@
         <v>4.628928445051105</v>
       </c>
       <c r="B215" t="n">
-        <v>0.0002439751825949623</v>
+        <v>0.0002446413976294841</v>
       </c>
       <c r="C215" t="n">
-        <v>5.321662244893902e-06</v>
+        <v>5.332983387228941e-06</v>
       </c>
       <c r="D215" t="n">
-        <v>0.7233619560288779</v>
+        <v>0.7864196494571837</v>
       </c>
       <c r="E215" t="inlineStr">
         <is>
@@ -4457,13 +4457,13 @@
         <v>4.631670802777651</v>
       </c>
       <c r="B216" t="n">
-        <v>0.0002463552488623995</v>
+        <v>0.000247418720575359</v>
       </c>
       <c r="C216" t="n">
-        <v>5.3922986048813e-06</v>
+        <v>5.403928005433676e-06</v>
       </c>
       <c r="D216" t="n">
-        <v>0.03883255671305967</v>
+        <v>0.08366303135702668</v>
       </c>
       <c r="E216" t="inlineStr">
         <is>
@@ -4476,13 +4476,13 @@
         <v>4.64049776670997</v>
       </c>
       <c r="B217" t="n">
-        <v>0.0002605161955197903</v>
+        <v>0.0002608241787104761</v>
       </c>
       <c r="C217" t="n">
-        <v>5.702558207519123e-06</v>
+        <v>5.702355346043344e-06</v>
       </c>
       <c r="D217" t="n">
-        <v>0.09548494299483791</v>
+        <v>0.1506601678996446</v>
       </c>
       <c r="E217" t="inlineStr">
         <is>
@@ -4495,13 +4495,13 @@
         <v>4.649667525358106</v>
       </c>
       <c r="B218" t="n">
-        <v>0.0002595881149456854</v>
+        <v>0.0002595348103149842</v>
       </c>
       <c r="C218" t="n">
-        <v>5.678951863525508e-06</v>
+        <v>5.682332822193082e-06</v>
       </c>
       <c r="D218" t="n">
-        <v>0.0776252186130283</v>
+        <v>0.07106258347862157</v>
       </c>
       <c r="E218" t="inlineStr">
         <is>
@@ -4514,13 +4514,13 @@
         <v>4.658494489290425</v>
       </c>
       <c r="B219" t="n">
-        <v>0.0002491444951862125</v>
+        <v>0.0002488814776075776</v>
       </c>
       <c r="C219" t="n">
-        <v>5.453990043082321e-06</v>
+        <v>5.450253706864239e-06</v>
       </c>
       <c r="D219" t="n">
-        <v>0.05310727440510204</v>
+        <v>0.03880405278106962</v>
       </c>
       <c r="E219" t="inlineStr">
         <is>
@@ -4533,13 +4533,13 @@
         <v>4.667921343975426</v>
       </c>
       <c r="B220" t="n">
-        <v>0.0002612690013382199</v>
+        <v>0.0002616597174103275</v>
       </c>
       <c r="C220" t="n">
-        <v>5.682645131257697e-06</v>
+        <v>5.692080856629374e-06</v>
       </c>
       <c r="D220" t="n">
-        <v>0.2852439893899559</v>
+        <v>0.2799680890136614</v>
       </c>
       <c r="E220" t="inlineStr">
         <is>
@@ -4552,13 +4552,13 @@
         <v>4.671263592454653</v>
       </c>
       <c r="B221" t="n">
-        <v>0.0002753340689050272</v>
+        <v>0.0002754245518971282</v>
       </c>
       <c r="C221" t="n">
-        <v>6.035489393801279e-06</v>
+        <v>6.031360795342176e-06</v>
       </c>
       <c r="D221" t="n">
-        <v>0.07978830804850756</v>
+        <v>0.09977661507630721</v>
       </c>
       <c r="E221" t="inlineStr">
         <is>
